--- a/DDAf_2022_Tableau_annexe_Tab21.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab21.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab21" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
     <t>BWA</t>
   </si>
   <si>
-    <t>Botswana*</t>
+    <t>Botswana</t>
   </si>
   <si>
     <t>SWZ</t>
@@ -117,7 +117,7 @@
     <t>ZMB</t>
   </si>
   <si>
-    <t>Zambie*</t>
+    <t>Zambie</t>
   </si>
   <si>
     <t>ZWE</t>
@@ -159,13 +159,13 @@
     <t>COG</t>
   </si>
   <si>
-    <t>Congo*</t>
+    <t>République du Congo*</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>DR Congo*</t>
+    <t>RD Congo</t>
   </si>
   <si>
     <t>GNQ</t>
@@ -183,7 +183,7 @@
     <t>STP</t>
   </si>
   <si>
-    <t>São Tomé and Príncipe</t>
+    <t>Sao Tomé-et-Principe</t>
   </si>
   <si>
     <t>Afrique Centrale</t>
@@ -255,7 +255,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>Soudan du Sud*</t>
+    <t>Soudan du Sud</t>
   </si>
   <si>
     <t>SDN</t>
@@ -267,7 +267,7 @@
     <t>TZA</t>
   </si>
   <si>
-    <t>UR of Tanzania</t>
+    <t>Tanzanie</t>
   </si>
   <si>
     <t>UGA</t>
@@ -369,7 +369,7 @@
     <t>LBR</t>
   </si>
   <si>
-    <t>Libéria</t>
+    <t>Liberia</t>
   </si>
   <si>
     <t>MLI</t>
@@ -387,7 +387,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigéria*</t>
+    <t>Nigeria*</t>
   </si>
   <si>
     <t>SEN</t>
@@ -405,7 +405,7 @@
     <t>TGO</t>
   </si>
   <si>
-    <t>Togo*</t>
+    <t>Togo</t>
   </si>
   <si>
     <t>Afrique de l'Ouest</t>

--- a/DDAf_2022_Tableau_annexe_Tab21.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab21.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab21" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="174">
-  <si>
-    <t>Retour au Contenu</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="173">
   <si>
     <t>Tableau 21 : Commerce international et régional</t>
   </si>
@@ -1302,11 +1299,9 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -1320,48 +1315,48 @@
     </row>
     <row r="2" spans="1:12" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="C3" s="12">
         <v>2.2186130560122899</v>
@@ -1396,10 +1391,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>17</v>
       </c>
       <c r="C4" s="15">
         <v>14.233513381806199</v>
@@ -1434,10 +1429,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>19</v>
       </c>
       <c r="C5" s="19">
         <v>48.582849695767997</v>
@@ -1472,10 +1467,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>21</v>
       </c>
       <c r="C6" s="19">
         <v>25.929692785183601</v>
@@ -1510,10 +1505,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>22</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>23</v>
       </c>
       <c r="C7" s="19">
         <v>30.6313402000747</v>
@@ -1548,10 +1543,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>24</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>25</v>
       </c>
       <c r="C8" s="19">
         <v>21.106590329394901</v>
@@ -1586,10 +1581,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>26</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>27</v>
       </c>
       <c r="C9" s="19">
         <v>34.417171217190997</v>
@@ -1624,10 +1619,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>28</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>29</v>
       </c>
       <c r="C10" s="19">
         <v>19.358022842012101</v>
@@ -1662,10 +1657,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>31</v>
       </c>
       <c r="C11" s="15">
         <v>32.117069458978001</v>
@@ -1700,10 +1695,10 @@
     </row>
     <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>32</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>33</v>
       </c>
       <c r="C12" s="22">
         <v>38.808934201640703</v>
@@ -1738,10 +1733,10 @@
     </row>
     <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>34</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>35</v>
       </c>
       <c r="C13" s="26">
         <v>18.550186824578901</v>
@@ -1776,10 +1771,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>36</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>37</v>
       </c>
       <c r="C14" s="19">
         <v>17.025130141005</v>
@@ -1814,10 +1809,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>38</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>39</v>
       </c>
       <c r="C15" s="19">
         <v>2.7759875180117302</v>
@@ -1852,10 +1847,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>40</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="C16" s="19">
         <v>2.25657194217656</v>
@@ -1890,10 +1885,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="28" t="s">
         <v>42</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>43</v>
       </c>
       <c r="C17" s="12">
         <v>0.14955797231163001</v>
@@ -1928,10 +1923,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="28" t="s">
         <v>44</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>45</v>
       </c>
       <c r="C18" s="12">
         <v>2.01056036954401</v>
@@ -1966,10 +1961,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="C19" s="15">
         <v>6.8101735856069201</v>
@@ -2004,10 +1999,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="28" t="s">
         <v>48</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>49</v>
       </c>
       <c r="C20" s="12">
         <v>2.537659829438E-2</v>
@@ -2042,10 +2037,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="28" t="s">
         <v>50</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>51</v>
       </c>
       <c r="C21" s="12">
         <v>0.80059582266064</v>
@@ -2080,10 +2075,10 @@
     </row>
     <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>52</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>53</v>
       </c>
       <c r="C22" s="19">
         <v>0.36231955658287002</v>
@@ -2118,10 +2113,10 @@
     </row>
     <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="26">
         <v>2.78406365624142</v>
@@ -2156,10 +2151,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="18" t="s">
         <v>55</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>56</v>
       </c>
       <c r="C24" s="19">
         <v>9.5657966995942108</v>
@@ -2194,10 +2189,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>57</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>58</v>
       </c>
       <c r="C25" s="19">
         <v>7.7596181410976497</v>
@@ -2232,37 +2227,37 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="C26" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="19" t="s">
-        <v>61</v>
-      </c>
       <c r="D26" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L26" s="20">
         <v>31.532871378903199</v>
@@ -2270,10 +2265,10 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>62</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>63</v>
       </c>
       <c r="C27" s="19">
         <v>1.31881818692328</v>
@@ -2308,10 +2303,10 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="C28" s="19">
         <v>33.783752542403001</v>
@@ -2346,10 +2341,10 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>67</v>
       </c>
       <c r="C29" s="19">
         <v>6.3002426676637997</v>
@@ -2384,10 +2379,10 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="18" t="s">
         <v>68</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>69</v>
       </c>
       <c r="C30" s="19">
         <v>33.801745791303397</v>
@@ -2422,10 +2417,10 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="18" t="s">
         <v>70</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>71</v>
       </c>
       <c r="C31" s="19">
         <v>39.4458827400193</v>
@@ -2460,10 +2455,10 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="18" t="s">
         <v>72</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>73</v>
       </c>
       <c r="C32" s="19">
         <v>18.686618875206602</v>
@@ -2498,10 +2493,10 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="18" t="s">
         <v>74</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>75</v>
       </c>
       <c r="C33" s="19">
         <v>2.4772524842612</v>
@@ -2536,10 +2531,10 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="C34" s="15">
         <v>1.343472985172E-2</v>
@@ -2574,10 +2569,10 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="18" t="s">
         <v>78</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>79</v>
       </c>
       <c r="C35" s="19">
         <v>7.0832469741163697</v>
@@ -2612,10 +2607,10 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="18" t="s">
         <v>80</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>81</v>
       </c>
       <c r="C36" s="19">
         <v>19.497613972459099</v>
@@ -2650,10 +2645,10 @@
     </row>
     <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="18" t="s">
         <v>82</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>83</v>
       </c>
       <c r="C37" s="19">
         <v>12.5495542298143</v>
@@ -2688,10 +2683,10 @@
     </row>
     <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C38" s="26">
         <v>17.544783409043799</v>
@@ -2726,10 +2721,10 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="29" t="s">
         <v>85</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>86</v>
       </c>
       <c r="C39" s="12">
         <v>5.8699571790951</v>
@@ -2764,10 +2759,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="18" t="s">
         <v>87</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>88</v>
       </c>
       <c r="C40" s="19">
         <v>11.3984212279526</v>
@@ -2802,10 +2797,10 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="29" t="s">
         <v>89</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>90</v>
       </c>
       <c r="C41" s="12">
         <v>0.87183066799027997</v>
@@ -2835,15 +2830,15 @@
         <v>15.5848095997231</v>
       </c>
       <c r="L41" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="29" t="s">
         <v>91</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>92</v>
       </c>
       <c r="C42" s="12">
         <v>10.0952373119654</v>
@@ -2878,10 +2873,10 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="18" t="s">
         <v>93</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>94</v>
       </c>
       <c r="C43" s="19">
         <v>5.9346432532981197</v>
@@ -2916,10 +2911,10 @@
     </row>
     <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="18" t="s">
         <v>95</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>96</v>
       </c>
       <c r="C44" s="19">
         <v>9.6050086062566606</v>
@@ -2954,10 +2949,10 @@
     </row>
     <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C45" s="26">
         <v>6.8967475442758204</v>
@@ -2992,10 +2987,10 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="18" t="s">
         <v>98</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>99</v>
       </c>
       <c r="C46" s="19">
         <v>32.886518676744998</v>
@@ -3030,10 +3025,10 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="18" t="s">
         <v>100</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>101</v>
       </c>
       <c r="C47" s="19">
         <v>7.1512519874156597</v>
@@ -3068,10 +3063,10 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="18" t="s">
         <v>102</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>103</v>
       </c>
       <c r="C48" s="19">
         <v>1.1181613472254599</v>
@@ -3106,10 +3101,10 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" s="18" t="s">
         <v>104</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>105</v>
       </c>
       <c r="C49" s="19">
         <v>17.1075307596466</v>
@@ -3144,10 +3139,10 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="18" t="s">
         <v>106</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>107</v>
       </c>
       <c r="C50" s="19">
         <v>12.7965011024903</v>
@@ -3182,10 +3177,10 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" s="14" t="s">
         <v>108</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>109</v>
       </c>
       <c r="C51" s="15">
         <v>5.1195010725121097</v>
@@ -3220,10 +3215,10 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="18" t="s">
         <v>110</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>111</v>
       </c>
       <c r="C52" s="19">
         <v>0.32530913125452998</v>
@@ -3258,10 +3253,10 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="18" t="s">
         <v>112</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>113</v>
       </c>
       <c r="C53" s="19">
         <v>13.306529442265299</v>
@@ -3296,10 +3291,10 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="18" t="s">
         <v>114</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>115</v>
       </c>
       <c r="C54" s="19">
         <v>1.2610613626134499</v>
@@ -3334,10 +3329,10 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" s="18" t="s">
         <v>116</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>117</v>
       </c>
       <c r="C55" s="19">
         <v>1.4713866551667201</v>
@@ -3372,10 +3367,10 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" s="18" t="s">
         <v>118</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>119</v>
       </c>
       <c r="C56" s="19">
         <v>5.1485227500204003</v>
@@ -3410,10 +3405,10 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" s="29" t="s">
         <v>120</v>
-      </c>
-      <c r="B57" s="29" t="s">
-        <v>121</v>
       </c>
       <c r="C57" s="12">
         <v>10.259798064179501</v>
@@ -3448,10 +3443,10 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" s="18" t="s">
         <v>122</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>123</v>
       </c>
       <c r="C58" s="19">
         <v>39.343078480004202</v>
@@ -3486,10 +3481,10 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" s="18" t="s">
         <v>124</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>125</v>
       </c>
       <c r="C59" s="19">
         <v>3.9203801115946399</v>
@@ -3524,10 +3519,10 @@
     </row>
     <row r="60" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" s="14" t="s">
         <v>126</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>127</v>
       </c>
       <c r="C60" s="15">
         <v>47.152201140903301</v>
@@ -3563,7 +3558,7 @@
     <row r="61" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="24"/>
       <c r="B61" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C61" s="26">
         <v>10.8099065986765</v>
@@ -3599,7 +3594,7 @@
     <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="30"/>
       <c r="B62" s="31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C62" s="32">
         <v>12.1700977870114</v>
@@ -3635,13 +3630,13 @@
     <row r="63" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="30"/>
       <c r="B63" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C63" s="32">
         <v>20.926755700780902</v>
       </c>
       <c r="D63" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E63" s="32">
         <v>58.609028311609897</v>
@@ -3671,13 +3666,13 @@
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="34"/>
       <c r="B64" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C64" s="36">
         <v>7.6746676353734502</v>
       </c>
       <c r="D64" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E64" s="36">
         <v>47.9712270251853</v>
@@ -3707,13 +3702,13 @@
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="34"/>
       <c r="B65" s="38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C65" s="39">
         <v>5.45752024892212</v>
       </c>
       <c r="D65" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E65" s="39">
         <v>49.848810199867202</v>
@@ -3743,7 +3738,7 @@
     <row r="66" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="34"/>
       <c r="B66" s="41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C66" s="42">
         <v>20.665772372563499</v>
@@ -3779,7 +3774,7 @@
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="34"/>
       <c r="B67" s="38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C67" s="39">
         <v>13.724081225713601</v>
@@ -3815,7 +3810,7 @@
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="34"/>
       <c r="B68" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="39">
         <v>9.0523538738354592</v>
@@ -3851,7 +3846,7 @@
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="34"/>
       <c r="B69" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C69" s="39">
         <v>23.116178595192199</v>
@@ -3887,7 +3882,7 @@
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="34"/>
       <c r="B70" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C70" s="39">
         <v>3.2126393372798199</v>
@@ -3923,7 +3918,7 @@
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="34"/>
       <c r="B71" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C71" s="39">
         <v>10.8099065986765</v>
@@ -3959,7 +3954,7 @@
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="34"/>
       <c r="B72" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C72" s="39">
         <v>15.2036404052013</v>
@@ -3995,7 +3990,7 @@
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="34"/>
       <c r="B73" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C73" s="39">
         <v>18.082341882288901</v>
@@ -4031,7 +4026,7 @@
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="34"/>
       <c r="B74" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C74" s="39">
         <v>5.4412230310563698</v>
@@ -4067,7 +4062,7 @@
     <row r="75" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="34"/>
       <c r="B75" s="41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C75" s="42">
         <v>4.5085312637781696</v>
@@ -4103,13 +4098,13 @@
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="34"/>
       <c r="B76" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C76" s="39">
         <v>21.842133570799401</v>
       </c>
       <c r="D76" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E76" s="39">
         <v>63.4887362040038</v>
@@ -4139,13 +4134,13 @@
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="34"/>
       <c r="B77" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C77" s="39">
         <v>15.8252172531899</v>
       </c>
       <c r="D77" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E77" s="39">
         <v>15.8253917199906</v>
@@ -4175,13 +4170,13 @@
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="34"/>
       <c r="B78" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C78" s="39">
         <v>57.661730776900001</v>
       </c>
       <c r="D78" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E78" s="39">
         <v>72.5241859201317</v>
@@ -4211,13 +4206,13 @@
     <row r="79" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="34"/>
       <c r="B79" s="41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C79" s="42">
         <v>29.2347254647987</v>
       </c>
       <c r="D79" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E79" s="42">
         <v>61.521506125660899</v>
@@ -4247,7 +4242,7 @@
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="34"/>
       <c r="B80" s="38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C80" s="39">
         <v>5.53687260891079</v>
@@ -4283,13 +4278,13 @@
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="34"/>
       <c r="B81" s="38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C81" s="39">
         <v>0.46212810525691</v>
       </c>
       <c r="D81" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E81" s="39">
         <v>67.977461813891296</v>
@@ -4319,7 +4314,7 @@
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="34"/>
       <c r="B82" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C82" s="39">
         <v>15.7331161443603</v>
@@ -4355,13 +4350,13 @@
     <row r="83" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="34"/>
       <c r="B83" s="41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C83" s="42">
         <v>22.658066202263701</v>
       </c>
       <c r="D83" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E83" s="42">
         <v>57.816457460797501</v>
@@ -4391,7 +4386,7 @@
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="34"/>
       <c r="B84" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C84" s="39">
         <v>9.2341081910448501</v>
@@ -4427,13 +4422,13 @@
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="34"/>
       <c r="B85" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C85" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D85" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E85" s="39">
         <v>83.019676385027907</v>
@@ -4463,7 +4458,7 @@
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="34"/>
       <c r="B86" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C86" s="39">
         <v>10.812609773061901</v>
@@ -4499,13 +4494,13 @@
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="34"/>
       <c r="B87" s="38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C87" s="39">
         <v>8.9314772573379795</v>
       </c>
       <c r="D87" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E87" s="39">
         <v>52.553683886545002</v>
@@ -4535,7 +4530,7 @@
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="34"/>
       <c r="B88" s="38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C88" s="39">
         <v>15.754141972682399</v>
@@ -4571,13 +4566,13 @@
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="34"/>
       <c r="B89" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C89" s="39">
         <v>5.5554171205256404</v>
       </c>
       <c r="D89" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E89" s="39">
         <v>52.478094522121403</v>
@@ -4607,7 +4602,7 @@
     <row r="90" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="34"/>
       <c r="B90" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C90" s="42">
         <v>29.2792770198214</v>
@@ -4643,7 +4638,7 @@
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="34"/>
       <c r="B91" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C91" s="39">
         <v>11.269092485031001</v>
@@ -4679,13 +4674,13 @@
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="34"/>
       <c r="B92" s="38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C92" s="39">
         <v>14.290806610440701</v>
       </c>
       <c r="D92" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E92" s="39">
         <v>39.326950181346902</v>
@@ -4715,7 +4710,7 @@
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="34"/>
       <c r="B93" s="38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C93" s="39">
         <v>27.423774732639199</v>
@@ -4751,13 +4746,13 @@
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="34"/>
       <c r="B94" s="38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C94" s="39">
         <v>21.9213228669981</v>
       </c>
       <c r="D94" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E94" s="39">
         <v>68.233767803415105</v>
@@ -4787,7 +4782,7 @@
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="34"/>
       <c r="B95" s="38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C95" s="39">
         <v>19.872659579157201</v>
@@ -4823,13 +4818,13 @@
     <row r="96" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="34"/>
       <c r="B96" s="41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C96" s="42">
         <v>8.0235500186649098</v>
       </c>
       <c r="D96" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E96" s="42">
         <v>66.816191458816604</v>
@@ -4859,7 +4854,7 @@
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="34"/>
       <c r="B97" s="38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C97" s="39">
         <v>10.126793837708201</v>
@@ -4895,13 +4890,13 @@
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="34"/>
       <c r="B98" s="38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C98" s="39">
         <v>5.4281381491430798</v>
       </c>
       <c r="D98" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E98" s="39">
         <v>51.455718258406797</v>
@@ -4931,7 +4926,7 @@
     <row r="99" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="34"/>
       <c r="B99" s="41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C99" s="42">
         <v>0.98086706136005997</v>
@@ -4980,7 +4975,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="49"/>
@@ -4996,7 +4991,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="49"/>
@@ -5012,7 +5007,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="49"/>
@@ -5028,7 +5023,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B104" s="48"/>
       <c r="C104" s="49"/>
@@ -5044,7 +5039,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="49"/>
@@ -5086,7 +5081,7 @@
     </row>
     <row r="108" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C108" s="49"/>
       <c r="D108" s="49"/>
@@ -5114,7 +5109,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C110" s="49"/>
       <c r="D110" s="49"/>
@@ -5129,7 +5124,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C111" s="49"/>
       <c r="D111" s="49"/>
@@ -5157,7 +5152,7 @@
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C113" s="49"/>
       <c r="D113" s="49"/>
@@ -5172,7 +5167,7 @@
     </row>
     <row r="114" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C114" s="49"/>
       <c r="D114" s="49"/>
@@ -5200,7 +5195,6 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="Contenu!A1" display="Retour au Contenu"/>
     <hyperlink ref="B108" r:id="rId1"/>
     <hyperlink ref="B110" r:id="rId2"/>
     <hyperlink ref="B111" r:id="rId3"/>

--- a/DDAf_2022_Tableau_annexe_Tab21.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab21.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab21" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="174">
   <si>
     <t>Tableau 21 : Commerce international et régional</t>
   </si>
@@ -495,19 +495,22 @@
     <t>RDM, pays les moins avancés</t>
   </si>
   <si>
-    <t>Afrique, petits Etats insulaires en développement</t>
-  </si>
-  <si>
-    <t>RDM, petits Etats insulaires en développement</t>
+    <t>Afrique, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>RDM, petits États insulaires en développement</t>
   </si>
   <si>
     <t>Afrique, pays en développement sans littoral</t>
   </si>
   <si>
-    <t>Afrique, Etats fragiles</t>
-  </si>
-  <si>
-    <t>RDM, Etats fragiles</t>
+    <t>RDM, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>Afrique, États fragiles</t>
+  </si>
+  <si>
+    <t>RDM, États fragiles</t>
   </si>
   <si>
     <t>États extrêmement fragiles</t>
@@ -522,7 +525,7 @@
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
   </si>
   <si>
-    <t>Responsabilité : Ce document, ainsi que les données et cartes qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
+    <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
   </si>
   <si>
     <t>Source : Calculs de l'auteur basés sur la BACI (Base de données sur le commerce international) rapportée au niveau des produits par CEPII (mise à jour le 19 février 2021).</t>
@@ -4677,34 +4680,34 @@
         <v>156</v>
       </c>
       <c r="C92" s="39">
-        <v>14.290806610440701</v>
+        <v>14.3117726307943</v>
       </c>
       <c r="D92" s="39" t="s">
         <v>60</v>
       </c>
       <c r="E92" s="39">
-        <v>39.326950181346902</v>
+        <v>39.373072153248899</v>
       </c>
       <c r="F92" s="39">
-        <v>9.9968467643801908</v>
+        <v>9.9989111990967299</v>
       </c>
       <c r="G92" s="39">
-        <v>32.507590870289</v>
+        <v>32.553345861486797</v>
       </c>
       <c r="H92" s="40">
-        <v>13.4966830575408</v>
+        <v>13.5108174037483</v>
       </c>
       <c r="I92" s="39">
-        <v>73.271383732000004</v>
+        <v>73.231299536999998</v>
       </c>
       <c r="J92" s="39">
-        <v>16.390016451000001</v>
+        <v>16.347091941999999</v>
       </c>
       <c r="K92" s="39">
-        <v>81.720097592110093</v>
+        <v>81.751076713816303</v>
       </c>
       <c r="L92" s="40">
-        <v>19.015559107346601</v>
+        <v>19.0037105188085</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
@@ -4770,7 +4773,7 @@
         <v>146.18272648000001</v>
       </c>
       <c r="J94" s="39">
-        <v>74.559516456999901</v>
+        <v>74.559516457000001</v>
       </c>
       <c r="K94" s="39">
         <v>66.223267705819595</v>
@@ -4818,7 +4821,7 @@
     <row r="96" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="34"/>
       <c r="B96" s="41" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C96" s="42">
         <v>8.0235500186649098</v>
@@ -4854,7 +4857,7 @@
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="34"/>
       <c r="B97" s="38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C97" s="39">
         <v>10.126793837708201</v>
@@ -4890,7 +4893,7 @@
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="34"/>
       <c r="B98" s="38" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C98" s="39">
         <v>5.4281381491430798</v>
@@ -4926,7 +4929,7 @@
     <row r="99" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="34"/>
       <c r="B99" s="41" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C99" s="42">
         <v>0.98086706136005997</v>
@@ -4975,7 +4978,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="47" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="49"/>
@@ -4991,7 +4994,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="47" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="49"/>
@@ -5007,7 +5010,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="49"/>
@@ -5023,7 +5026,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="47" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B104" s="48"/>
       <c r="C104" s="49"/>
@@ -5039,7 +5042,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" s="47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="49"/>
@@ -5081,7 +5084,7 @@
     </row>
     <row r="108" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="50" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C108" s="49"/>
       <c r="D108" s="49"/>
@@ -5109,7 +5112,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C110" s="49"/>
       <c r="D110" s="49"/>
@@ -5124,7 +5127,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C111" s="49"/>
       <c r="D111" s="49"/>
@@ -5152,7 +5155,7 @@
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C113" s="49"/>
       <c r="D113" s="49"/>
@@ -5167,7 +5170,7 @@
     </row>
     <row r="114" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C114" s="49"/>
       <c r="D114" s="49"/>

--- a/DDAf_2022_Tableau_annexe_Tab21.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab21.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab21" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab21.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab21.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
   </bookViews>
   <sheets>
     <sheet name="Tab21" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="164">
   <si>
     <t>Tableau 21 : Commerce international et régional</t>
   </si>
@@ -33,36 +33,6 @@
     <t>Pays (pays riches en ressources ombrés)</t>
   </si>
   <si>
-    <t>Exportations vers les pays de la même CER, en % du total des exportations, 2019</t>
-  </si>
-  <si>
-    <t>Exportations vers les pays de la même région de la CUA, en % du total des exportations, 2019</t>
-  </si>
-  <si>
-    <t>Exportations vers les pays du même continent, en % du total des exportations, 2019</t>
-  </si>
-  <si>
-    <t>Exportations vers la Chine, en % du total des exportations, 2019</t>
-  </si>
-  <si>
-    <t>Exportations vers les pays de l'UE, en % du total des exportations, 2019</t>
-  </si>
-  <si>
-    <t>Exportations vers les États-Unis, en % du total des exportations, 2019</t>
-  </si>
-  <si>
-    <t>Commerce intra-continental de biens intermédiaires (millions de dollars US), 2019</t>
-  </si>
-  <si>
-    <t>Commerce extra-continental de biens intermédiaires (millions de dollars US), 2019</t>
-  </si>
-  <si>
-    <t>Commerce intra-continental de biens intermédiaires en % du total des échanges de biens intermédiaires, 2019</t>
-  </si>
-  <si>
-    <t>Valeur totale des exportations de biens et services en % du PIB, 2019</t>
-  </si>
-  <si>
     <t>AGO</t>
   </si>
   <si>
@@ -183,6 +153,9 @@
     <t>Sao Tomé-et-Principe</t>
   </si>
   <si>
+    <t>..</t>
+  </si>
+  <si>
     <t>Afrique Centrale</t>
   </si>
   <si>
@@ -204,9 +177,6 @@
     <t>Érythrée</t>
   </si>
   <si>
-    <t>..</t>
-  </si>
-  <si>
     <t>ETH</t>
   </si>
   <si>
@@ -528,7 +498,7 @@
     <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
   </si>
   <si>
-    <t>Source : Calculs de l'auteur basés sur la BACI (Base de données sur le commerce international) rapportée au niveau des produits par CEPII (mise à jour le 19 février 2021).</t>
+    <t>Source : Calculs de l'auteur basés sur la BACI (Base de données sur le commerce international) rapportée au niveau des produits par CEPII (mise à jour le 21 avril 2022).</t>
   </si>
   <si>
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr.</t>
@@ -1316,3650 +1286,3650 @@
       <c r="K1" s="3"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>12</v>
+      <c r="C2" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D2" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E2" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F2" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G2" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K2" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L2" s="9" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C3" s="12">
-        <v>2.2186130560122899</v>
+        <v>0.51215017004456997</v>
       </c>
       <c r="D3" s="12">
-        <v>1.73864968153097</v>
+        <v>0.31720789688501999</v>
       </c>
       <c r="E3" s="12">
-        <v>2.3416660113527898</v>
+        <v>0.61390135622387998</v>
       </c>
       <c r="F3" s="12">
-        <v>62.461361568162999</v>
+        <v>60.5243565714986</v>
       </c>
       <c r="G3" s="12">
-        <v>11.190190169256701</v>
+        <v>10.6066153836762</v>
       </c>
       <c r="H3" s="13">
-        <v>2.6417033404066901</v>
+        <v>2.0607690227897102</v>
       </c>
       <c r="I3" s="12">
-        <v>0.84972682200000005</v>
+        <v>0.175943982</v>
       </c>
       <c r="J3" s="12">
-        <v>3.5746702109999999</v>
+        <v>3.1666077760000002</v>
       </c>
       <c r="K3" s="12">
-        <v>19.205483044631599</v>
+        <v>5.2637623809085099</v>
       </c>
       <c r="L3" s="13">
-        <v>41.625651236509398</v>
+        <v>36.0568931630187</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C4" s="15">
-        <v>14.233513381806199</v>
+        <v>15.9387030835291</v>
       </c>
       <c r="D4" s="15">
-        <v>14.0577462099481</v>
+        <v>15.804016352601399</v>
       </c>
       <c r="E4" s="15">
-        <v>14.314456732283499</v>
+        <v>15.995528965762601</v>
       </c>
       <c r="F4" s="15">
-        <v>0.31727615861832997</v>
+        <v>1.9521715218709701</v>
       </c>
       <c r="G4" s="15">
-        <v>20.2977615355681</v>
+        <v>20.9745147268846</v>
       </c>
       <c r="H4" s="16">
-        <v>2.1886054972763702</v>
+        <v>3.83410888758192</v>
       </c>
       <c r="I4" s="15">
-        <v>2.2115317700000001</v>
+        <v>1.909170429</v>
       </c>
       <c r="J4" s="15">
-        <v>1.348736172</v>
+        <v>1.4804274669999999</v>
       </c>
       <c r="K4" s="15">
-        <v>62.117003720727297</v>
+        <v>56.324392673625901</v>
       </c>
       <c r="L4" s="16">
-        <v>37.162462858271397</v>
+        <v>31.355843828163401</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C5" s="19">
-        <v>48.582849695767997</v>
+        <v>78.235416844040202</v>
       </c>
       <c r="D5" s="19">
-        <v>41.934136139327599</v>
+        <v>66.959344757549701</v>
       </c>
       <c r="E5" s="19">
-        <v>92.331187713228701</v>
+        <v>86.540660057403301</v>
       </c>
       <c r="F5" s="19">
-        <v>2.7940324726069998E-2</v>
+        <v>2.4058380748559999E-2</v>
       </c>
       <c r="G5" s="19">
-        <v>3.5287787327513098</v>
+        <v>3.2877511342708199</v>
       </c>
       <c r="H5" s="20">
-        <v>0.67435085938965</v>
+        <v>1.3499839609761299</v>
       </c>
       <c r="I5" s="19">
-        <v>0.68282566899999997</v>
+        <v>0.62951598799999997</v>
       </c>
       <c r="J5" s="19">
-        <v>0.31999323600000001</v>
+        <v>0.20414128500000001</v>
       </c>
       <c r="K5" s="19">
-        <v>68.090625894213701</v>
+        <v>75.512564741937993</v>
       </c>
       <c r="L5" s="20">
-        <v>46.371668067554097</v>
+        <v>45.022187525339199</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C6" s="19">
-        <v>25.929692785183601</v>
+        <v>29.286599747552099</v>
       </c>
       <c r="D6" s="19">
-        <v>25.885272149170699</v>
+        <v>29.1639777762561</v>
       </c>
       <c r="E6" s="19">
-        <v>25.940306622133701</v>
+        <v>29.358483750747201</v>
       </c>
       <c r="F6" s="19">
-        <v>2.6118289143230902</v>
+        <v>0.56876340109330004</v>
       </c>
       <c r="G6" s="19">
-        <v>30.943166258577001</v>
+        <v>31.118339965499999</v>
       </c>
       <c r="H6" s="20">
-        <v>29.137827385880399</v>
+        <v>30.675975856721799</v>
       </c>
       <c r="I6" s="19">
-        <v>0.53676936900000005</v>
+        <v>0.481248395</v>
       </c>
       <c r="J6" s="19">
-        <v>0.137938651</v>
+        <v>0.228604691</v>
       </c>
       <c r="K6" s="19">
-        <v>79.555800892955205</v>
+        <v>67.7954924041846</v>
       </c>
       <c r="L6" s="20">
-        <v>50.640979909808401</v>
+        <v>40.6819537823215</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C7" s="19">
-        <v>30.6313402000747</v>
+        <v>29.266041829718699</v>
       </c>
       <c r="D7" s="19">
-        <v>12.7087540204188</v>
+        <v>14.432185545406099</v>
       </c>
       <c r="E7" s="19">
-        <v>31.403171646940802</v>
+        <v>30.141034291787602</v>
       </c>
       <c r="F7" s="19">
-        <v>3.3719817367168599</v>
+        <v>3.4715200262925201</v>
       </c>
       <c r="G7" s="19">
-        <v>30.406832265301901</v>
+        <v>34.403265407086799</v>
       </c>
       <c r="H7" s="20">
-        <v>8.4194226130285994</v>
+        <v>4.4970914744211203</v>
       </c>
       <c r="I7" s="19">
-        <v>0.46323820700000001</v>
+        <v>0.62635143800000004</v>
       </c>
       <c r="J7" s="19">
-        <v>1.0872779720000001</v>
+        <v>0.79511373200000002</v>
       </c>
       <c r="K7" s="19">
-        <v>29.876386539788498</v>
+        <v>44.063790743462199</v>
       </c>
       <c r="L7" s="20">
-        <v>10.8445151954549</v>
+        <v>8.3852565753479702</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C8" s="19">
-        <v>21.106590329394901</v>
+        <v>20.332508803285201</v>
       </c>
       <c r="D8" s="19">
-        <v>20.671550663732202</v>
+        <v>19.888764476793099</v>
       </c>
       <c r="E8" s="19">
-        <v>22.136748794456999</v>
+        <v>21.103044289158401</v>
       </c>
       <c r="F8" s="19">
-        <v>11.532249464109601</v>
+        <v>7.83542314319957</v>
       </c>
       <c r="G8" s="19">
-        <v>31.387294911804901</v>
+        <v>27.575014710765501</v>
       </c>
       <c r="H8" s="20">
-        <v>2.3229857935898899</v>
+        <v>2.28687639182264</v>
       </c>
       <c r="I8" s="19">
-        <v>3.0437371290000002</v>
+        <v>3.3144142759999999</v>
       </c>
       <c r="J8" s="19">
-        <v>2.7479091069999999</v>
+        <v>3.1371780669999998</v>
       </c>
       <c r="K8" s="19">
-        <v>52.5539199904958</v>
+        <v>51.373584997138799</v>
       </c>
       <c r="L8" s="20">
-        <v>36.386921133432303</v>
+        <v>31.149051739795802</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C9" s="19">
-        <v>34.417171217190997</v>
+        <v>34.658720430312897</v>
       </c>
       <c r="D9" s="19">
-        <v>31.019893333682202</v>
+        <v>32.510337484569703</v>
       </c>
       <c r="E9" s="19">
-        <v>36.038568298094901</v>
+        <v>37.922290766002298</v>
       </c>
       <c r="F9" s="19">
-        <v>27.321181949495202</v>
+        <v>29.255187460578899</v>
       </c>
       <c r="G9" s="19">
-        <v>20.974328436315201</v>
+        <v>18.523133793663899</v>
       </c>
       <c r="H9" s="20">
-        <v>1.8936662500428001</v>
+        <v>1.3002650435807901</v>
       </c>
       <c r="I9" s="19">
-        <v>2.9159799899999999</v>
+        <v>2.9589332320000001</v>
       </c>
       <c r="J9" s="19">
-        <v>1.0833288999999999</v>
+        <v>1.055843506</v>
       </c>
       <c r="K9" s="19">
-        <v>72.912097319894698</v>
+        <v>73.701065466320799</v>
       </c>
       <c r="L9" s="20">
-        <v>36.428467905133999</v>
+        <v>33.453141205440602</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C10" s="19">
-        <v>19.358022842012101</v>
+        <v>17.574897626448799</v>
       </c>
       <c r="D10" s="19">
-        <v>17.2788033307713</v>
+        <v>15.992859854777301</v>
       </c>
       <c r="E10" s="19">
-        <v>22.426343404738699</v>
+        <v>20.290568849095202</v>
       </c>
       <c r="F10" s="19">
-        <v>15.37544688252</v>
+        <v>11.6244861163329</v>
       </c>
       <c r="G10" s="19">
-        <v>19.252796058642001</v>
+        <v>18.3494369558796</v>
       </c>
       <c r="H10" s="20">
-        <v>6.2811416751134397</v>
+        <v>10.014348430139799</v>
       </c>
       <c r="I10" s="19">
-        <v>11.066775013000001</v>
+        <v>7.93334830800001</v>
       </c>
       <c r="J10" s="19">
-        <v>38.394642155</v>
+        <v>31.220782187000001</v>
       </c>
       <c r="K10" s="19">
-        <v>22.374561115810199</v>
+        <v>20.2618426401094</v>
       </c>
       <c r="L10" s="20">
-        <v>27.044707078199998</v>
+        <v>27.778032357828899</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C11" s="15">
-        <v>32.117069458978001</v>
+        <v>29.693960964316101</v>
       </c>
       <c r="D11" s="15">
-        <v>18.658556747296799</v>
+        <v>16.9963147987967</v>
       </c>
       <c r="E11" s="15">
-        <v>32.167274077438101</v>
+        <v>29.803670557041499</v>
       </c>
       <c r="F11" s="15">
-        <v>15.879625333838399</v>
+        <v>13.933572379478701</v>
       </c>
       <c r="G11" s="15">
-        <v>4.7602359349126599</v>
+        <v>3.15345291763734</v>
       </c>
       <c r="H11" s="16">
-        <v>0.52483761576081001</v>
+        <v>0.39648227281095</v>
       </c>
       <c r="I11" s="15">
-        <v>1.81305374</v>
+        <v>1.8022490739999999</v>
       </c>
       <c r="J11" s="15">
-        <v>2.2408979900000001</v>
+        <v>1.63793492</v>
       </c>
       <c r="K11" s="15">
-        <v>44.723121061927401</v>
+        <v>52.388159387500501</v>
       </c>
       <c r="L11" s="16">
-        <v>35.428366168647003</v>
+        <v>47.256634068233801</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C12" s="22">
-        <v>38.808934201640703</v>
+        <v>36.354441896880601</v>
       </c>
       <c r="D12" s="22">
-        <v>36.814625789506501</v>
+        <v>25.332804262432099</v>
       </c>
       <c r="E12" s="22">
-        <v>38.887673314806499</v>
+        <v>36.425404565772503</v>
       </c>
       <c r="F12" s="22">
-        <v>3.9359468144175498</v>
+        <v>4.4941894054787603</v>
       </c>
       <c r="G12" s="22">
-        <v>8.1366409616005395</v>
+        <v>8.4547259076653098</v>
       </c>
       <c r="H12" s="23">
-        <v>1.0723898701986401</v>
+        <v>0.86189451705888998</v>
       </c>
       <c r="I12" s="22">
-        <v>1.3759089330000001</v>
+        <v>1.8869027199999999</v>
       </c>
       <c r="J12" s="22">
-        <v>0.63104404999999997</v>
+        <v>0.81871480600000002</v>
       </c>
       <c r="K12" s="22">
-        <v>68.557108445225595</v>
+        <v>69.740186921009794</v>
       </c>
       <c r="L12" s="23">
-        <v>26.8898289987197</v>
+        <v>22.739579708657999</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="24" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C13" s="26">
-        <v>18.550186824578901</v>
+        <v>18.260800071717799</v>
       </c>
       <c r="D13" s="26">
-        <v>16.014339879799401</v>
+        <v>15.705824668213101</v>
       </c>
       <c r="E13" s="26">
-        <v>21.4175414045812</v>
+        <v>20.298181474680099</v>
       </c>
       <c r="F13" s="26">
-        <v>23.233383141044499</v>
+        <v>18.0967806759853</v>
       </c>
       <c r="G13" s="26">
-        <v>17.010758058246999</v>
+        <v>16.384912564542098</v>
       </c>
       <c r="H13" s="27">
-        <v>4.7983379146620697</v>
+        <v>7.2530643531703198</v>
       </c>
       <c r="I13" s="26">
-        <v>24.959546641999999</v>
+        <v>21.718077842</v>
       </c>
       <c r="J13" s="26">
-        <v>51.566438443999999</v>
+        <v>43.745348436999997</v>
       </c>
       <c r="K13" s="26">
-        <v>32.615779612572702</v>
+        <v>33.1758954220319</v>
       </c>
       <c r="L13" s="27">
-        <v>30.579100132713801</v>
+        <v>30.0875666786316</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C14" s="19">
-        <v>17.025130141005</v>
+        <v>38.783204551661498</v>
       </c>
       <c r="D14" s="19">
-        <v>7.1528543569295104</v>
+        <v>11.031737519997099</v>
       </c>
       <c r="E14" s="19">
-        <v>17.565183502424901</v>
+        <v>38.974515524587297</v>
       </c>
       <c r="F14" s="19">
-        <v>4.2115504016307899</v>
+        <v>3.6223556891937898</v>
       </c>
       <c r="G14" s="19">
-        <v>12.3059699043985</v>
+        <v>9.4651880935089299</v>
       </c>
       <c r="H14" s="20">
-        <v>3.5049456468915698</v>
+        <v>2.0365523528791201</v>
       </c>
       <c r="I14" s="19">
-        <v>0.159462681</v>
+        <v>0.184632147</v>
       </c>
       <c r="J14" s="19">
-        <v>0.25133348599999999</v>
+        <v>0.255531552</v>
       </c>
       <c r="K14" s="19">
-        <v>38.817957373979098</v>
+        <v>41.946245776165199</v>
       </c>
       <c r="L14" s="20">
-        <v>9.9307033295115907</v>
+        <v>8.7989881967972003</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C15" s="19">
-        <v>2.7759875180117302</v>
+        <v>0.58708172122774005</v>
       </c>
       <c r="D15" s="19">
-        <v>1.4994332917058899</v>
+        <v>0.58708172122774005</v>
       </c>
       <c r="E15" s="19">
-        <v>4.1542529086755202</v>
+        <v>1.55653774777327</v>
       </c>
       <c r="F15" s="19">
-        <v>17.440621042214499</v>
+        <v>18.016816378759302</v>
       </c>
       <c r="G15" s="19">
-        <v>44.061489337769601</v>
+        <v>41.2963547238109</v>
       </c>
       <c r="H15" s="20">
-        <v>5.8034620192156003</v>
+        <v>10.9012526128807</v>
       </c>
       <c r="I15" s="19">
-        <v>0.83334507000000002</v>
+        <v>1.0502828660000001</v>
       </c>
       <c r="J15" s="19">
-        <v>2.2711378600000001</v>
+        <v>2.5340657050000002</v>
       </c>
       <c r="K15" s="19">
-        <v>26.843280790724201</v>
+        <v>29.3019176342825</v>
       </c>
       <c r="L15" s="20">
-        <v>19.833495843299598</v>
+        <v>14.958799764790299</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C16" s="19">
-        <v>2.25657194217656</v>
+        <v>4.3607568731212298</v>
       </c>
       <c r="D16" s="19">
-        <v>0.18232159586817001</v>
+        <v>0.33960587555297</v>
       </c>
       <c r="E16" s="19">
-        <v>2.3621370912448501</v>
+        <v>4.7728201631033604</v>
       </c>
       <c r="F16" s="19">
-        <v>41.232825948435597</v>
+        <v>40.155512710247599</v>
       </c>
       <c r="G16" s="19">
-        <v>18.696484768783399</v>
+        <v>21.151325156806799</v>
       </c>
       <c r="H16" s="20">
-        <v>4.2544538798212104</v>
+        <v>0.69588585147254001</v>
       </c>
       <c r="I16" s="19">
-        <v>1.2571601E-2</v>
+        <v>1.2595149999999999E-2</v>
       </c>
       <c r="J16" s="19">
-        <v>8.4725908000000003E-2</v>
+        <v>7.6850010999999996E-2</v>
       </c>
       <c r="K16" s="19">
-        <v>12.9207840254163</v>
+        <v>14.0814213526878</v>
       </c>
       <c r="L16" s="20">
-        <v>15.7548982844937</v>
+        <v>13.958642229302701</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C17" s="12">
-        <v>0.14955797231163001</v>
+        <v>0.32313826532313</v>
       </c>
       <c r="D17" s="12">
-        <v>3.6594983553900002E-3</v>
+        <v>7.0844398642199999E-3</v>
       </c>
       <c r="E17" s="12">
-        <v>0.15778917439292001</v>
+        <v>0.36172067560427001</v>
       </c>
       <c r="F17" s="12">
-        <v>32.5238109019921</v>
+        <v>24.4750132685386</v>
       </c>
       <c r="G17" s="12">
-        <v>11.4473378471979</v>
+        <v>35.774680966752499</v>
       </c>
       <c r="H17" s="13">
-        <v>10.058146327569199</v>
+        <v>0.22476482236681999</v>
       </c>
       <c r="I17" s="12">
-        <v>2.3197135000000001E-2</v>
+        <v>4.0335226000000002E-2</v>
       </c>
       <c r="J17" s="12">
-        <v>0.40785237400000002</v>
+        <v>0.32888945200000003</v>
       </c>
       <c r="K17" s="12">
-        <v>5.3815477145109103</v>
+        <v>10.9243039274856</v>
       </c>
       <c r="L17" s="13">
-        <v>34.775918949544199</v>
+        <v>27.322427893802899</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C18" s="12">
-        <v>2.01056036954401</v>
+        <v>4.4627158334260697</v>
       </c>
       <c r="D18" s="12">
-        <v>1.3572910528966899</v>
+        <v>3.6128945086967899</v>
       </c>
       <c r="E18" s="12">
-        <v>2.9318915254342302</v>
+        <v>7.05451053216016</v>
       </c>
       <c r="F18" s="12">
-        <v>49.090726595421899</v>
+        <v>38.604977387159998</v>
       </c>
       <c r="G18" s="12">
-        <v>11.051042430427</v>
+        <v>15.7643106746689</v>
       </c>
       <c r="H18" s="13">
-        <v>5.2380053389080103</v>
+        <v>1.6872932864714301</v>
       </c>
       <c r="I18" s="12">
-        <v>0.13433225300000001</v>
+        <v>0.13834977300000001</v>
       </c>
       <c r="J18" s="12">
-        <v>1.033065369</v>
+        <v>1.006354513</v>
       </c>
       <c r="K18" s="12">
-        <v>11.5069836076812</v>
+        <v>12.0860710221889</v>
       </c>
       <c r="L18" s="13">
-        <v>68.397835797202006</v>
+        <v>54.927443023845498</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C19" s="15">
-        <v>6.8101735856069201</v>
+        <v>23.037147836206302</v>
       </c>
       <c r="D19" s="15">
-        <v>5.7602445610670003E-2</v>
+        <v>0.36244303667937</v>
       </c>
       <c r="E19" s="15">
-        <v>7.4097133937288104</v>
+        <v>23.593009926138201</v>
       </c>
       <c r="F19" s="15">
-        <v>53.032156427409397</v>
+        <v>45.209376333067397</v>
       </c>
       <c r="G19" s="15">
-        <v>11.150090501627099</v>
+        <v>4.9683776179054702</v>
       </c>
       <c r="H19" s="16">
-        <v>0.25340341316079001</v>
+        <v>0.16051086788669</v>
       </c>
       <c r="I19" s="15">
-        <v>1.5869585859999999</v>
+        <v>1.6029716389999999</v>
       </c>
       <c r="J19" s="15">
-        <v>1.932608375</v>
+        <v>3.6356570609999999</v>
       </c>
       <c r="K19" s="15">
-        <v>45.089597771116303</v>
+        <v>30.599069542760301</v>
       </c>
       <c r="L19" s="16">
-        <v>26.458946210193801</v>
+        <v>28.604587447723802</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C20" s="12">
-        <v>2.537659829438E-2</v>
+        <v>5.2875616512760001E-2</v>
       </c>
       <c r="D20" s="12">
-        <v>2.3371493892259999E-2</v>
+        <v>5.2875616512760001E-2</v>
       </c>
       <c r="E20" s="12">
-        <v>1.87897904892667</v>
+        <v>0.40309286520427001</v>
       </c>
       <c r="F20" s="12">
-        <v>33.894341016982096</v>
+        <v>38.190723659789597</v>
       </c>
       <c r="G20" s="12">
-        <v>20.312283036295899</v>
+        <v>29.556784981842601</v>
       </c>
       <c r="H20" s="13">
-        <v>6.7628044783226304</v>
+        <v>4.3143375588180799</v>
       </c>
       <c r="I20" s="12">
-        <v>8.0337629999999993E-3</v>
+        <v>0.26995356700000001</v>
       </c>
       <c r="J20" s="12">
-        <v>0.47234967500000002</v>
+        <v>0.36993280699999997</v>
       </c>
       <c r="K20" s="12">
-        <v>1.67236469130728</v>
+        <v>42.187734880568001</v>
       </c>
       <c r="L20" s="13">
-        <v>39.650588732997498</v>
+        <v>36.0270954016895</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C21" s="12">
-        <v>0.80059582266064</v>
+        <v>0.41214972367329</v>
       </c>
       <c r="D21" s="12">
-        <v>0.79931412045831995</v>
+        <v>0.41214972367329</v>
       </c>
       <c r="E21" s="12">
-        <v>1.37693453335539</v>
+        <v>0.99476572205517</v>
       </c>
       <c r="F21" s="12">
-        <v>62.892151482587302</v>
+        <v>64.842872878785201</v>
       </c>
       <c r="G21" s="12">
-        <v>10.884744354598601</v>
+        <v>7.9846016022614403</v>
       </c>
       <c r="H21" s="13">
-        <v>1.6426514302531201</v>
+        <v>1.65319017979803</v>
       </c>
       <c r="I21" s="12">
-        <v>6.7747319E-2</v>
+        <v>6.0810204E-2</v>
       </c>
       <c r="J21" s="12">
-        <v>0.91356046599999996</v>
+        <v>0.72900693999999999</v>
       </c>
       <c r="K21" s="12">
-        <v>6.9037788179781003</v>
+        <v>7.6992762770416698</v>
       </c>
       <c r="L21" s="13">
-        <v>40.452923680697197</v>
+        <v>34.603495429430403</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="17" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="19">
-        <v>0.36231955658287002</v>
-      </c>
-      <c r="D22" s="19">
-        <v>5.8239887999540003E-2</v>
+        <v>42</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="E22" s="19">
-        <v>1.64042204815835</v>
+        <v>2.4906152025544301</v>
       </c>
       <c r="F22" s="19">
-        <v>5.9504635982039998E-2</v>
+        <v>0.19465463735801</v>
       </c>
       <c r="G22" s="19">
-        <v>34.079626864213303</v>
+        <v>31.868370120062501</v>
       </c>
       <c r="H22" s="20">
-        <v>4.5143642215091901</v>
+        <v>2.69082840670767</v>
       </c>
       <c r="I22" s="19">
-        <v>3.5803800000000002E-3</v>
+        <v>2.21179E-4</v>
       </c>
       <c r="J22" s="19">
-        <v>4.5989924000000001E-2</v>
+        <v>3.8620278000000001E-2</v>
       </c>
       <c r="K22" s="19">
-        <v>7.2228324441988603</v>
+        <v>0.56944053360305003</v>
       </c>
       <c r="L22" s="20">
-        <v>22.328435416286901</v>
+        <v>10.335632446845301</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C23" s="26">
-        <v>2.78406365624142</v>
+        <v>12.339223860354</v>
       </c>
       <c r="D23" s="26">
-        <v>0.82253755779850002</v>
+        <v>1.05696595923751</v>
       </c>
       <c r="E23" s="26">
-        <v>3.7176807138812</v>
+        <v>13.304948396453</v>
       </c>
       <c r="F23" s="26">
-        <v>45.126600994251902</v>
+        <v>41.973723649563603</v>
       </c>
       <c r="G23" s="26">
-        <v>16.910616186490302</v>
+        <v>13.7875020149016</v>
       </c>
       <c r="H23" s="27">
-        <v>3.9023893954295699</v>
+        <v>1.93329385753429</v>
       </c>
       <c r="I23" s="26">
-        <v>2.829228788</v>
+        <v>3.3601517510000001</v>
       </c>
       <c r="J23" s="26">
-        <v>7.4126234369999997</v>
+        <v>8.9749083190000007</v>
       </c>
       <c r="K23" s="26">
-        <v>27.624190681974</v>
+        <v>27.2406598097743</v>
       </c>
       <c r="L23" s="27">
-        <v>29.8406723185327</v>
+        <v>26.166827740494899</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C24" s="19">
-        <v>9.5657966995942108</v>
+        <v>5.46884015532481</v>
       </c>
       <c r="D24" s="19">
-        <v>8.8522482892932803</v>
+        <v>4.7679671682784504</v>
       </c>
       <c r="E24" s="19">
-        <v>9.5673349731402695</v>
+        <v>5.46884015532481</v>
       </c>
       <c r="F24" s="19">
-        <v>2.811820946996E-2</v>
+        <v>0.21609621456736</v>
       </c>
       <c r="G24" s="19">
-        <v>47.491238892354403</v>
+        <v>50.414194431724098</v>
       </c>
       <c r="H24" s="20">
-        <v>2.73170826611929</v>
+        <v>5.41048217132695</v>
       </c>
       <c r="I24" s="19">
-        <v>1.2921204E-2</v>
+        <v>1.3226241999999999E-2</v>
       </c>
       <c r="J24" s="19">
-        <v>0.10960436799999999</v>
+        <v>0.10583248200000001</v>
       </c>
       <c r="K24" s="19">
-        <v>10.545720202799799</v>
+        <v>11.109007014051301</v>
       </c>
       <c r="L24" s="20">
-        <v>11.9726333997826</v>
+        <v>7.4003682272070499</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C25" s="19">
-        <v>7.7596181410976497</v>
+        <v>34.710224997646499</v>
       </c>
       <c r="D25" s="19">
-        <v>0.89500782028852</v>
+        <v>31.464579031600099</v>
       </c>
       <c r="E25" s="19">
-        <v>7.90999827646848</v>
+        <v>34.973947971255498</v>
       </c>
       <c r="F25" s="19">
-        <v>14.430165289731301</v>
+        <v>27.516125145134499</v>
       </c>
       <c r="G25" s="19">
-        <v>4.0263152613046804</v>
+        <v>3.5025204757272399</v>
       </c>
       <c r="H25" s="20">
-        <v>1.9456767540788</v>
+        <v>1.32222675495026</v>
       </c>
       <c r="I25" s="19">
-        <v>0.31404093100000002</v>
+        <v>0.33542328799999999</v>
       </c>
       <c r="J25" s="19">
-        <v>2.1903153369999999</v>
+        <v>2.1411927710000001</v>
       </c>
       <c r="K25" s="19">
-        <v>12.539786571612501</v>
+        <v>13.543612736462499</v>
       </c>
       <c r="L25" s="20">
-        <v>153.89308648135801</v>
+        <v>108.347128599491</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="I26" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="J26" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="K26" s="19" t="s">
-        <v>60</v>
+        <v>50</v>
+      </c>
+      <c r="C26" s="19">
+        <v>0.10457585451414</v>
+      </c>
+      <c r="D26" s="19">
+        <v>4.4997737651000002E-3</v>
+      </c>
+      <c r="E26" s="19">
+        <v>0.12369922300779999</v>
+      </c>
+      <c r="F26" s="19">
+        <v>44.400034899376998</v>
+      </c>
+      <c r="G26" s="19">
+        <v>0.56088195914200001</v>
+      </c>
+      <c r="H26" s="20">
+        <v>4.5710291164840003E-2</v>
+      </c>
+      <c r="I26" s="19">
+        <v>6.2706827000000007E-2</v>
+      </c>
+      <c r="J26" s="19">
+        <v>0.116962344</v>
+      </c>
+      <c r="K26" s="19">
+        <v>34.901272517142097</v>
       </c>
       <c r="L26" s="20">
-        <v>31.532871378903199</v>
+        <v>28.3725767707963</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C27" s="19">
-        <v>1.31881818692328</v>
+        <v>14.4926797450583</v>
       </c>
       <c r="D27" s="19">
-        <v>0.35637749009356001</v>
+        <v>13.5372576764735</v>
       </c>
       <c r="E27" s="19">
-        <v>1.97859267908929</v>
+        <v>16.207900916645901</v>
       </c>
       <c r="F27" s="19">
-        <v>16.662569703617599</v>
+        <v>3.5116898604976501</v>
       </c>
       <c r="G27" s="19">
-        <v>19.5359426580956</v>
+        <v>18.146118555874601</v>
       </c>
       <c r="H27" s="20">
-        <v>15.552498890220599</v>
+        <v>11.357697381862801</v>
       </c>
       <c r="I27" s="19">
-        <v>0.28883720600000001</v>
+        <v>0.52555041499999999</v>
       </c>
       <c r="J27" s="19">
-        <v>4.3311979880000004</v>
+        <v>4.8874141089999998</v>
       </c>
       <c r="K27" s="19">
-        <v>6.2518399508105702</v>
+        <v>9.7091051062650706</v>
       </c>
       <c r="L27" s="20">
-        <v>8.2233027427614207</v>
+        <v>7.9432879251149497</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C28" s="19">
-        <v>33.783752542403001</v>
+        <v>36.597625858033901</v>
       </c>
       <c r="D28" s="19">
-        <v>25.936216381864298</v>
+        <v>29.2148448895868</v>
       </c>
       <c r="E28" s="19">
-        <v>36.521246724920999</v>
+        <v>38.845703618621698</v>
       </c>
       <c r="F28" s="19">
-        <v>2.4067967798012901</v>
+        <v>2.2960228918747299</v>
       </c>
       <c r="G28" s="19">
-        <v>16.304409939983401</v>
+        <v>16.1476015941764</v>
       </c>
       <c r="H28" s="20">
-        <v>8.6968994019127308</v>
+        <v>7.5788499048301299</v>
       </c>
       <c r="I28" s="19">
-        <v>1.5887994830000001</v>
+        <v>1.3788717610000001</v>
       </c>
       <c r="J28" s="19">
-        <v>7.2745033929999998</v>
+        <v>7.8449728380000101</v>
       </c>
       <c r="K28" s="19">
-        <v>17.9255916809764</v>
+        <v>14.948991672620901</v>
       </c>
       <c r="L28" s="20">
-        <v>11.4410200694722</v>
+        <v>9.6526740474695494</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C29" s="19">
-        <v>6.3002426676637997</v>
+        <v>5.5976674914550202</v>
       </c>
       <c r="D29" s="19">
-        <v>2.9163472677996398</v>
+        <v>2.3329966349832398</v>
       </c>
       <c r="E29" s="19">
-        <v>7.3931658292380096</v>
+        <v>6.9415286748962899</v>
       </c>
       <c r="F29" s="19">
-        <v>5.68280688628343</v>
+        <v>5.3731077684726003</v>
       </c>
       <c r="G29" s="19">
-        <v>34.212563035936398</v>
+        <v>37.752174322893403</v>
       </c>
       <c r="H29" s="20">
-        <v>19.019688949326</v>
+        <v>20.355067423499602</v>
       </c>
       <c r="I29" s="19">
-        <v>0.32123144199999998</v>
+        <v>0.24421860500000001</v>
       </c>
       <c r="J29" s="19">
-        <v>1.6630396890000001</v>
+        <v>1.5556679950000001</v>
       </c>
       <c r="K29" s="19">
-        <v>16.188888553658</v>
+        <v>13.5685550967489</v>
       </c>
       <c r="L29" s="20">
-        <v>28.666141120409002</v>
+        <v>19.687925704304501</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C30" s="19">
-        <v>33.801745791303397</v>
+        <v>33.166457177935399</v>
       </c>
       <c r="D30" s="19">
-        <v>10.428403910046701</v>
+        <v>10.173298889066301</v>
       </c>
       <c r="E30" s="19">
-        <v>34.672226575947803</v>
+        <v>33.861875741980803</v>
       </c>
       <c r="F30" s="19">
-        <v>1.4876686757934501</v>
+        <v>1.4376698535739201</v>
       </c>
       <c r="G30" s="19">
-        <v>28.980843477592799</v>
+        <v>30.763854779824101</v>
       </c>
       <c r="H30" s="20">
-        <v>9.4251478637070605</v>
+        <v>9.0442698975650107</v>
       </c>
       <c r="I30" s="19">
-        <v>0.26024172699999998</v>
+        <v>0.200094939</v>
       </c>
       <c r="J30" s="19">
-        <v>1.8494241520000001</v>
+        <v>1.4658018269999999</v>
       </c>
       <c r="K30" s="19">
-        <v>12.3356845076983</v>
+        <v>12.0112448192363</v>
       </c>
       <c r="L30" s="20">
-        <v>36.826548666962097</v>
+        <v>28.281043379663199</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C31" s="19">
-        <v>39.4458827400193</v>
+        <v>3.7232806517086101</v>
       </c>
       <c r="D31" s="19">
-        <v>9.2428941418475503</v>
+        <v>2.4650758751453998</v>
       </c>
       <c r="E31" s="19">
-        <v>39.900222041727602</v>
+        <v>3.8790959605348401</v>
       </c>
       <c r="F31" s="19">
-        <v>1.3292767000068</v>
+        <v>4.2061542768829501</v>
       </c>
       <c r="G31" s="19">
-        <v>5.0991583786882098</v>
+        <v>4.8721537074571204</v>
       </c>
       <c r="H31" s="20">
-        <v>3.3221352612180999</v>
+        <v>3.5027158561978502</v>
       </c>
       <c r="I31" s="19">
-        <v>0.63884087199999995</v>
+        <v>0.265454093</v>
       </c>
       <c r="J31" s="19">
-        <v>0.72314902199999997</v>
+        <v>0.360957531</v>
       </c>
       <c r="K31" s="19">
-        <v>46.904964186173402</v>
+        <v>42.3769423857307</v>
       </c>
       <c r="L31" s="20">
-        <v>21.7710160422555</v>
+        <v>18.673437233136202</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C32" s="19">
-        <v>18.686618875206602</v>
+        <v>12.445877612778601</v>
       </c>
       <c r="D32" s="19">
-        <v>8.0185427835974608</v>
+        <v>5.1352347103370004</v>
       </c>
       <c r="E32" s="19">
-        <v>19.439734582765801</v>
+        <v>13.184513139821799</v>
       </c>
       <c r="F32" s="19">
-        <v>0.29072316555014999</v>
+        <v>2.9798401075619999E-2</v>
       </c>
       <c r="G32" s="19">
-        <v>22.3392316071374</v>
+        <v>24.344881412552201</v>
       </c>
       <c r="H32" s="20">
-        <v>1.31072878881018</v>
+        <v>0.87091567128318004</v>
       </c>
       <c r="I32" s="19">
-        <v>5.2315850999999997E-2</v>
+        <v>4.3839666999999999E-2</v>
       </c>
       <c r="J32" s="19">
-        <v>0.29413218600000002</v>
+        <v>0.23230936799999999</v>
       </c>
       <c r="K32" s="19">
-        <v>15.1006342691444</v>
+        <v>15.8753649093867</v>
       </c>
       <c r="L32" s="20">
-        <v>101.824476661034</v>
+        <v>85.216242015990701</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C33" s="19">
-        <v>2.4772524842612</v>
+        <v>3.8234521979235399</v>
       </c>
       <c r="D33" s="19">
-        <v>1.0321543816599701</v>
+        <v>0.33577870356055001</v>
       </c>
       <c r="E33" s="19">
-        <v>2.4933587494826099</v>
+        <v>3.8470724275046702</v>
       </c>
       <c r="F33" s="19">
-        <v>4.32359938717231</v>
+        <v>2.7824638412798199</v>
       </c>
       <c r="G33" s="19">
-        <v>6.7441164088362999</v>
+        <v>7.7254347521221298</v>
       </c>
       <c r="H33" s="20">
-        <v>0.25215724023800001</v>
+        <v>0.17674091793916999</v>
       </c>
       <c r="I33" s="19">
-        <v>9.0135886999999998E-2</v>
+        <v>6.9867376999999994E-2</v>
       </c>
       <c r="J33" s="19">
-        <v>1.0966072170000001</v>
+        <v>1.1656125959999999</v>
       </c>
       <c r="K33" s="19">
-        <v>7.5952315792854197</v>
+        <v>5.6550796878032399</v>
       </c>
       <c r="L33" s="20">
-        <v>22.130395238633401</v>
+        <v>13.930491176745999</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C34" s="15">
-        <v>1.343472985172E-2</v>
+        <v>10.2459916961656</v>
       </c>
       <c r="D34" s="15">
-        <v>1.343472985172E-2</v>
+        <v>10.2459916961656</v>
       </c>
       <c r="E34" s="15">
-        <v>1.408909437799E-2</v>
+        <v>10.304086952486699</v>
       </c>
       <c r="F34" s="15">
-        <v>88.332324872614194</v>
+        <v>79.605506166813797</v>
       </c>
       <c r="G34" s="15">
-        <v>0.12821592687548</v>
+        <v>2.90067358856097</v>
       </c>
       <c r="H34" s="16">
-        <v>4.11433283133778</v>
+        <v>1.3167618312350001E-2</v>
       </c>
       <c r="I34" s="15">
-        <v>6.8388193999999999E-2</v>
+        <v>0.28432502399999998</v>
       </c>
       <c r="J34" s="15">
-        <v>0.16009222400000001</v>
+        <v>0.176201845</v>
       </c>
       <c r="K34" s="15">
-        <v>29.931752838442399</v>
+        <v>61.739073904067901</v>
       </c>
       <c r="L34" s="16">
-        <v>68.471902002970097</v>
+        <v>49.347550908849001</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C35" s="19">
-        <v>7.0832469741163697</v>
+        <v>4.8437754023195501</v>
       </c>
       <c r="D35" s="19">
-        <v>0.78917339214944004</v>
+        <v>1.07978062976958</v>
       </c>
       <c r="E35" s="19">
-        <v>7.0876261603076696</v>
+        <v>4.8496219222359596</v>
       </c>
       <c r="F35" s="19">
-        <v>18.518783533409199</v>
+        <v>18.994454836059699</v>
       </c>
       <c r="G35" s="19">
-        <v>7.8210478545762001</v>
+        <v>6.6068138859064502</v>
       </c>
       <c r="H35" s="20">
-        <v>0.56807548820177001</v>
+        <v>2.12558647635653</v>
       </c>
       <c r="I35" s="19">
-        <v>0.33407284500000001</v>
+        <v>0.42820265299999999</v>
       </c>
       <c r="J35" s="19">
-        <v>3.179124404</v>
+        <v>3.3543016529999998</v>
       </c>
       <c r="K35" s="19">
-        <v>9.5090830751131605</v>
+        <v>11.3206124397734</v>
       </c>
       <c r="L35" s="20">
-        <v>15.2241710434641</v>
+        <v>14.791953038597899</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C36" s="19">
-        <v>19.497613972459099</v>
+        <v>21.998400077872802</v>
       </c>
       <c r="D36" s="19">
-        <v>11.518164210888299</v>
+        <v>16.678654687115799</v>
       </c>
       <c r="E36" s="19">
-        <v>20.490074454656</v>
+        <v>23.052235975529999</v>
       </c>
       <c r="F36" s="19">
-        <v>8.17309676534056</v>
+        <v>6.5868422887034299</v>
       </c>
       <c r="G36" s="19">
-        <v>11.9971530050029</v>
+        <v>11.008619346623901</v>
       </c>
       <c r="H36" s="20">
-        <v>3.0022417418704399</v>
+        <v>1.99707528692155</v>
       </c>
       <c r="I36" s="19">
-        <v>0.59579996599999996</v>
+        <v>2.2085504280000001</v>
       </c>
       <c r="J36" s="19">
-        <v>4.5640905070000004</v>
+        <v>4.6873524199999999</v>
       </c>
       <c r="K36" s="19">
-        <v>11.546756062316099</v>
+        <v>32.026994531115498</v>
       </c>
       <c r="L36" s="20">
-        <v>14.8301588702089</v>
+        <v>14.127373281930501</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="17" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C37" s="19">
-        <v>12.5495542298143</v>
+        <v>22.2718501189871</v>
       </c>
       <c r="D37" s="19">
-        <v>10.692812323878499</v>
+        <v>16.4898922615392</v>
       </c>
       <c r="E37" s="19">
-        <v>13.5866060546385</v>
+        <v>23.383050325686099</v>
       </c>
       <c r="F37" s="19">
-        <v>1.3463844043824</v>
+        <v>0.69390505842922001</v>
       </c>
       <c r="G37" s="19">
-        <v>15.5040897817368</v>
+        <v>8.8850397250834998</v>
       </c>
       <c r="H37" s="20">
-        <v>2.3474263274769198</v>
+        <v>1.24537311289592</v>
       </c>
       <c r="I37" s="19">
-        <v>0.53785234299999995</v>
+        <v>2.619666085</v>
       </c>
       <c r="J37" s="19">
-        <v>1.307741413</v>
+        <v>2.0897735339999999</v>
       </c>
       <c r="K37" s="19">
-        <v>29.1425098969613</v>
+        <v>55.625855662977202</v>
       </c>
       <c r="L37" s="20">
-        <v>16.587433625122301</v>
+        <v>15.164586371861899</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="24" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C38" s="26">
-        <v>17.544783409043799</v>
+        <v>19.944893801777798</v>
       </c>
       <c r="D38" s="26">
-        <v>9.8318130301610793</v>
+        <v>14.1675028906596</v>
       </c>
       <c r="E38" s="26">
-        <v>18.628257758422698</v>
+        <v>21.088265574666998</v>
       </c>
       <c r="F38" s="26">
-        <v>11.5774129301203</v>
+        <v>7.7506278042159202</v>
       </c>
       <c r="G38" s="26">
-        <v>16.432935860915599</v>
+        <v>14.824306117298001</v>
       </c>
       <c r="H38" s="27">
-        <v>7.1831824606795003</v>
+        <v>5.53073429658052</v>
       </c>
       <c r="I38" s="26">
-        <v>5.1034779510000003</v>
+        <v>8.6799974039999999</v>
       </c>
       <c r="J38" s="26">
-        <v>28.743021899999999</v>
+        <v>30.184353312999999</v>
       </c>
       <c r="K38" s="26">
-        <v>15.078303438957301</v>
+        <v>22.334085720884602</v>
       </c>
       <c r="L38" s="27">
-        <v>15.7686022372661</v>
+        <v>13.520067373822799</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C39" s="12">
-        <v>5.8699571790951</v>
+        <v>2.2959991132811499</v>
       </c>
       <c r="D39" s="12">
-        <v>7.2470687682293002</v>
+        <v>3.12551956273591</v>
       </c>
       <c r="E39" s="12">
-        <v>7.4649844863580697</v>
+        <v>3.5264178140756899</v>
       </c>
       <c r="F39" s="12">
-        <v>3.1066872614563898</v>
+        <v>4.7560037630659702</v>
       </c>
       <c r="G39" s="12">
-        <v>50.021873491279599</v>
+        <v>59.412972807804202</v>
       </c>
       <c r="H39" s="13">
-        <v>6.9641378829375897</v>
+        <v>2.3624748269730098</v>
       </c>
       <c r="I39" s="12">
-        <v>0.91841864500000003</v>
+        <v>0.45766396799999998</v>
       </c>
       <c r="J39" s="12">
-        <v>21.47852842</v>
+        <v>18.489167042999998</v>
       </c>
       <c r="K39" s="12">
-        <v>4.10064212026123</v>
+        <v>2.41551723206004</v>
       </c>
       <c r="L39" s="13">
-        <v>22.5353989185515</v>
+        <v>16.8805128329839</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C40" s="19">
-        <v>11.3984212279526</v>
+        <v>10.824632923207901</v>
       </c>
       <c r="D40" s="19">
-        <v>7.2886907414108704</v>
+        <v>5.7836587876019303</v>
       </c>
       <c r="E40" s="19">
-        <v>13.5386541234164</v>
+        <v>13.002541021524699</v>
       </c>
       <c r="F40" s="19">
-        <v>1.94044087200878</v>
+        <v>2.1645018814010002</v>
       </c>
       <c r="G40" s="19">
-        <v>28.233041284671799</v>
+        <v>25.667578893787098</v>
       </c>
       <c r="H40" s="20">
-        <v>8.6998027106132199</v>
+        <v>7.10110934459024</v>
       </c>
       <c r="I40" s="19">
-        <v>1.2826299880000001</v>
+        <v>0.77943134400000003</v>
       </c>
       <c r="J40" s="19">
-        <v>50.087889310000001</v>
+        <v>47.041975551999997</v>
       </c>
       <c r="K40" s="19">
-        <v>2.49682114474933</v>
+        <v>1.62987957609669</v>
       </c>
       <c r="L40" s="20">
-        <v>17.503311762900601</v>
+        <v>13.093940149445</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C41" s="12">
-        <v>0.87183066799027997</v>
+        <v>0.55134840505323002</v>
       </c>
       <c r="D41" s="12">
-        <v>0.87041170135997004</v>
+        <v>0.54469350287915996</v>
       </c>
       <c r="E41" s="12">
-        <v>0.87183666158979001</v>
+        <v>0.55135441532142004</v>
       </c>
       <c r="F41" s="12">
-        <v>16.061661413494399</v>
+        <v>8.50853392331938</v>
       </c>
       <c r="G41" s="12">
-        <v>61.000671616498401</v>
+        <v>47.609708613847197</v>
       </c>
       <c r="H41" s="13">
-        <v>5.3072247220275202</v>
+        <v>2.3543842647540898</v>
       </c>
       <c r="I41" s="12">
-        <v>0.72147909799999999</v>
+        <v>0.34221015500000002</v>
       </c>
       <c r="J41" s="12">
-        <v>3.907894738</v>
+        <v>3.4450904100000002</v>
       </c>
       <c r="K41" s="12">
-        <v>15.5848095997231</v>
+        <v>9.0357274033781394</v>
       </c>
       <c r="L41" s="13" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C42" s="12">
-        <v>10.0952373119654</v>
+        <v>6.5818864938179198</v>
       </c>
       <c r="D42" s="12">
-        <v>0.22118347391540999</v>
+        <v>0.20741084370398</v>
       </c>
       <c r="E42" s="12">
-        <v>11.3376503535541</v>
+        <v>8.3193645484265595</v>
       </c>
       <c r="F42" s="12">
-        <v>32.295081297561701</v>
+        <v>33.969168395134503</v>
       </c>
       <c r="G42" s="12">
-        <v>22.4857647393147</v>
+        <v>19.3926615927802</v>
       </c>
       <c r="H42" s="13">
-        <v>8.0787145972259999E-2</v>
+        <v>0.15374086518859001</v>
       </c>
       <c r="I42" s="12">
-        <v>0.23119696200000001</v>
+        <v>0.15327452499999999</v>
       </c>
       <c r="J42" s="12">
-        <v>1.694212453</v>
+        <v>1.3937731019999999</v>
       </c>
       <c r="K42" s="12">
-        <v>12.0076779618323</v>
+        <v>9.9075505062004208</v>
       </c>
       <c r="L42" s="13">
-        <v>33.361900851377001</v>
+        <v>35.2921373334867</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C43" s="19">
-        <v>5.9346432532981197</v>
+        <v>6.2563348701074597</v>
       </c>
       <c r="D43" s="19">
-        <v>2.00973952128227</v>
+        <v>1.78596304101027</v>
       </c>
       <c r="E43" s="19">
-        <v>7.3263670866357797</v>
+        <v>8.3690821646500293</v>
       </c>
       <c r="F43" s="19">
-        <v>1.47988006434621</v>
+        <v>1.28022468725456</v>
       </c>
       <c r="G43" s="19">
-        <v>61.422672359523098</v>
+        <v>61.353982421388402</v>
       </c>
       <c r="H43" s="20">
-        <v>4.2178991845647102</v>
+        <v>3.4764586363945802</v>
       </c>
       <c r="I43" s="19">
-        <v>1.1929064700000001</v>
+        <v>0.96053635900000001</v>
       </c>
       <c r="J43" s="19">
-        <v>28.037899920000001</v>
+        <v>26.170446698999999</v>
       </c>
       <c r="K43" s="19">
-        <v>4.0809906305154202</v>
+        <v>3.54036695591379</v>
       </c>
       <c r="L43" s="20">
-        <v>36.744977038634602</v>
+        <v>32.594277668810498</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="17" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C44" s="19">
-        <v>9.6050086062566606</v>
+        <v>3.5402659016029099</v>
       </c>
       <c r="D44" s="19">
-        <v>7.7323134914669298</v>
+        <v>1.98148132477671</v>
       </c>
       <c r="E44" s="19">
-        <v>10.314991481346301</v>
+        <v>4.1095562654694202</v>
       </c>
       <c r="F44" s="19">
-        <v>0.74018971030958003</v>
+        <v>1.5976146031476399</v>
       </c>
       <c r="G44" s="19">
-        <v>73.458568091565894</v>
+        <v>77.3567657720928</v>
       </c>
       <c r="H44" s="20">
-        <v>2.5738923898248798</v>
+        <v>4.1272346454870803</v>
       </c>
       <c r="I44" s="19">
-        <v>1.639325377</v>
+        <v>0.15865757</v>
       </c>
       <c r="J44" s="19">
-        <v>12.253648654999999</v>
+        <v>10.710747422000001</v>
       </c>
       <c r="K44" s="19">
-        <v>11.799672073266001</v>
+        <v>1.4596711606272299</v>
       </c>
       <c r="L44" s="20">
-        <v>49.177365901980203</v>
+        <v>37.788945084379698</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="24" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C45" s="26">
-        <v>6.8967475442758204</v>
+        <v>6.2103965149452698</v>
       </c>
       <c r="D45" s="26">
-        <v>4.8390052830162702</v>
+        <v>3.1072015504204402</v>
       </c>
       <c r="E45" s="26">
-        <v>8.1925728067191308</v>
+        <v>7.8277713499374197</v>
       </c>
       <c r="F45" s="26">
-        <v>5.3260861488264002</v>
+        <v>3.82259454018353</v>
       </c>
       <c r="G45" s="26">
-        <v>50.914332910959601</v>
+        <v>49.707972407755797</v>
       </c>
       <c r="H45" s="27">
-        <v>5.8074980661479998</v>
+        <v>4.2733369361290903</v>
       </c>
       <c r="I45" s="26">
-        <v>5.9859565400000001</v>
+        <v>2.8517739209999999</v>
       </c>
       <c r="J45" s="26">
-        <v>117.46007349600001</v>
+        <v>107.251200228</v>
       </c>
       <c r="K45" s="26">
-        <v>4.8490474244123902</v>
+        <v>2.5900970823374401</v>
       </c>
       <c r="L45" s="27">
-        <v>23.3089978099575</v>
+        <v>18.050556097956299</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C46" s="19">
-        <v>32.886518676744998</v>
+        <v>10.9592408116707</v>
       </c>
       <c r="D46" s="19">
-        <v>30.5881119884863</v>
+        <v>8.52478899275809</v>
       </c>
       <c r="E46" s="19">
-        <v>34.5816625487452</v>
+        <v>11.841495131828999</v>
       </c>
       <c r="F46" s="19">
-        <v>8.3403963064632904</v>
+        <v>5.0526147826693704</v>
       </c>
       <c r="G46" s="19">
-        <v>4.36539618403825</v>
+        <v>6.0595835747778404</v>
       </c>
       <c r="H46" s="20">
-        <v>1.2081085945851899</v>
+        <v>1.09623579382586</v>
       </c>
       <c r="I46" s="19">
-        <v>0.47930109599999998</v>
+        <v>0.35566524799999999</v>
       </c>
       <c r="J46" s="19">
-        <v>1.5868507629999999</v>
+        <v>1.3843357329999999</v>
       </c>
       <c r="K46" s="19">
-        <v>23.1977670911362</v>
+        <v>20.440519970028699</v>
       </c>
       <c r="L46" s="20">
-        <v>24.8772535879984</v>
+        <v>22.351361356623102</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C47" s="19">
-        <v>7.1512519874156597</v>
+        <v>4.1053703983999501</v>
       </c>
       <c r="D47" s="19">
-        <v>7.0415655598040203</v>
+        <v>4.06208263479013</v>
       </c>
       <c r="E47" s="19">
-        <v>7.6392522590961702</v>
+        <v>5.8294042387796496</v>
       </c>
       <c r="F47" s="19">
-        <v>1.06697308289489</v>
+        <v>0.87723083678906999</v>
       </c>
       <c r="G47" s="19">
-        <v>5.6785008316370602</v>
+        <v>2.6462018172731199</v>
       </c>
       <c r="H47" s="20">
-        <v>0.12406506552054</v>
+        <v>0.11960590682047</v>
       </c>
       <c r="I47" s="19">
-        <v>0.64405048600000003</v>
+        <v>0.62007531000000005</v>
       </c>
       <c r="J47" s="19">
-        <v>1.0323517200000001</v>
+        <v>1.1112936010000001</v>
       </c>
       <c r="K47" s="19">
-        <v>38.418613605665897</v>
+        <v>35.814164506503602</v>
       </c>
       <c r="L47" s="20">
-        <v>27.938996216928501</v>
+        <v>29.450252108031599</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C48" s="19">
-        <v>1.1181613472254599</v>
+        <v>0.67455036474454999</v>
       </c>
       <c r="D48" s="19">
-        <v>1.1181613472254599</v>
+        <v>0.67455036474454999</v>
       </c>
       <c r="E48" s="19">
-        <v>1.3140077599335001</v>
+        <v>1.2904969090113301</v>
       </c>
       <c r="F48" s="19">
-        <v>0.10097152876358</v>
+        <v>1.3065777779093499</v>
       </c>
       <c r="G48" s="19">
-        <v>89.587068753834004</v>
+        <v>88.6287633878094</v>
       </c>
       <c r="H48" s="20">
-        <v>3.6626719147361202</v>
+        <v>5.2407162916964003</v>
       </c>
       <c r="I48" s="19">
-        <v>1.0038194E-2</v>
+        <v>3.262821E-3</v>
       </c>
       <c r="J48" s="19">
-        <v>0.31253112500000002</v>
+        <v>0.268060505</v>
       </c>
       <c r="K48" s="19">
-        <v>3.1119494039667202</v>
+        <v>1.20255823489352</v>
       </c>
       <c r="L48" s="20">
-        <v>50.649292007173898</v>
+        <v>24.844803680796801</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C49" s="19">
-        <v>17.1075307596466</v>
+        <v>7.5367094043293799</v>
       </c>
       <c r="D49" s="19">
-        <v>16.597594881527801</v>
+        <v>7.3587488263705998</v>
       </c>
       <c r="E49" s="19">
-        <v>21.6380398530961</v>
+        <v>8.4730640313319494</v>
       </c>
       <c r="F49" s="19">
-        <v>2.7262005953417199</v>
+        <v>4.9263239616304801</v>
       </c>
       <c r="G49" s="19">
-        <v>37.088715739341502</v>
+        <v>37.084661865354498</v>
       </c>
       <c r="H49" s="20">
-        <v>6.4173490024926902</v>
+        <v>8.2472319819289908</v>
       </c>
       <c r="I49" s="19">
-        <v>1.9765249389999999</v>
+        <v>1.2500823750000001</v>
       </c>
       <c r="J49" s="19">
-        <v>3.9686631189999999</v>
+        <v>3.8100785020000001</v>
       </c>
       <c r="K49" s="19">
-        <v>33.2457933999302</v>
+        <v>24.704399828116401</v>
       </c>
       <c r="L49" s="20">
-        <v>23.557970587010601</v>
+        <v>21.536964229836901</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C50" s="19">
-        <v>12.7965011024903</v>
+        <v>11.385933334107699</v>
       </c>
       <c r="D50" s="19">
-        <v>11.514120973256199</v>
+        <v>11.232231727939</v>
       </c>
       <c r="E50" s="19">
-        <v>13.305170123703901</v>
+        <v>71.043499403271298</v>
       </c>
       <c r="F50" s="19">
-        <v>38.068125352011997</v>
+        <v>7.6769361801826097</v>
       </c>
       <c r="G50" s="19">
-        <v>9.5734905323971802</v>
+        <v>2.2163502246190299</v>
       </c>
       <c r="H50" s="20">
-        <v>0.35388182198593998</v>
+        <v>0.29390706850796999</v>
       </c>
       <c r="I50" s="19">
-        <v>7.0273297999999998E-2</v>
+        <v>9.2320880999999994E-2</v>
       </c>
       <c r="J50" s="19">
-        <v>0.79331733500000001</v>
+        <v>0.74302622799999996</v>
       </c>
       <c r="K50" s="19">
-        <v>8.1373390718562906</v>
+        <v>11.0517987080267</v>
       </c>
       <c r="L50" s="20">
-        <v>20.417786501010699</v>
+        <v>8.3246703396823705</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C51" s="15">
-        <v>5.1195010725121097</v>
+        <v>4.9302672332746296</v>
       </c>
       <c r="D51" s="15">
-        <v>4.9256750173215202</v>
+        <v>4.8012781124949298</v>
       </c>
       <c r="E51" s="15">
-        <v>13.265879856025901</v>
+        <v>8.9026916521400405</v>
       </c>
       <c r="F51" s="15">
-        <v>12.116009342101201</v>
+        <v>11.616267391062999</v>
       </c>
       <c r="G51" s="15">
-        <v>12.1295232030014</v>
+        <v>14.084039668326101</v>
       </c>
       <c r="H51" s="16">
-        <v>4.3278044902687904</v>
+        <v>5.1407255110969201</v>
       </c>
       <c r="I51" s="15">
-        <v>3.943359262</v>
+        <v>0.51213167599999998</v>
       </c>
       <c r="J51" s="15">
-        <v>6.4011889049999997</v>
+        <v>6.9044483489999999</v>
       </c>
       <c r="K51" s="15">
-        <v>38.120169178385702</v>
+        <v>6.9052268602737898</v>
       </c>
       <c r="L51" s="16">
-        <v>37.442924059639502</v>
+        <v>32.245966290252397</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C52" s="19">
-        <v>0.32530913125452998</v>
+        <v>0.44518324865334002</v>
       </c>
       <c r="D52" s="19">
-        <v>0.15276566860599</v>
+        <v>0.37336025976437998</v>
       </c>
       <c r="E52" s="19">
-        <v>0.38578193852338</v>
+        <v>0.45519550922377</v>
       </c>
       <c r="F52" s="19">
-        <v>35.640429295287298</v>
+        <v>18.351367550335301</v>
       </c>
       <c r="G52" s="19">
-        <v>12.5896468206882</v>
+        <v>6.5687029316577004</v>
       </c>
       <c r="H52" s="20">
-        <v>0.10780086735696</v>
+        <v>6.3486710579050004E-2</v>
       </c>
       <c r="I52" s="19">
-        <v>0.16281324</v>
+        <v>0.17787831800000001</v>
       </c>
       <c r="J52" s="19">
-        <v>1.6002776590000001</v>
+        <v>1.7085122150000001</v>
       </c>
       <c r="K52" s="19">
-        <v>9.2345346511824999</v>
+        <v>9.4295595152883394</v>
       </c>
       <c r="L52" s="20">
-        <v>29.9004210525042</v>
+        <v>58.821909574594102</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C53" s="19">
-        <v>13.306529442265299</v>
+        <v>0.85574742569871998</v>
       </c>
       <c r="D53" s="19">
-        <v>13.260026918099101</v>
+        <v>0.85574742569871998</v>
       </c>
       <c r="E53" s="19">
-        <v>13.477988323404199</v>
+        <v>4.7149306218203204</v>
       </c>
       <c r="F53" s="19">
-        <v>3.1245992863759602</v>
+        <v>3.5371521790000002E-3</v>
       </c>
       <c r="G53" s="19">
-        <v>29.855060548319599</v>
+        <v>2.6667728998488101</v>
       </c>
       <c r="H53" s="20">
-        <v>0.77015537282663005</v>
+        <v>0.65466850888005002</v>
       </c>
       <c r="I53" s="19">
-        <v>2.6163741000000001E-2</v>
+        <v>1.488037E-2</v>
       </c>
       <c r="J53" s="19">
-        <v>7.7582021000000001E-2</v>
+        <v>9.1249841999999998E-2</v>
       </c>
       <c r="K53" s="19">
-        <v>25.219093768861601</v>
+        <v>14.020861467797699</v>
       </c>
       <c r="L53" s="20">
-        <v>20.265588401188101</v>
+        <v>15.781576802186301</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C54" s="19">
-        <v>1.2610613626134499</v>
+        <v>0.86542853972789002</v>
       </c>
       <c r="D54" s="19">
-        <v>1.2610613626134499</v>
+        <v>0.86542853972789002</v>
       </c>
       <c r="E54" s="19">
-        <v>1.3549616326243299</v>
+        <v>2.1012305393505102</v>
       </c>
       <c r="F54" s="19">
-        <v>5.14373112252441</v>
+        <v>7.8353395038919702</v>
       </c>
       <c r="G54" s="19">
-        <v>34.781884160080999</v>
+        <v>48.2459631765743</v>
       </c>
       <c r="H54" s="20">
-        <v>3.69992968823377</v>
+        <v>4.7950555862221096</v>
       </c>
       <c r="I54" s="19">
-        <v>1.3885809000000001E-2</v>
+        <v>6.9256819999999998E-3</v>
       </c>
       <c r="J54" s="19">
-        <v>0.90161978200000004</v>
+        <v>1.029302283</v>
       </c>
       <c r="K54" s="19">
-        <v>1.5167366684055601</v>
+        <v>0.66835505640884996</v>
       </c>
       <c r="L54" s="20">
-        <v>26.981107427850802</v>
+        <v>26.642329589375201</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="17" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C55" s="19">
-        <v>1.4713866551667201</v>
+        <v>1.32945002077573</v>
       </c>
       <c r="D55" s="19">
-        <v>0.74624414724512</v>
+        <v>0.93338818986234995</v>
       </c>
       <c r="E55" s="19">
-        <v>1.5002924260238599</v>
+        <v>1.35171059136972</v>
       </c>
       <c r="F55" s="19">
-        <v>3.0550978704495302</v>
+        <v>3.0504079598868001</v>
       </c>
       <c r="G55" s="19">
-        <v>0.93712311080528998</v>
+        <v>0.58882946063962005</v>
       </c>
       <c r="H55" s="20">
-        <v>8.341488682348E-2</v>
+        <v>3.8618222991989998E-2</v>
       </c>
       <c r="I55" s="19">
-        <v>0.66881980500000004</v>
+        <v>0.43614869899999997</v>
       </c>
       <c r="J55" s="19">
-        <v>0.97993726000000003</v>
+        <v>1.138666344</v>
       </c>
       <c r="K55" s="19">
-        <v>40.565091073620401</v>
+        <v>27.695233223651702</v>
       </c>
       <c r="L55" s="20">
-        <v>25.705225158491601</v>
+        <v>29.617510448254599</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="17" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C56" s="19">
-        <v>5.1485227500204003</v>
+        <v>11.560092531741599</v>
       </c>
       <c r="D56" s="19">
-        <v>5.1405152440295003</v>
+        <v>10.808738197999601</v>
       </c>
       <c r="E56" s="19">
-        <v>5.3194617554625498</v>
+        <v>13.104897839223799</v>
       </c>
       <c r="F56" s="19">
-        <v>24.6163904307652</v>
+        <v>8.5910375792775397</v>
       </c>
       <c r="G56" s="19">
-        <v>7.9131943106025702</v>
+        <v>2.8732277021048498</v>
       </c>
       <c r="H56" s="20">
-        <v>0.90668325970959995</v>
+        <v>0.85818794007304999</v>
       </c>
       <c r="I56" s="19">
-        <v>0.25720484799999999</v>
+        <v>0.32840032400000002</v>
       </c>
       <c r="J56" s="19">
-        <v>0.45410553399999998</v>
+        <v>0.842748308</v>
       </c>
       <c r="K56" s="19">
-        <v>36.1592990217314</v>
+        <v>28.040875003131099</v>
       </c>
       <c r="L56" s="20">
-        <v>10.7661913807493</v>
+        <v>16.558684797394498</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C57" s="12">
-        <v>10.259798064179501</v>
+        <v>6.3569345383406803</v>
       </c>
       <c r="D57" s="12">
-        <v>10.2174293047019</v>
+        <v>6.2311401221689602</v>
       </c>
       <c r="E57" s="12">
-        <v>18.438538458682999</v>
+        <v>15.3570294197004</v>
       </c>
       <c r="F57" s="12">
-        <v>3.8775152052116599</v>
+        <v>5.9171220839462704</v>
       </c>
       <c r="G57" s="12">
-        <v>34.7242703402502</v>
+        <v>35.161421860844101</v>
       </c>
       <c r="H57" s="13">
-        <v>7.3104916142267298</v>
+        <v>3.9741369059882699</v>
       </c>
       <c r="I57" s="12">
-        <v>2.2924824240000001</v>
+        <v>0.92189384600000002</v>
       </c>
       <c r="J57" s="12">
-        <v>20.812618280999999</v>
+        <v>22.176416295999999</v>
       </c>
       <c r="K57" s="12">
-        <v>9.9219754688362105</v>
+        <v>3.9911744206936901</v>
       </c>
       <c r="L57" s="13">
-        <v>15.604465910185001</v>
+        <v>9.3002005332566693</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="17" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C58" s="19">
-        <v>39.343078480004202</v>
+        <v>40.0505328780906</v>
       </c>
       <c r="D58" s="19">
-        <v>36.880233529144498</v>
+        <v>37.477707551603203</v>
       </c>
       <c r="E58" s="19">
-        <v>42.2840116216246</v>
+        <v>42.883260903462599</v>
       </c>
       <c r="F58" s="19">
-        <v>6.6196763412469704</v>
+        <v>6.7005066341098303</v>
       </c>
       <c r="G58" s="19">
-        <v>14.2626392374377</v>
+        <v>11.870592713286999</v>
       </c>
       <c r="H58" s="20">
-        <v>3.35395601815758</v>
+        <v>3.05200305464954</v>
       </c>
       <c r="I58" s="19">
-        <v>0.90879748900000001</v>
+        <v>0.89213699599999996</v>
       </c>
       <c r="J58" s="19">
-        <v>4.0788720410000101</v>
+        <v>4.2301851660000098</v>
       </c>
       <c r="K58" s="19">
-        <v>18.220884193183501</v>
+        <v>17.4166514284932</v>
       </c>
       <c r="L58" s="20">
-        <v>25.043697347141102</v>
+        <v>20.662918406188599</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="17" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C59" s="19">
-        <v>3.9203801115946399</v>
+        <v>1.8007273897635701</v>
       </c>
       <c r="D59" s="19">
-        <v>3.74398578189464</v>
+        <v>1.6809927340814601</v>
       </c>
       <c r="E59" s="19">
-        <v>4.4213080895363701</v>
+        <v>2.1104913429107501</v>
       </c>
       <c r="F59" s="19">
-        <v>25.449560636174098</v>
+        <v>26.750756280133398</v>
       </c>
       <c r="G59" s="19">
-        <v>49.530322715204697</v>
+        <v>46.219439070099902</v>
       </c>
       <c r="H59" s="20">
-        <v>3.9159752110503598</v>
+        <v>5.7147065447841303</v>
       </c>
       <c r="I59" s="19">
-        <v>0.10220343599999999</v>
+        <v>2.3322424000000001E-2</v>
       </c>
       <c r="J59" s="19">
-        <v>0.39562023499999999</v>
+        <v>0.40025524800000001</v>
       </c>
       <c r="K59" s="19">
-        <v>20.530047475384102</v>
+        <v>5.5060560415941797</v>
       </c>
       <c r="L59" s="20">
-        <v>18.007332896349599</v>
+        <v>17.270550805284898</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="10" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C60" s="15">
-        <v>47.152201140903301</v>
+        <v>50.120339126921102</v>
       </c>
       <c r="D60" s="15">
-        <v>40.703158063607297</v>
+        <v>49.685947462080797</v>
       </c>
       <c r="E60" s="15">
-        <v>55.778442640412997</v>
+        <v>56.482879555997997</v>
       </c>
       <c r="F60" s="15">
-        <v>3.2706756960646501</v>
+        <v>4.1060824275018701</v>
       </c>
       <c r="G60" s="15">
-        <v>11.214995914731</v>
+        <v>6.5771045170438303</v>
       </c>
       <c r="H60" s="16">
-        <v>0.66643241083783999</v>
+        <v>1.2484946026681001</v>
       </c>
       <c r="I60" s="15">
-        <v>0.59975738599999995</v>
+        <v>0.86410489800000001</v>
       </c>
       <c r="J60" s="15">
-        <v>2.1628735990000001</v>
+        <v>2.204307434</v>
       </c>
       <c r="K60" s="15">
-        <v>21.709645235156099</v>
+        <v>28.1613031269749</v>
       </c>
       <c r="L60" s="16">
-        <v>23.061581981638199</v>
+        <v>21.8295363249734</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="24"/>
       <c r="B61" s="25" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C61" s="26">
-        <v>10.8099065986765</v>
+        <v>7.3582904713741701</v>
       </c>
       <c r="D61" s="26">
-        <v>10.445676856587299</v>
+        <v>7.0827059850012297</v>
       </c>
       <c r="E61" s="26">
-        <v>17.0434610207035</v>
+        <v>12.318077352049899</v>
       </c>
       <c r="F61" s="26">
-        <v>6.9617414013430396</v>
+        <v>7.5928882772537198</v>
       </c>
       <c r="G61" s="26">
-        <v>25.8974036135312</v>
+        <v>22.641054136223602</v>
       </c>
       <c r="H61" s="27">
-        <v>5.30354249104888</v>
+        <v>3.42632257107699</v>
       </c>
       <c r="I61" s="26">
-        <v>12.155675453000001</v>
+        <v>6.4992298679999996</v>
       </c>
       <c r="J61" s="26">
-        <v>45.558409378999997</v>
+        <v>48.042886054</v>
       </c>
       <c r="K61" s="26">
-        <v>21.061887212426502</v>
+        <v>11.915984112707401</v>
       </c>
       <c r="L61" s="27">
-        <v>20.133731072816801</v>
+        <v>16.087452377332799</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="30"/>
       <c r="B62" s="31" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C62" s="32">
-        <v>12.1700977870114</v>
+        <v>12.368246834103999</v>
       </c>
       <c r="D62" s="32">
-        <v>10.0351353902649</v>
+        <v>9.1818442862717493</v>
       </c>
       <c r="E62" s="32">
-        <v>15.168292414786</v>
+        <v>14.810631690318299</v>
       </c>
       <c r="F62" s="32">
-        <v>14.993761749950799</v>
+        <v>13.451715388605599</v>
       </c>
       <c r="G62" s="32">
-        <v>28.825896915195599</v>
+        <v>25.739419760106099</v>
       </c>
       <c r="H62" s="33">
-        <v>5.28784939212649</v>
+        <v>5.0297121080319798</v>
       </c>
       <c r="I62" s="32">
-        <v>51.033885374</v>
+        <v>43.109230785999998</v>
       </c>
       <c r="J62" s="32">
-        <v>250.740566656</v>
+        <v>238.198696351</v>
       </c>
       <c r="K62" s="32">
-        <v>16.9112676804485</v>
+        <v>15.324570204879199</v>
       </c>
       <c r="L62" s="33">
-        <v>22.985689175674299</v>
+        <v>19.430288676576701</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="30"/>
       <c r="B63" s="31" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C63" s="32">
-        <v>20.926755700780902</v>
+        <v>20.9620049933771</v>
       </c>
       <c r="D63" s="32" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E63" s="32">
-        <v>58.609028311609897</v>
+        <v>57.994841788161601</v>
       </c>
       <c r="F63" s="32">
-        <v>8.0786573720343497</v>
+        <v>8.6106983503690806</v>
       </c>
       <c r="G63" s="32">
-        <v>30.181817695220801</v>
+        <v>29.962396380069698</v>
       </c>
       <c r="H63" s="33">
-        <v>13.431168751979801</v>
+        <v>13.664317556159901</v>
       </c>
       <c r="I63" s="32">
-        <v>5501.2113759829999</v>
+        <v>4997.7275583869996</v>
       </c>
       <c r="J63" s="32">
-        <v>3727.9849196149999</v>
+        <v>3507.8633168649999</v>
       </c>
       <c r="K63" s="32">
-        <v>59.606613618207298</v>
+        <v>58.758146631863902</v>
       </c>
       <c r="L63" s="33">
-        <v>28.199828168478</v>
+        <v>26.271120620362002</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="34"/>
       <c r="B64" s="35" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C64" s="36">
-        <v>7.6746676353734502</v>
+        <v>7.1980457229618597</v>
       </c>
       <c r="D64" s="36" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E64" s="36">
-        <v>47.9712270251853</v>
+        <v>47.6532972516165</v>
       </c>
       <c r="F64" s="36">
-        <v>12.5756886705121</v>
+        <v>14.0457119511938</v>
       </c>
       <c r="G64" s="36">
-        <v>9.9206991077023297</v>
+        <v>9.45918271071546</v>
       </c>
       <c r="H64" s="37">
-        <v>42.726808957798298</v>
+        <v>42.103770789223603</v>
       </c>
       <c r="I64" s="36">
-        <v>245.56442531499999</v>
+        <v>215.02154107999999</v>
       </c>
       <c r="J64" s="36">
-        <v>332.63685490400002</v>
+        <v>303.55142772599999</v>
       </c>
       <c r="K64" s="36">
-        <v>42.470404981114903</v>
+        <v>41.464085869165402</v>
       </c>
       <c r="L64" s="37">
-        <v>24.4855748701839</v>
+        <v>24.5636618115437</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="34"/>
       <c r="B65" s="38" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C65" s="39">
-        <v>5.45752024892212</v>
+        <v>5.11405392218406</v>
       </c>
       <c r="D65" s="39" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E65" s="39">
-        <v>49.848810199867202</v>
+        <v>48.4765299470698</v>
       </c>
       <c r="F65" s="39">
-        <v>5.3891127703007999</v>
+        <v>5.4432365814408401</v>
       </c>
       <c r="G65" s="39">
-        <v>14.7897822706424</v>
+        <v>14.7703143857799</v>
       </c>
       <c r="H65" s="40">
-        <v>15.713027893772299</v>
+        <v>16.255726371375001</v>
       </c>
       <c r="I65" s="39">
-        <v>1446.1063113539999</v>
+        <v>1361.8638940149999</v>
       </c>
       <c r="J65" s="39">
-        <v>973.24513649300002</v>
+        <v>899.70431381900005</v>
       </c>
       <c r="K65" s="39">
-        <v>59.772477977141399</v>
+        <v>60.217679453467198</v>
       </c>
       <c r="L65" s="40">
-        <v>22.3982687057403</v>
+        <v>21.285396690227898</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="34"/>
       <c r="B66" s="41" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C66" s="42">
-        <v>20.665772372563499</v>
+        <v>20.726551104357402</v>
       </c>
       <c r="D66" s="42">
-        <v>0.29908705570709998</v>
+        <v>0.25156641663731999</v>
       </c>
       <c r="E66" s="42">
-        <v>57.314321136085901</v>
+        <v>56.811670232326101</v>
       </c>
       <c r="F66" s="42">
-        <v>8.2847550605921505</v>
+        <v>8.7433337198242302</v>
       </c>
       <c r="G66" s="42">
-        <v>30.141405848434701</v>
+        <v>29.846694233234501</v>
       </c>
       <c r="H66" s="43">
-        <v>13.1884653587217</v>
+        <v>13.427744523124501</v>
       </c>
       <c r="I66" s="42">
-        <v>5552.2452613570003</v>
+        <v>5040.8367891730004</v>
       </c>
       <c r="J66" s="42">
-        <v>3978.7254862710001</v>
+        <v>3746.0620132159902</v>
       </c>
       <c r="K66" s="42">
-        <v>58.254771821000602</v>
+        <v>57.367643608260202</v>
       </c>
       <c r="L66" s="43">
-        <v>27.939567849128199</v>
+        <v>25.923482575636399</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="34"/>
       <c r="B67" s="38" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C67" s="39">
-        <v>13.724081225713601</v>
+        <v>17.165244798678199</v>
       </c>
       <c r="D67" s="39">
-        <v>8.9381593122166692</v>
+        <v>8.7354123558080001</v>
       </c>
       <c r="E67" s="39">
-        <v>15.881551476647401</v>
+        <v>18.349925104898301</v>
       </c>
       <c r="F67" s="39">
-        <v>9.8090686198683805</v>
+        <v>11.274827455889</v>
       </c>
       <c r="G67" s="39">
-        <v>34.429960608598002</v>
+        <v>24.6153428080022</v>
       </c>
       <c r="H67" s="40">
-        <v>5.5220774405238702</v>
+        <v>4.2383485442222204</v>
       </c>
       <c r="I67" s="39">
-        <v>14.164172069999999</v>
+        <v>14.200044027000001</v>
       </c>
       <c r="J67" s="39">
-        <v>96.731426980999998</v>
+        <v>93.865705788</v>
       </c>
       <c r="K67" s="39">
-        <v>12.772528568501601</v>
+        <v>13.1401892378569</v>
       </c>
       <c r="L67" s="40">
-        <v>19.255132780610399</v>
+        <v>15.876143816588399</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="34"/>
       <c r="B68" s="38" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C68" s="39">
-        <v>9.0523538738354592</v>
+        <v>7.1231400282691197</v>
       </c>
       <c r="D68" s="39">
-        <v>7.33200274532763</v>
+        <v>5.1002388149056701</v>
       </c>
       <c r="E68" s="39">
-        <v>12.826420483023099</v>
+        <v>10.440033210792199</v>
       </c>
       <c r="F68" s="39">
-        <v>6.8221617201731597</v>
+        <v>6.2745666179371602</v>
       </c>
       <c r="G68" s="39">
-        <v>37.2789313748941</v>
+        <v>33.663215083750501</v>
       </c>
       <c r="H68" s="40">
-        <v>5.3340210856063601</v>
+        <v>3.9192930863094002</v>
       </c>
       <c r="I68" s="39">
-        <v>17.986228948000001</v>
+        <v>9.8455080810000002</v>
       </c>
       <c r="J68" s="39">
-        <v>147.39403315600001</v>
+        <v>142.79719775999999</v>
       </c>
       <c r="K68" s="39">
-        <v>10.875680519050899</v>
+        <v>6.4500350847131598</v>
       </c>
       <c r="L68" s="40">
-        <v>21.749543490332201</v>
+        <v>17.297569133143501</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="34"/>
       <c r="B69" s="38" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C69" s="39">
-        <v>23.116178595192199</v>
+        <v>25.646251495028899</v>
       </c>
       <c r="D69" s="39">
-        <v>15.2921683282822</v>
+        <v>19.6915349373634</v>
       </c>
       <c r="E69" s="39">
-        <v>24.612235329073702</v>
+        <v>27.009721221795601</v>
       </c>
       <c r="F69" s="39">
-        <v>12.3384474371249</v>
+        <v>6.4219367642040597</v>
       </c>
       <c r="G69" s="39">
-        <v>12.4726037061612</v>
+        <v>11.415562550557601</v>
       </c>
       <c r="H69" s="40">
-        <v>5.1412684796148804</v>
+        <v>3.5585476128031601</v>
       </c>
       <c r="I69" s="39">
-        <v>3.5891435390000002</v>
+        <v>6.9414995380000004</v>
       </c>
       <c r="J69" s="39">
-        <v>14.280910045000001</v>
+        <v>15.41478972</v>
       </c>
       <c r="K69" s="39">
-        <v>20.084682578755899</v>
+        <v>31.0494262169024</v>
       </c>
       <c r="L69" s="40">
-        <v>15.076420752350201</v>
+        <v>13.205910249862001</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="34"/>
       <c r="B70" s="38" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C70" s="39">
-        <v>3.2126393372798199</v>
+        <v>8.1565744473431803</v>
       </c>
       <c r="D70" s="39">
-        <v>1.4061479587666299</v>
+        <v>0.82406136445713996</v>
       </c>
       <c r="E70" s="39">
-        <v>3.7612465962882502</v>
+        <v>8.8140926120768395</v>
       </c>
       <c r="F70" s="39">
-        <v>52.341968062270098</v>
+        <v>47.7779536120144</v>
       </c>
       <c r="G70" s="39">
-        <v>14.0346339104163</v>
+        <v>12.565283293625701</v>
       </c>
       <c r="H70" s="40">
-        <v>3.3066887835585499</v>
+        <v>2.0001491227789101</v>
       </c>
       <c r="I70" s="39">
-        <v>4.3177964820000003</v>
+        <v>3.801549826</v>
       </c>
       <c r="J70" s="39">
-        <v>11.710442670000001</v>
+        <v>12.502473626</v>
       </c>
       <c r="K70" s="39">
-        <v>26.938682665345901</v>
+        <v>23.3166361493038</v>
       </c>
       <c r="L70" s="40">
-        <v>33.995468980397398</v>
+        <v>29.484772989378499</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="34"/>
       <c r="B71" s="38" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C71" s="39">
-        <v>10.8099065986765</v>
+        <v>7.3582904713741701</v>
       </c>
       <c r="D71" s="39">
-        <v>10.445676856587299</v>
+        <v>7.0827059850012297</v>
       </c>
       <c r="E71" s="39">
-        <v>17.0434610207035</v>
+        <v>12.318077352049899</v>
       </c>
       <c r="F71" s="39">
-        <v>6.9617414013430396</v>
+        <v>7.5928882772537296</v>
       </c>
       <c r="G71" s="39">
-        <v>25.8974036135312</v>
+        <v>22.641054136223602</v>
       </c>
       <c r="H71" s="40">
-        <v>5.30354249104888</v>
+        <v>3.42632257107699</v>
       </c>
       <c r="I71" s="39">
-        <v>12.155675453000001</v>
+        <v>6.4992298679999996</v>
       </c>
       <c r="J71" s="39">
-        <v>45.558409378999997</v>
+        <v>48.042886054</v>
       </c>
       <c r="K71" s="39">
-        <v>21.061887212426502</v>
+        <v>11.915984112707401</v>
       </c>
       <c r="L71" s="40">
-        <v>20.133731072816801</v>
+        <v>16.087452377332799</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="34"/>
       <c r="B72" s="38" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C72" s="39">
-        <v>15.2036404052013</v>
+        <v>20.8675966887327</v>
       </c>
       <c r="D72" s="39">
-        <v>10.680797273344799</v>
+        <v>16.181883592586502</v>
       </c>
       <c r="E72" s="39">
-        <v>16.4016067076006</v>
+        <v>22.1201533584257</v>
       </c>
       <c r="F72" s="39">
-        <v>16.090639554962902</v>
+        <v>9.5035447793682604</v>
       </c>
       <c r="G72" s="39">
-        <v>13.1093784473025</v>
+        <v>11.6036650901403</v>
       </c>
       <c r="H72" s="40">
-        <v>6.4159213270270303</v>
+        <v>4.8279729200719297</v>
       </c>
       <c r="I72" s="39">
-        <v>3.2221268890000001</v>
+        <v>5.7046134300000002</v>
       </c>
       <c r="J72" s="39">
-        <v>19.539581976000001</v>
+        <v>21.776431689999999</v>
       </c>
       <c r="K72" s="39">
-        <v>14.155909418359</v>
+        <v>20.758356915066301</v>
       </c>
       <c r="L72" s="40">
-        <v>14.001302450939701</v>
+        <v>12.2648168279625</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="34"/>
       <c r="B73" s="38" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C73" s="39">
-        <v>18.082341882288901</v>
+        <v>18.814702151391799</v>
       </c>
       <c r="D73" s="39">
-        <v>14.9380152263626</v>
+        <v>13.8951608137537</v>
       </c>
       <c r="E73" s="39">
-        <v>20.7508189386885</v>
+        <v>20.640612443461901</v>
       </c>
       <c r="F73" s="39">
-        <v>23.461830488735899</v>
+        <v>19.9969658460818</v>
       </c>
       <c r="G73" s="39">
-        <v>17.125377326721502</v>
+        <v>15.5622013994738</v>
       </c>
       <c r="H73" s="40">
-        <v>4.84112102871687</v>
+        <v>6.5261917390817397</v>
       </c>
       <c r="I73" s="39">
-        <v>27.789015418000002</v>
+        <v>26.030979362</v>
       </c>
       <c r="J73" s="39">
-        <v>61.979337721</v>
+        <v>55.427969589999996</v>
       </c>
       <c r="K73" s="39">
-        <v>30.956360951582401</v>
+        <v>31.955947992084798</v>
       </c>
       <c r="L73" s="40">
-        <v>28.956137439324898</v>
+        <v>28.041047608218001</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="34"/>
       <c r="B74" s="38" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C74" s="39">
-        <v>5.4412230310563698</v>
+        <v>4.1937362736247596</v>
       </c>
       <c r="D74" s="39">
-        <v>4.0469493756102199</v>
+        <v>1.937451147482</v>
       </c>
       <c r="E74" s="39">
-        <v>6.4640262809385396</v>
+        <v>5.5661290474333596</v>
       </c>
       <c r="F74" s="39">
-        <v>6.4207656035683902</v>
+        <v>4.5472668901750604</v>
       </c>
       <c r="G74" s="39">
-        <v>58.247866674912302</v>
+        <v>60.2148692148862</v>
       </c>
       <c r="H74" s="40">
-        <v>4.8723302584540402</v>
+        <v>3.0374539680533501</v>
       </c>
       <c r="I74" s="39">
-        <v>4.703326552</v>
+        <v>2.0723425770000001</v>
       </c>
       <c r="J74" s="39">
-        <v>67.372184185999998</v>
+        <v>60.209224675999998</v>
       </c>
       <c r="K74" s="39">
-        <v>6.5255542469854397</v>
+        <v>3.3273770529597302</v>
       </c>
       <c r="L74" s="40">
-        <v>30.7239571600274</v>
+        <v>24.952605976376798</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="34"/>
       <c r="B75" s="41" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C75" s="42">
-        <v>4.5085312637781696</v>
+        <v>4.0820555583802802</v>
       </c>
       <c r="D75" s="42">
-        <v>4.0874665401598298</v>
+        <v>3.8611797342237999</v>
       </c>
       <c r="E75" s="42">
-        <v>4.9299055907617699</v>
+        <v>4.3497344026793003</v>
       </c>
       <c r="F75" s="42">
-        <v>52.374297643574103</v>
+        <v>48.379420537883398</v>
       </c>
       <c r="G75" s="42">
-        <v>15.0508324889456</v>
+        <v>15.636482211406101</v>
       </c>
       <c r="H75" s="43">
-        <v>3.01976338331353</v>
+        <v>2.3099507913248001</v>
       </c>
       <c r="I75" s="42">
-        <v>3.9412800290000001</v>
+        <v>3.7786761950000001</v>
       </c>
       <c r="J75" s="42">
-        <v>7.2310320629999998</v>
+        <v>7.0716492750000004</v>
       </c>
       <c r="K75" s="42">
-        <v>35.277210272546697</v>
+        <v>34.825464042047798</v>
       </c>
       <c r="L75" s="43">
-        <v>40.493809726473998</v>
+        <v>34.8208617812762</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="34"/>
       <c r="B76" s="38" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C76" s="39">
-        <v>21.842133570799401</v>
+        <v>20.277807646693599</v>
       </c>
       <c r="D76" s="39" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E76" s="39">
-        <v>63.4887362040038</v>
+        <v>62.4531816476321</v>
       </c>
       <c r="F76" s="39">
-        <v>14.1797346025139</v>
+        <v>15.381082422862701</v>
       </c>
       <c r="G76" s="39">
-        <v>10.612944758520999</v>
+        <v>9.9293255181448803</v>
       </c>
       <c r="H76" s="40">
-        <v>13.2105763722841</v>
+        <v>15.1060167000488</v>
       </c>
       <c r="I76" s="39">
-        <v>660.66550621900001</v>
+        <v>643.14336690000005</v>
       </c>
       <c r="J76" s="39">
-        <v>204.75425456799999</v>
+        <v>191.20163106999999</v>
       </c>
       <c r="K76" s="39">
-        <v>76.340469232895799</v>
+        <v>77.0836246953955</v>
       </c>
       <c r="L76" s="40">
-        <v>50.024226823068197</v>
+        <v>47.746674537101903</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="34"/>
       <c r="B77" s="38" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C77" s="39">
-        <v>15.8252172531899</v>
+        <v>14.798409422973499</v>
       </c>
       <c r="D77" s="39" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E77" s="39">
-        <v>15.8253917199906</v>
+        <v>14.798412309350701</v>
       </c>
       <c r="F77" s="39">
-        <v>23.254718079057799</v>
+        <v>25.929817326555</v>
       </c>
       <c r="G77" s="39">
-        <v>13.242624038265999</v>
+        <v>12.6297281512746</v>
       </c>
       <c r="H77" s="40">
-        <v>13.962306251930301</v>
+        <v>12.344571552331001</v>
       </c>
       <c r="I77" s="39">
-        <v>48.907963101999997</v>
+        <v>41.586898677000001</v>
       </c>
       <c r="J77" s="39">
-        <v>188.387660006</v>
+        <v>172.38537576100001</v>
       </c>
       <c r="K77" s="39">
-        <v>20.610562665009901</v>
+        <v>19.435648280240201</v>
       </c>
       <c r="L77" s="40">
-        <v>18.025248461525798</v>
+        <v>18.478312145378599</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="34"/>
       <c r="B78" s="38" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C78" s="39">
-        <v>57.661730776900001</v>
+        <v>58.164489291895102</v>
       </c>
       <c r="D78" s="39" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E78" s="39">
-        <v>72.5241859201317</v>
+        <v>72.936311273426099</v>
       </c>
       <c r="F78" s="39">
-        <v>4.0390601999729796</v>
+        <v>4.4303489857286902</v>
       </c>
       <c r="G78" s="39">
-        <v>57.661730776900001</v>
+        <v>58.164489291895102</v>
       </c>
       <c r="H78" s="40">
-        <v>7.7013520707430496</v>
+        <v>7.7278314215694897</v>
       </c>
       <c r="I78" s="39">
-        <v>2084.3930233740002</v>
+        <v>1875.645399857</v>
       </c>
       <c r="J78" s="39">
-        <v>732.18344337799999</v>
+        <v>649.59606862500004</v>
       </c>
       <c r="K78" s="39">
-        <v>74.004489066035106</v>
+        <v>74.275883049889401</v>
       </c>
       <c r="L78" s="40">
-        <v>49.318897250394201</v>
+        <v>46.710722289173603</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="34"/>
       <c r="B79" s="41" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C79" s="42">
-        <v>29.2347254647987</v>
+        <v>29.818832693601301</v>
       </c>
       <c r="D79" s="42" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E79" s="42">
-        <v>61.521506125660899</v>
+        <v>61.777856247087698</v>
       </c>
       <c r="F79" s="42">
-        <v>7.81992690622402</v>
+        <v>8.6433222484002208</v>
       </c>
       <c r="G79" s="42">
-        <v>38.0735668447035</v>
+        <v>38.4941870249597</v>
       </c>
       <c r="H79" s="43">
-        <v>13.969273255355899</v>
+        <v>13.927026137554</v>
       </c>
       <c r="I79" s="42">
-        <v>3514.0757316949998</v>
+        <v>3128.2252881149998</v>
       </c>
       <c r="J79" s="42">
-        <v>2317.3110288829998</v>
+        <v>2196.8437538920002</v>
       </c>
       <c r="K79" s="42">
-        <v>60.261407379994999</v>
+        <v>58.745253130764802</v>
       </c>
       <c r="L79" s="43">
-        <v>29.850143772159601</v>
+        <v>27.636831682715599</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="34"/>
       <c r="B80" s="38" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C80" s="39">
-        <v>5.53687260891079</v>
+        <v>3.5214712682147402</v>
       </c>
       <c r="D80" s="39">
-        <v>5.4089014160855502</v>
+        <v>3.3002331419148998</v>
       </c>
       <c r="E80" s="39">
-        <v>8.8372435764670403</v>
+        <v>7.4715088245494004</v>
       </c>
       <c r="F80" s="39">
-        <v>22.3511965286114</v>
+        <v>22.873425382668501</v>
       </c>
       <c r="G80" s="39">
-        <v>33.995303576518502</v>
+        <v>32.480218772993801</v>
       </c>
       <c r="H80" s="40">
-        <v>5.6319275698859599</v>
+        <v>2.7906915713226801</v>
       </c>
       <c r="I80" s="39">
-        <v>5.2466144210000003</v>
+        <v>2.5604352459999999</v>
       </c>
       <c r="J80" s="39">
-        <v>54.294751986999998</v>
+        <v>51.105238339000003</v>
       </c>
       <c r="K80" s="39">
-        <v>8.8117131626577301</v>
+        <v>4.7710856399567501</v>
       </c>
       <c r="L80" s="40">
-        <v>22.2264025333216</v>
+        <v>16.102160988592999</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="34"/>
       <c r="B81" s="38" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C81" s="39">
-        <v>0.46212810525691</v>
+        <v>0.49827065581196001</v>
       </c>
       <c r="D81" s="39" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E81" s="39">
-        <v>67.977461813891296</v>
+        <v>66.501911307850605</v>
       </c>
       <c r="F81" s="39">
-        <v>16.903375166078501</v>
+        <v>17.724540497931699</v>
       </c>
       <c r="G81" s="39">
-        <v>20.211154907625499</v>
+        <v>17.254395540609099</v>
       </c>
       <c r="H81" s="40">
-        <v>4.0268307634984302</v>
+        <v>3.6426061182135498</v>
       </c>
       <c r="I81" s="39">
-        <v>215.26508986499999</v>
+        <v>196.450465522</v>
       </c>
       <c r="J81" s="39">
-        <v>210.706494134</v>
+        <v>197.44577514400001</v>
       </c>
       <c r="K81" s="39">
-        <v>50.535082139541402</v>
+        <v>49.8736584004563</v>
       </c>
       <c r="L81" s="40">
-        <v>35.2659687311684</v>
+        <v>29.505691309920699</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="34"/>
       <c r="B82" s="38" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C82" s="39">
-        <v>15.7331161443603</v>
+        <v>15.2938751629653</v>
       </c>
       <c r="D82" s="39">
-        <v>12.520104034147501</v>
+        <v>11.1268928585023</v>
       </c>
       <c r="E82" s="39">
-        <v>18.568997596132199</v>
+        <v>17.2376793310289</v>
       </c>
       <c r="F82" s="39">
-        <v>11.041736230613401</v>
+        <v>10.3359562671437</v>
       </c>
       <c r="G82" s="39">
-        <v>26.0491645811714</v>
+        <v>23.510237793819599</v>
       </c>
       <c r="H82" s="40">
-        <v>5.1030287610151603</v>
+        <v>5.7701561107436596</v>
       </c>
       <c r="I82" s="39">
-        <v>45.787270952999997</v>
+        <v>40.54879554</v>
       </c>
       <c r="J82" s="39">
-        <v>196.44581466899999</v>
+        <v>187.09345801200001</v>
       </c>
       <c r="K82" s="39">
-        <v>18.902154028805999</v>
+        <v>17.812508401801399</v>
       </c>
       <c r="L82" s="40">
-        <v>23.3011724236612</v>
+        <v>20.7741079048362</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="34"/>
       <c r="B83" s="41" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C83" s="42">
-        <v>22.658066202263701</v>
+        <v>22.402355036322199</v>
       </c>
       <c r="D83" s="42" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E83" s="42">
-        <v>57.816457460797501</v>
+        <v>57.396067500639198</v>
       </c>
       <c r="F83" s="42">
-        <v>7.3320849500278999</v>
+        <v>7.9692160719103002</v>
       </c>
       <c r="G83" s="42">
-        <v>31.0253372320573</v>
+        <v>30.8568552922567</v>
       </c>
       <c r="H83" s="43">
-        <v>14.2267771276001</v>
+        <v>14.3697006627775</v>
       </c>
       <c r="I83" s="42">
-        <v>5285.946286118</v>
+        <v>4801.2770928649998</v>
       </c>
       <c r="J83" s="42">
-        <v>3517.2784254809899</v>
+        <v>3310.4175417209999</v>
       </c>
       <c r="K83" s="42">
-        <v>60.045568064999202</v>
+        <v>59.189569000707898</v>
       </c>
       <c r="L83" s="43">
-        <v>27.570965563126101</v>
+        <v>25.978873230176099</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="34"/>
       <c r="B84" s="38" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C84" s="39">
-        <v>9.2341081910448501</v>
+        <v>12.7259646447999</v>
       </c>
       <c r="D84" s="39">
-        <v>5.95384884883737</v>
+        <v>5.9093606261545997</v>
       </c>
       <c r="E84" s="39">
-        <v>9.9897391877501391</v>
+        <v>13.818493110960899</v>
       </c>
       <c r="F84" s="39">
-        <v>20.5525311202145</v>
+        <v>18.789644043630801</v>
       </c>
       <c r="G84" s="39">
-        <v>14.8009115274615</v>
+        <v>10.0044328118867</v>
       </c>
       <c r="H84" s="40">
-        <v>3.23333708188453</v>
+        <v>1.86501848276453</v>
       </c>
       <c r="I84" s="39">
-        <v>10.113696177</v>
+        <v>12.845347861</v>
       </c>
       <c r="J84" s="39">
-        <v>27.370344324000001</v>
+        <v>31.205472985</v>
       </c>
       <c r="K84" s="39">
-        <v>26.981339369564999</v>
+        <v>29.160291713761399</v>
       </c>
       <c r="L84" s="40">
-        <v>18.935407403318798</v>
+        <v>18.6945543790595</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="34"/>
       <c r="B85" s="38" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C85" s="39" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D85" s="39" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E85" s="39">
-        <v>83.019676385027907</v>
+        <v>82.777388842497601</v>
       </c>
       <c r="F85" s="39">
-        <v>21.735306167273301</v>
+        <v>17.319805200592398</v>
       </c>
       <c r="G85" s="39">
-        <v>5.11354878395945</v>
+        <v>4.4960996137229898</v>
       </c>
       <c r="H85" s="40">
-        <v>0.99400508121303999</v>
+        <v>0.70406628009420003</v>
       </c>
       <c r="I85" s="39">
-        <v>7.943041375</v>
+        <v>6.4173836450000001</v>
       </c>
       <c r="J85" s="39">
-        <v>5.6086600760000103</v>
+        <v>4.5126496019999998</v>
       </c>
       <c r="K85" s="39">
-        <v>58.612871628852702</v>
+        <v>58.713303976100903</v>
       </c>
       <c r="L85" s="40">
-        <v>7.6079266150250504</v>
+        <v>6.8771293523331103</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="34"/>
       <c r="B86" s="38" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C86" s="39">
-        <v>10.812609773061901</v>
+        <v>9.9462584563047596</v>
       </c>
       <c r="D86" s="39">
-        <v>8.8033226626755301</v>
+        <v>7.1402168927297502</v>
       </c>
       <c r="E86" s="39">
-        <v>14.624011232827201</v>
+        <v>12.899897351940499</v>
       </c>
       <c r="F86" s="39">
-        <v>12.6038631043581</v>
+        <v>11.4438734603666</v>
       </c>
       <c r="G86" s="39">
-        <v>32.847375910631797</v>
+        <v>33.778216324729598</v>
       </c>
       <c r="H86" s="40">
-        <v>5.4738763467937801</v>
+        <v>4.1727171934985599</v>
       </c>
       <c r="I86" s="39">
-        <v>23.616084665999999</v>
+        <v>16.545522424000001</v>
       </c>
       <c r="J86" s="39">
-        <v>175.10615388799999</v>
+        <v>166.99402885399999</v>
       </c>
       <c r="K86" s="39">
-        <v>11.8839667054086</v>
+        <v>9.0146904625146203</v>
       </c>
       <c r="L86" s="40">
-        <v>22.636114997922501</v>
+        <v>17.705529697404799</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="34"/>
       <c r="B87" s="38" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C87" s="39">
-        <v>8.9314772573379795</v>
+        <v>8.7209544155501106</v>
       </c>
       <c r="D87" s="39" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E87" s="39">
-        <v>52.553683886545002</v>
+        <v>51.017503103724302</v>
       </c>
       <c r="F87" s="39">
-        <v>12.1489404600557</v>
+        <v>13.505775448243</v>
       </c>
       <c r="G87" s="39">
-        <v>16.157938510877401</v>
+        <v>15.2371221884968</v>
       </c>
       <c r="H87" s="40">
-        <v>15.755515484899201</v>
+        <v>17.2829360339734</v>
       </c>
       <c r="I87" s="39">
-        <v>662.86158174399998</v>
+        <v>592.28288664399997</v>
       </c>
       <c r="J87" s="39">
-        <v>295.75389317899999</v>
+        <v>246.48290108899999</v>
       </c>
       <c r="K87" s="39">
-        <v>69.147807341337099</v>
+        <v>70.6136200720359</v>
       </c>
       <c r="L87" s="40">
-        <v>22.784581869320501</v>
+        <v>21.430627390630899</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="34"/>
       <c r="B88" s="38" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C88" s="39">
-        <v>15.754141972682399</v>
+        <v>16.551072858168801</v>
       </c>
       <c r="D88" s="39">
-        <v>13.8276503729897</v>
+        <v>14.8434332711563</v>
       </c>
       <c r="E88" s="39">
-        <v>17.9884703617589</v>
+        <v>18.873972974559202</v>
       </c>
       <c r="F88" s="39">
-        <v>17.723960059124099</v>
+        <v>14.0792713153118</v>
       </c>
       <c r="G88" s="39">
-        <v>26.042855082747401</v>
+        <v>20.409717219766002</v>
       </c>
       <c r="H88" s="40">
-        <v>5.6702545128369799</v>
+        <v>8.4800273334299003</v>
       </c>
       <c r="I88" s="39">
-        <v>17.251788680000001</v>
+        <v>13.674520834000001</v>
       </c>
       <c r="J88" s="39">
-        <v>47.969936257999997</v>
+        <v>39.766885144</v>
       </c>
       <c r="K88" s="39">
-        <v>26.4509849998595</v>
+        <v>25.5878762613943</v>
       </c>
       <c r="L88" s="40">
-        <v>28.7748282759704</v>
+        <v>28.540311444921102</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="34"/>
       <c r="B89" s="38" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C89" s="39">
-        <v>5.5554171205256404</v>
+        <v>5.2650777588463598</v>
       </c>
       <c r="D89" s="39" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E89" s="39">
-        <v>52.478094522121403</v>
+        <v>51.024781858089199</v>
       </c>
       <c r="F89" s="39">
-        <v>5.4659898846897699</v>
+        <v>5.4358786654921598</v>
       </c>
       <c r="G89" s="39">
-        <v>18.967123289427999</v>
+        <v>18.067684766592699</v>
       </c>
       <c r="H89" s="40">
-        <v>19.229093349023199</v>
+        <v>19.077910595351099</v>
       </c>
       <c r="I89" s="39">
-        <v>1308.558732409</v>
+        <v>1249.8930858020001</v>
       </c>
       <c r="J89" s="39">
-        <v>1112.347111564</v>
+        <v>1070.216208561</v>
       </c>
       <c r="K89" s="39">
-        <v>54.052442215658303</v>
+        <v>53.8721640760103</v>
       </c>
       <c r="L89" s="40">
-        <v>25.078802611966999</v>
+        <v>23.751560552975299</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="34"/>
       <c r="B90" s="41" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C90" s="42">
-        <v>29.2792770198214</v>
+        <v>30.040152643048099</v>
       </c>
       <c r="D90" s="42">
-        <v>6.9853352170999995E-4</v>
+        <v>6.0786866481999996E-4</v>
       </c>
       <c r="E90" s="42">
-        <v>62.126297105905699</v>
+        <v>62.199780564094603</v>
       </c>
       <c r="F90" s="42">
-        <v>8.8054799324513802</v>
+        <v>9.6136352236612002</v>
       </c>
       <c r="G90" s="42">
-        <v>36.842952637232003</v>
+        <v>37.454875647934898</v>
       </c>
       <c r="H90" s="43">
-        <v>10.5348631256826</v>
+        <v>10.6140478932283</v>
       </c>
       <c r="I90" s="42">
-        <v>3521.3635160949998</v>
+        <v>3148.6461731949998</v>
       </c>
       <c r="J90" s="42">
-        <v>2312.6510366699999</v>
+        <v>2185.1273654769998</v>
       </c>
       <c r="K90" s="42">
-        <v>60.3591829304928</v>
+        <v>59.032243314532401</v>
       </c>
       <c r="L90" s="43">
-        <v>32.237011529709697</v>
+        <v>29.8247149566456</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="34"/>
       <c r="B91" s="38" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C91" s="39">
-        <v>11.269092485031001</v>
+        <v>13.4384713286875</v>
       </c>
       <c r="D91" s="39">
-        <v>7.5489128084120303</v>
+        <v>7.5458354232525604</v>
       </c>
       <c r="E91" s="39">
-        <v>11.8963251801857</v>
+        <v>14.340363117580299</v>
       </c>
       <c r="F91" s="39">
-        <v>31.253867846151799</v>
+        <v>24.6022794831391</v>
       </c>
       <c r="G91" s="39">
-        <v>13.0844003519141</v>
+        <v>10.029116574699099</v>
       </c>
       <c r="H91" s="40">
-        <v>2.9296135062764002</v>
+        <v>1.9799787972240199</v>
       </c>
       <c r="I91" s="39">
-        <v>15.858884136</v>
+        <v>19.263287217999999</v>
       </c>
       <c r="J91" s="39">
-        <v>47.593786569000002</v>
+        <v>50.219912323999999</v>
       </c>
       <c r="K91" s="39">
-        <v>24.993249235686399</v>
+        <v>27.7236617556105</v>
       </c>
       <c r="L91" s="40">
-        <v>23.3289423948085</v>
+        <v>22.232226551438401</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="34"/>
       <c r="B92" s="38" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C92" s="39">
-        <v>14.3117726307943</v>
+        <v>14.9405810063272</v>
       </c>
       <c r="D92" s="39" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E92" s="39">
-        <v>39.373072153248899</v>
+        <v>40.053329316025199</v>
       </c>
       <c r="F92" s="39">
-        <v>9.9989111990967299</v>
+        <v>10.1792865614908</v>
       </c>
       <c r="G92" s="39">
-        <v>32.553345861486797</v>
+        <v>30.697185723515101</v>
       </c>
       <c r="H92" s="40">
-        <v>13.5108174037483</v>
+        <v>15.521700501201799</v>
       </c>
       <c r="I92" s="39">
-        <v>73.231299536999998</v>
+        <v>67.489435309000001</v>
       </c>
       <c r="J92" s="39">
-        <v>16.347091941999999</v>
+        <v>15.834234252</v>
       </c>
       <c r="K92" s="39">
-        <v>81.751076713816303</v>
+        <v>80.996715176582597</v>
       </c>
       <c r="L92" s="40">
-        <v>19.0037105188085</v>
+        <v>16.035765040178202</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="34"/>
       <c r="B93" s="38" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C93" s="39">
-        <v>27.423774732639199</v>
+        <v>23.527801998148401</v>
       </c>
       <c r="D93" s="39">
-        <v>9.7030981053224608</v>
+        <v>7.7364701781868996</v>
       </c>
       <c r="E93" s="39">
-        <v>28.1923495474426</v>
+        <v>24.3631710795541</v>
       </c>
       <c r="F93" s="39">
-        <v>1.22920987638823</v>
+        <v>0.88346874584390001</v>
       </c>
       <c r="G93" s="39">
-        <v>29.262553077069601</v>
+        <v>29.312430155216099</v>
       </c>
       <c r="H93" s="40">
-        <v>6.6251167515607001</v>
+        <v>5.8050459899138698</v>
       </c>
       <c r="I93" s="39">
-        <v>0.36526109699999998</v>
+        <v>0.27552521800000002</v>
       </c>
       <c r="J93" s="39">
-        <v>2.6892637760000002</v>
+        <v>2.2018743019999998</v>
       </c>
       <c r="K93" s="39">
-        <v>11.9580331536557</v>
+        <v>11.121549664302799</v>
       </c>
       <c r="L93" s="40">
-        <v>38.785286579872199</v>
+        <v>28.7147456900667</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="34"/>
       <c r="B94" s="38" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C94" s="39">
-        <v>21.9213228669981</v>
+        <v>19.965868225439401</v>
       </c>
       <c r="D94" s="39" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E94" s="39">
-        <v>68.233767803415105</v>
+        <v>68.384431176004298</v>
       </c>
       <c r="F94" s="39">
-        <v>14.0395426424364</v>
+        <v>13.8749524712773</v>
       </c>
       <c r="G94" s="39">
-        <v>9.4809344108624494</v>
+        <v>8.7073537438195192</v>
       </c>
       <c r="H94" s="40">
-        <v>10.2960313968959</v>
+        <v>11.7784589266734</v>
       </c>
       <c r="I94" s="39">
-        <v>146.18272648000001</v>
+        <v>147.29835934299999</v>
       </c>
       <c r="J94" s="39">
-        <v>74.559516457000001</v>
+        <v>69.956566806999902</v>
       </c>
       <c r="K94" s="39">
-        <v>66.223267705819595</v>
+        <v>67.799778791345105</v>
       </c>
       <c r="L94" s="40">
-        <v>111.596307383292</v>
+        <v>112.586596239001</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="34"/>
       <c r="B95" s="38" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C95" s="39">
-        <v>19.872659579157201</v>
+        <v>19.741172456276999</v>
       </c>
       <c r="D95" s="39">
-        <v>14.767124288763601</v>
+        <v>14.5371631347281</v>
       </c>
       <c r="E95" s="39">
-        <v>23.423384886763198</v>
+        <v>20.6895487044989</v>
       </c>
       <c r="F95" s="39">
-        <v>10.031671546154101</v>
+        <v>6.8681096910574704</v>
       </c>
       <c r="G95" s="39">
-        <v>9.3877454383140897</v>
+        <v>8.5593371764033392</v>
       </c>
       <c r="H95" s="40">
-        <v>3.1050561803033601</v>
+        <v>2.21936094310204</v>
       </c>
       <c r="I95" s="39">
-        <v>10.382552859</v>
+        <v>12.652620517000001</v>
       </c>
       <c r="J95" s="39">
-        <v>15.498374999999999</v>
+        <v>16.433263188000002</v>
       </c>
       <c r="K95" s="39">
-        <v>40.116617594100298</v>
+        <v>43.5008977046311</v>
       </c>
       <c r="L95" s="40">
-        <v>19.834744611285</v>
+        <v>19.320975557333998</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="34"/>
       <c r="B96" s="41" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C96" s="42">
-        <v>8.0235500186649098</v>
+        <v>9.7101215837299808</v>
       </c>
       <c r="D96" s="42" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E96" s="42">
-        <v>66.816191458816604</v>
+        <v>63.116766420900099</v>
       </c>
       <c r="F96" s="42">
-        <v>17.768060376081799</v>
+        <v>18.065856309504898</v>
       </c>
       <c r="G96" s="42">
-        <v>30.565196495226999</v>
+        <v>26.671695766566501</v>
       </c>
       <c r="H96" s="43">
-        <v>1.6256366765364101</v>
+        <v>1.5285863827138599</v>
       </c>
       <c r="I96" s="42">
-        <v>50.788233750000003</v>
+        <v>44.691442842999997</v>
       </c>
       <c r="J96" s="42">
-        <v>25.894595428999999</v>
+        <v>24.645681942</v>
       </c>
       <c r="K96" s="42">
-        <v>66.231559651308004</v>
+        <v>64.4552870941489</v>
       </c>
       <c r="L96" s="43">
-        <v>32.267782003419903</v>
+        <v>27.003055957956001</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="34"/>
       <c r="B97" s="38" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C97" s="39">
-        <v>10.126793837708201</v>
+        <v>11.6955537292359</v>
       </c>
       <c r="D97" s="39">
-        <v>8.2534013844915801</v>
+        <v>7.6250292003996698</v>
       </c>
       <c r="E97" s="39">
-        <v>13.5572183467876</v>
+        <v>14.3484952634051</v>
       </c>
       <c r="F97" s="39">
-        <v>20.656618954712499</v>
+        <v>18.969703432758401</v>
       </c>
       <c r="G97" s="39">
-        <v>25.778967873165701</v>
+        <v>19.1484953608878</v>
       </c>
       <c r="H97" s="40">
-        <v>4.81589730931986</v>
+        <v>3.0199016588141498</v>
       </c>
       <c r="I97" s="39">
-        <v>22.978857724000001</v>
+        <v>24.991521315</v>
       </c>
       <c r="J97" s="39">
-        <v>80.762916567999994</v>
+        <v>85.620467046000002</v>
       </c>
       <c r="K97" s="39">
-        <v>22.150052744733099</v>
+        <v>22.593863183650701</v>
       </c>
       <c r="L97" s="40">
-        <v>20.316177819727098</v>
+        <v>17.235270642716401</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="34"/>
       <c r="B98" s="38" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C98" s="39">
-        <v>5.4281381491430798</v>
+        <v>6.4601522422795501</v>
       </c>
       <c r="D98" s="39" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E98" s="39">
-        <v>51.455718258406797</v>
+        <v>49.771318929123197</v>
       </c>
       <c r="F98" s="39">
-        <v>18.275850098946201</v>
+        <v>16.0848233090036</v>
       </c>
       <c r="G98" s="39">
-        <v>22.5026737503795</v>
+        <v>21.485775924328902</v>
       </c>
       <c r="H98" s="40">
-        <v>12.9666499279985</v>
+        <v>14.291936497456099</v>
       </c>
       <c r="I98" s="39">
-        <v>130.44708036099999</v>
+        <v>117.42490314</v>
       </c>
       <c r="J98" s="39">
-        <v>54.643380864000001</v>
+        <v>51.467600703999999</v>
       </c>
       <c r="K98" s="39">
-        <v>70.477473283955902</v>
+        <v>69.526415008010801</v>
       </c>
       <c r="L98" s="40">
-        <v>19.241640923017499</v>
+        <v>13.6878051607566</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="34"/>
       <c r="B99" s="41" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C99" s="42">
-        <v>0.98086706136005997</v>
+        <v>5.2598388681443096</v>
       </c>
       <c r="D99" s="42">
-        <v>0.18180125496676999</v>
+        <v>0.52152993283684002</v>
       </c>
       <c r="E99" s="42">
-        <v>54.040745864890098</v>
+        <v>50.5303029852208</v>
       </c>
       <c r="F99" s="42">
-        <v>30.087085737714101</v>
+        <v>32.0800938819688</v>
       </c>
       <c r="G99" s="42">
-        <v>16.8828607531578</v>
+        <v>10.5292137514749</v>
       </c>
       <c r="H99" s="43">
-        <v>7.2962981634244102</v>
+        <v>4.1222553404411597</v>
       </c>
       <c r="I99" s="42">
-        <v>17.879153362</v>
+        <v>18.440119512999999</v>
       </c>
       <c r="J99" s="42">
-        <v>21.433563320000001</v>
+        <v>22.7021838</v>
       </c>
       <c r="K99" s="42">
-        <v>45.479312728815501</v>
+        <v>44.820338260384602</v>
       </c>
       <c r="L99" s="43">
-        <v>29.360226564954601</v>
+        <v>23.506077656131499</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
@@ -4978,7 +4948,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="47" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="49"/>
@@ -4994,7 +4964,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="47" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="49"/>
@@ -5010,7 +4980,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="47" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="49"/>
@@ -5026,7 +4996,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="47" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B104" s="48"/>
       <c r="C104" s="49"/>
@@ -5042,7 +5012,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" s="47" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="49"/>
@@ -5084,7 +5054,7 @@
     </row>
     <row r="108" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="50" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C108" s="49"/>
       <c r="D108" s="49"/>
@@ -5112,7 +5082,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C110" s="49"/>
       <c r="D110" s="49"/>
@@ -5127,7 +5097,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C111" s="49"/>
       <c r="D111" s="49"/>
@@ -5155,7 +5125,7 @@
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C113" s="49"/>
       <c r="D113" s="49"/>
@@ -5170,7 +5140,7 @@
     </row>
     <row r="114" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C114" s="49"/>
       <c r="D114" s="49"/>

--- a/DDAf_2022_Tableau_annexe_Tab21.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab21.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab21" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab21.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab21.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab21" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="174">
   <si>
     <t>Tableau 21 : Commerce international et régional</t>
   </si>
@@ -33,6 +33,36 @@
     <t>Pays (pays riches en ressources ombrés)</t>
   </si>
   <si>
+    <t>Exportations vers les pays de la même CER, en % du total des exportations, 2020</t>
+  </si>
+  <si>
+    <t>Exportations vers les pays de la même région de la CUA, en % du total des exportations, 2020</t>
+  </si>
+  <si>
+    <t>Exportations vers les pays du même continent, en % du total des exportations, 2020</t>
+  </si>
+  <si>
+    <t>Exportations vers la Chine, en % du total des exportations, 2020</t>
+  </si>
+  <si>
+    <t>Exportations vers les pays de l'UE, en % du total des exportations, 2020</t>
+  </si>
+  <si>
+    <t>Exportations vers les États-Unis, en % du total des exportations, 2020</t>
+  </si>
+  <si>
+    <t>Commerce intra-continental de biens intermédiaires (millions de dollars US), 2020</t>
+  </si>
+  <si>
+    <t>Commerce extra-continental de biens intermédiaires (millions de dollars US), 2020</t>
+  </si>
+  <si>
+    <t>Commerce intra-continental de biens intermédiaires en % du total des échanges de biens intermédiaires, 2020</t>
+  </si>
+  <si>
+    <t>Valeur totale des exportations de biens et services en % du PIB, 2020</t>
+  </si>
+  <si>
     <t>AGO</t>
   </si>
   <si>
@@ -456,7 +486,7 @@
     <t>RDM, pays à revenu intermédiaire, tranche supérieure</t>
   </si>
   <si>
-    <t>Pays à revenu élévé</t>
+    <t>Pays à revenu élevé</t>
   </si>
   <si>
     <t>Afrique, pays les moins avancés</t>
@@ -1286,50 +1316,50 @@
       <c r="K1" s="3"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D2" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E2" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F2" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2" s="9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K2" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L2" s="9" t="e">
-        <v>#N/A</v>
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C3" s="12">
         <v>0.51215017004456997</v>
@@ -1364,10 +1394,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C4" s="15">
         <v>15.9387030835291</v>
@@ -1402,10 +1432,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C5" s="19">
         <v>78.235416844040202</v>
@@ -1440,10 +1470,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C6" s="19">
         <v>29.286599747552099</v>
@@ -1478,10 +1508,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C7" s="19">
         <v>29.266041829718699</v>
@@ -1516,10 +1546,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C8" s="19">
         <v>20.332508803285201</v>
@@ -1554,10 +1584,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C9" s="19">
         <v>34.658720430312897</v>
@@ -1592,10 +1622,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C10" s="19">
         <v>17.574897626448799</v>
@@ -1630,10 +1660,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C11" s="15">
         <v>29.693960964316101</v>
@@ -1668,10 +1698,10 @@
     </row>
     <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C12" s="22">
         <v>36.354441896880601</v>
@@ -1706,10 +1736,10 @@
     </row>
     <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="24" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C13" s="26">
         <v>18.260800071717799</v>
@@ -1744,10 +1774,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C14" s="19">
         <v>38.783204551661498</v>
@@ -1782,10 +1812,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C15" s="19">
         <v>0.58708172122774005</v>
@@ -1820,10 +1850,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C16" s="19">
         <v>4.3607568731212298</v>
@@ -1858,10 +1888,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C17" s="12">
         <v>0.32313826532313</v>
@@ -1896,10 +1926,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C18" s="12">
         <v>4.4627158334260697</v>
@@ -1934,10 +1964,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C19" s="15">
         <v>23.037147836206302</v>
@@ -1972,10 +2002,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C20" s="12">
         <v>5.2875616512760001E-2</v>
@@ -2010,10 +2040,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C21" s="12">
         <v>0.41214972367329</v>
@@ -2048,16 +2078,16 @@
     </row>
     <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="17" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E22" s="19">
         <v>2.4906152025544301</v>
@@ -2086,10 +2116,10 @@
     </row>
     <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C23" s="26">
         <v>12.339223860354</v>
@@ -2124,10 +2154,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C24" s="19">
         <v>5.46884015532481</v>
@@ -2162,10 +2192,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C25" s="19">
         <v>34.710224997646499</v>
@@ -2200,10 +2230,10 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C26" s="19">
         <v>0.10457585451414</v>
@@ -2238,10 +2268,10 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C27" s="19">
         <v>14.4926797450583</v>
@@ -2276,10 +2306,10 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C28" s="19">
         <v>36.597625858033901</v>
@@ -2314,10 +2344,10 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C29" s="19">
         <v>5.5976674914550202</v>
@@ -2352,10 +2382,10 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C30" s="19">
         <v>33.166457177935399</v>
@@ -2390,10 +2420,10 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C31" s="19">
         <v>3.7232806517086101</v>
@@ -2428,10 +2458,10 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C32" s="19">
         <v>12.445877612778601</v>
@@ -2466,10 +2496,10 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C33" s="19">
         <v>3.8234521979235399</v>
@@ -2504,10 +2534,10 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C34" s="15">
         <v>10.2459916961656</v>
@@ -2542,10 +2572,10 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C35" s="19">
         <v>4.8437754023195501</v>
@@ -2580,10 +2610,10 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C36" s="19">
         <v>21.998400077872802</v>
@@ -2618,10 +2648,10 @@
     </row>
     <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="17" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C37" s="19">
         <v>22.2718501189871</v>
@@ -2656,10 +2686,10 @@
     </row>
     <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="24" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C38" s="26">
         <v>19.944893801777798</v>
@@ -2694,10 +2724,10 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C39" s="12">
         <v>2.2959991132811499</v>
@@ -2732,10 +2762,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C40" s="19">
         <v>10.824632923207901</v>
@@ -2770,10 +2800,10 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C41" s="12">
         <v>0.55134840505323002</v>
@@ -2803,15 +2833,15 @@
         <v>9.0357274033781394</v>
       </c>
       <c r="L41" s="13" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C42" s="12">
         <v>6.5818864938179198</v>
@@ -2846,10 +2876,10 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C43" s="19">
         <v>6.2563348701074597</v>
@@ -2884,10 +2914,10 @@
     </row>
     <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="17" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C44" s="19">
         <v>3.5402659016029099</v>
@@ -2922,10 +2952,10 @@
     </row>
     <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="24" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C45" s="26">
         <v>6.2103965149452698</v>
@@ -2960,10 +2990,10 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C46" s="19">
         <v>10.9592408116707</v>
@@ -2998,10 +3028,10 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C47" s="19">
         <v>4.1053703983999501</v>
@@ -3036,10 +3066,10 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C48" s="19">
         <v>0.67455036474454999</v>
@@ -3074,10 +3104,10 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C49" s="19">
         <v>7.5367094043293799</v>
@@ -3112,10 +3142,10 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C50" s="19">
         <v>11.385933334107699</v>
@@ -3150,10 +3180,10 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C51" s="15">
         <v>4.9302672332746296</v>
@@ -3188,10 +3218,10 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C52" s="19">
         <v>0.44518324865334002</v>
@@ -3226,10 +3256,10 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C53" s="19">
         <v>0.85574742569871998</v>
@@ -3264,10 +3294,10 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C54" s="19">
         <v>0.86542853972789002</v>
@@ -3302,10 +3332,10 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="17" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C55" s="19">
         <v>1.32945002077573</v>
@@ -3340,10 +3370,10 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="17" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C56" s="19">
         <v>11.560092531741599</v>
@@ -3378,10 +3408,10 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C57" s="12">
         <v>6.3569345383406803</v>
@@ -3416,10 +3446,10 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="17" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C58" s="19">
         <v>40.0505328780906</v>
@@ -3454,10 +3484,10 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="17" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C59" s="19">
         <v>1.8007273897635701</v>
@@ -3492,10 +3522,10 @@
     </row>
     <row r="60" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="10" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C60" s="15">
         <v>50.120339126921102</v>
@@ -3531,7 +3561,7 @@
     <row r="61" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="24"/>
       <c r="B61" s="25" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C61" s="26">
         <v>7.3582904713741701</v>
@@ -3567,7 +3597,7 @@
     <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="30"/>
       <c r="B62" s="31" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C62" s="32">
         <v>12.368246834103999</v>
@@ -3603,13 +3633,13 @@
     <row r="63" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="30"/>
       <c r="B63" s="31" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C63" s="32">
         <v>20.9620049933771</v>
       </c>
       <c r="D63" s="32" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E63" s="32">
         <v>57.994841788161601</v>
@@ -3639,13 +3669,13 @@
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="34"/>
       <c r="B64" s="35" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C64" s="36">
         <v>7.1980457229618597</v>
       </c>
       <c r="D64" s="36" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E64" s="36">
         <v>47.6532972516165</v>
@@ -3675,13 +3705,13 @@
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="34"/>
       <c r="B65" s="38" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C65" s="39">
         <v>5.11405392218406</v>
       </c>
       <c r="D65" s="39" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E65" s="39">
         <v>48.4765299470698</v>
@@ -3711,7 +3741,7 @@
     <row r="66" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="34"/>
       <c r="B66" s="41" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C66" s="42">
         <v>20.726551104357402</v>
@@ -3747,7 +3777,7 @@
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="34"/>
       <c r="B67" s="38" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C67" s="39">
         <v>17.165244798678199</v>
@@ -3783,7 +3813,7 @@
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="34"/>
       <c r="B68" s="38" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C68" s="39">
         <v>7.1231400282691197</v>
@@ -3819,7 +3849,7 @@
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="34"/>
       <c r="B69" s="38" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C69" s="39">
         <v>25.646251495028899</v>
@@ -3855,7 +3885,7 @@
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="34"/>
       <c r="B70" s="38" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C70" s="39">
         <v>8.1565744473431803</v>
@@ -3891,7 +3921,7 @@
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="34"/>
       <c r="B71" s="38" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C71" s="39">
         <v>7.3582904713741701</v>
@@ -3927,7 +3957,7 @@
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="34"/>
       <c r="B72" s="38" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C72" s="39">
         <v>20.8675966887327</v>
@@ -3963,7 +3993,7 @@
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="34"/>
       <c r="B73" s="38" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C73" s="39">
         <v>18.814702151391799</v>
@@ -3999,7 +4029,7 @@
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="34"/>
       <c r="B74" s="38" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C74" s="39">
         <v>4.1937362736247596</v>
@@ -4035,7 +4065,7 @@
     <row r="75" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="34"/>
       <c r="B75" s="41" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C75" s="42">
         <v>4.0820555583802802</v>
@@ -4071,13 +4101,13 @@
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="34"/>
       <c r="B76" s="38" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C76" s="39">
         <v>20.277807646693599</v>
       </c>
       <c r="D76" s="39" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E76" s="39">
         <v>62.4531816476321</v>
@@ -4107,13 +4137,13 @@
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="34"/>
       <c r="B77" s="38" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C77" s="39">
         <v>14.798409422973499</v>
       </c>
       <c r="D77" s="39" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E77" s="39">
         <v>14.798412309350701</v>
@@ -4143,13 +4173,13 @@
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="34"/>
       <c r="B78" s="38" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C78" s="39">
         <v>58.164489291895102</v>
       </c>
       <c r="D78" s="39" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E78" s="39">
         <v>72.936311273426099</v>
@@ -4179,13 +4209,13 @@
     <row r="79" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="34"/>
       <c r="B79" s="41" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C79" s="42">
         <v>29.818832693601301</v>
       </c>
       <c r="D79" s="42" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E79" s="42">
         <v>61.777856247087698</v>
@@ -4215,7 +4245,7 @@
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="34"/>
       <c r="B80" s="38" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C80" s="39">
         <v>3.5214712682147402</v>
@@ -4251,13 +4281,13 @@
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="34"/>
       <c r="B81" s="38" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C81" s="39">
         <v>0.49827065581196001</v>
       </c>
       <c r="D81" s="39" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E81" s="39">
         <v>66.501911307850605</v>
@@ -4287,7 +4317,7 @@
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="34"/>
       <c r="B82" s="38" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C82" s="39">
         <v>15.2938751629653</v>
@@ -4323,13 +4353,13 @@
     <row r="83" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="34"/>
       <c r="B83" s="41" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C83" s="42">
         <v>22.402355036322199</v>
       </c>
       <c r="D83" s="42" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E83" s="42">
         <v>57.396067500639198</v>
@@ -4359,7 +4389,7 @@
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="34"/>
       <c r="B84" s="38" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C84" s="39">
         <v>12.7259646447999</v>
@@ -4395,13 +4425,13 @@
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="34"/>
       <c r="B85" s="38" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C85" s="39" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D85" s="39" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E85" s="39">
         <v>82.777388842497601</v>
@@ -4431,7 +4461,7 @@
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="34"/>
       <c r="B86" s="38" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C86" s="39">
         <v>9.9462584563047596</v>
@@ -4467,13 +4497,13 @@
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="34"/>
       <c r="B87" s="38" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C87" s="39">
         <v>8.7209544155501106</v>
       </c>
       <c r="D87" s="39" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E87" s="39">
         <v>51.017503103724302</v>
@@ -4503,7 +4533,7 @@
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="34"/>
       <c r="B88" s="38" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C88" s="39">
         <v>16.551072858168801</v>
@@ -4539,13 +4569,13 @@
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="34"/>
       <c r="B89" s="38" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="C89" s="39">
         <v>5.2650777588463598</v>
       </c>
       <c r="D89" s="39" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E89" s="39">
         <v>51.024781858089199</v>
@@ -4575,7 +4605,7 @@
     <row r="90" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="34"/>
       <c r="B90" s="41" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="C90" s="42">
         <v>30.040152643048099</v>
@@ -4611,7 +4641,7 @@
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="34"/>
       <c r="B91" s="38" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C91" s="39">
         <v>13.4384713286875</v>
@@ -4647,13 +4677,13 @@
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="34"/>
       <c r="B92" s="38" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="C92" s="39">
         <v>14.9405810063272</v>
       </c>
       <c r="D92" s="39" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E92" s="39">
         <v>40.053329316025199</v>
@@ -4683,7 +4713,7 @@
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="34"/>
       <c r="B93" s="38" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C93" s="39">
         <v>23.527801998148401</v>
@@ -4719,13 +4749,13 @@
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="34"/>
       <c r="B94" s="38" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C94" s="39">
         <v>19.965868225439401</v>
       </c>
       <c r="D94" s="39" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E94" s="39">
         <v>68.384431176004298</v>
@@ -4755,7 +4785,7 @@
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="34"/>
       <c r="B95" s="38" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C95" s="39">
         <v>19.741172456276999</v>
@@ -4791,13 +4821,13 @@
     <row r="96" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="34"/>
       <c r="B96" s="41" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C96" s="42">
         <v>9.7101215837299808</v>
       </c>
       <c r="D96" s="42" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E96" s="42">
         <v>63.116766420900099</v>
@@ -4827,7 +4857,7 @@
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="34"/>
       <c r="B97" s="38" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="C97" s="39">
         <v>11.6955537292359</v>
@@ -4863,13 +4893,13 @@
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="34"/>
       <c r="B98" s="38" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C98" s="39">
         <v>6.4601522422795501</v>
       </c>
       <c r="D98" s="39" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E98" s="39">
         <v>49.771318929123197</v>
@@ -4899,7 +4929,7 @@
     <row r="99" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="34"/>
       <c r="B99" s="41" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="C99" s="42">
         <v>5.2598388681443096</v>
@@ -4948,7 +4978,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="47" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="49"/>
@@ -4964,7 +4994,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="47" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="49"/>
@@ -4980,7 +5010,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="47" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="49"/>
@@ -4996,7 +5026,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="47" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B104" s="48"/>
       <c r="C104" s="49"/>
@@ -5012,7 +5042,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" s="47" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="49"/>
@@ -5054,7 +5084,7 @@
     </row>
     <row r="108" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="50" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C108" s="49"/>
       <c r="D108" s="49"/>
@@ -5082,7 +5112,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C110" s="49"/>
       <c r="D110" s="49"/>
@@ -5097,7 +5127,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="C111" s="49"/>
       <c r="D111" s="49"/>
@@ -5125,7 +5155,7 @@
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C113" s="49"/>
       <c r="D113" s="49"/>
@@ -5140,7 +5170,7 @@
     </row>
     <row r="114" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C114" s="49"/>
       <c r="D114" s="49"/>

--- a/DDAf_2022_Tableau_annexe_Tab21.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab21.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab21" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="180">
   <si>
     <t>Tableau 21 : Commerce international et régional</t>
   </si>
@@ -51,6 +51,24 @@
     <t>Exportations vers les États-Unis, en % du total des exportations, 2020</t>
   </si>
   <si>
+    <t>Importations provenant des pays de la même CER, en % du total des importations, 2020</t>
+  </si>
+  <si>
+    <t>Importations provenant des pays de la même région de la CUA, en % du total des importations, 2020</t>
+  </si>
+  <si>
+    <t>Importations provenant des pays du même continent, en % du total des importations, 2020</t>
+  </si>
+  <si>
+    <t>Importations provenant de la Chine, en % du total des importations, 2020</t>
+  </si>
+  <si>
+    <t>Importations provenant des pays de l'UE, en % du total des importations, 2020</t>
+  </si>
+  <si>
+    <t>Importations provenant des États-Unis, en % du total des importations, 2020</t>
+  </si>
+  <si>
     <t>Commerce intra-continental de biens intermédiaires (millions de dollars US), 2020</t>
   </si>
   <si>
@@ -531,7 +549,7 @@
     <t>Source : Calculs de l'auteur basés sur la BACI (Base de données sur le commerce international) rapportée au niveau des produits par CEPII (mise à jour le 21 avril 2022).</t>
   </si>
   <si>
-    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr.</t>
+    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
   </si>
   <si>
     <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
@@ -1288,7 +1306,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L115"/>
+  <dimension ref="A1:R115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1297,10 +1315,12 @@
     <col min="1" max="1" width="5.453125" style="47" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.26953125" style="51" customWidth="1"/>
-    <col min="4" max="12" width="13.26953125" customWidth="1"/>
+    <col min="4" max="8" width="13.26953125" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" style="51" customWidth="1"/>
+    <col min="10" max="18" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1311,12 +1331,18 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="4"/>
+    </row>
+    <row r="2" spans="1:18" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1350,16 +1376,34 @@
       <c r="K2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C3" s="12">
         <v>0.51215017004456997</v>
@@ -1380,24 +1424,42 @@
         <v>2.0607690227897102</v>
       </c>
       <c r="I3" s="12">
-        <v>0.175943982</v>
+        <v>6.2644212253868297</v>
       </c>
       <c r="J3" s="12">
-        <v>3.1666077760000002</v>
+        <v>5.3048841613625397</v>
       </c>
       <c r="K3" s="12">
+        <v>6.7981258205112898</v>
+      </c>
+      <c r="L3" s="12">
+        <v>23.789616995173901</v>
+      </c>
+      <c r="M3" s="12">
+        <v>29.1567219241035</v>
+      </c>
+      <c r="N3" s="13">
+        <v>6.1721131261418201</v>
+      </c>
+      <c r="O3" s="12">
+        <v>175.94398200000001</v>
+      </c>
+      <c r="P3" s="12">
+        <v>3166.6077759999998</v>
+      </c>
+      <c r="Q3" s="12">
         <v>5.2637623809085099</v>
       </c>
-      <c r="L3" s="13">
+      <c r="R3" s="13">
         <v>36.0568931630187</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C4" s="15">
         <v>15.9387030835291</v>
@@ -1418,24 +1480,42 @@
         <v>3.83410888758192</v>
       </c>
       <c r="I4" s="15">
-        <v>1.909170429</v>
+        <v>65.832909970102307</v>
       </c>
       <c r="J4" s="15">
-        <v>1.4804274669999999</v>
+        <v>65.769098566669001</v>
       </c>
       <c r="K4" s="15">
+        <v>66.0783891933917</v>
+      </c>
+      <c r="L4" s="15">
+        <v>3.0248823853960198</v>
+      </c>
+      <c r="M4" s="15">
+        <v>11.3881151314769</v>
+      </c>
+      <c r="N4" s="16">
+        <v>0.70862002057267004</v>
+      </c>
+      <c r="O4" s="15">
+        <v>1909.170429</v>
+      </c>
+      <c r="P4" s="15">
+        <v>1480.427467</v>
+      </c>
+      <c r="Q4" s="15">
         <v>56.324392673625901</v>
       </c>
-      <c r="L4" s="16">
+      <c r="R4" s="16">
         <v>31.355843828163401</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C5" s="19">
         <v>78.235416844040202</v>
@@ -1456,24 +1536,42 @@
         <v>1.3499839609761299</v>
       </c>
       <c r="I5" s="19">
-        <v>0.62951598799999997</v>
+        <v>74.019755070949302</v>
       </c>
       <c r="J5" s="19">
-        <v>0.20414128500000001</v>
+        <v>72.623114443770007</v>
       </c>
       <c r="K5" s="19">
+        <v>74.494141223927102</v>
+      </c>
+      <c r="L5" s="19">
+        <v>7.4206939621349699</v>
+      </c>
+      <c r="M5" s="19">
+        <v>3.3967480826140202</v>
+      </c>
+      <c r="N5" s="20">
+        <v>1.9906786054102299</v>
+      </c>
+      <c r="O5" s="19">
+        <v>629.51598799999999</v>
+      </c>
+      <c r="P5" s="19">
+        <v>204.14128500000001</v>
+      </c>
+      <c r="Q5" s="19">
         <v>75.512564741937993</v>
       </c>
-      <c r="L5" s="20">
+      <c r="R5" s="20">
         <v>45.022187525339199</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C6" s="19">
         <v>29.286599747552099</v>
@@ -1494,24 +1592,42 @@
         <v>30.675975856721799</v>
       </c>
       <c r="I6" s="19">
-        <v>0.481248395</v>
+        <v>72.697675665449495</v>
       </c>
       <c r="J6" s="19">
-        <v>0.228604691</v>
+        <v>72.598524357800102</v>
       </c>
       <c r="K6" s="19">
+        <v>72.746417266036303</v>
+      </c>
+      <c r="L6" s="19">
+        <v>8.4215161726075891</v>
+      </c>
+      <c r="M6" s="19">
+        <v>4.7183643268523197</v>
+      </c>
+      <c r="N6" s="20">
+        <v>0.25975543655168998</v>
+      </c>
+      <c r="O6" s="19">
+        <v>481.24839500000002</v>
+      </c>
+      <c r="P6" s="19">
+        <v>228.604691</v>
+      </c>
+      <c r="Q6" s="19">
         <v>67.7954924041846</v>
       </c>
-      <c r="L6" s="20">
+      <c r="R6" s="20">
         <v>40.6819537823215</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C7" s="19">
         <v>29.266041829718699</v>
@@ -1532,24 +1648,42 @@
         <v>4.4970914744211203</v>
       </c>
       <c r="I7" s="19">
-        <v>0.62635143800000004</v>
+        <v>37.087526115758401</v>
       </c>
       <c r="J7" s="19">
-        <v>0.79511373200000002</v>
+        <v>32.933517202174698</v>
       </c>
       <c r="K7" s="19">
+        <v>37.102497933703901</v>
+      </c>
+      <c r="L7" s="19">
+        <v>15.5470442312257</v>
+      </c>
+      <c r="M7" s="19">
+        <v>7.5250975186986704</v>
+      </c>
+      <c r="N7" s="20">
+        <v>1.0564908351282301</v>
+      </c>
+      <c r="O7" s="19">
+        <v>626.35143799999901</v>
+      </c>
+      <c r="P7" s="19">
+        <v>795.11373200000003</v>
+      </c>
+      <c r="Q7" s="19">
         <v>44.063790743462199</v>
       </c>
-      <c r="L7" s="20">
+      <c r="R7" s="20">
         <v>8.3852565753479702</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C8" s="19">
         <v>20.332508803285201</v>
@@ -1570,24 +1704,42 @@
         <v>2.28687639182264</v>
       </c>
       <c r="I8" s="19">
-        <v>3.3144142759999999</v>
+        <v>39.429454091806498</v>
       </c>
       <c r="J8" s="19">
-        <v>3.1371780669999998</v>
+        <v>32.738995079561299</v>
       </c>
       <c r="K8" s="19">
+        <v>40.222944881591999</v>
+      </c>
+      <c r="L8" s="19">
+        <v>14.549792081722099</v>
+      </c>
+      <c r="M8" s="19">
+        <v>7.2776953543674701</v>
+      </c>
+      <c r="N8" s="20">
+        <v>1.53218768374938</v>
+      </c>
+      <c r="O8" s="19">
+        <v>3314.414276</v>
+      </c>
+      <c r="P8" s="19">
+        <v>3137.1780669999998</v>
+      </c>
+      <c r="Q8" s="19">
         <v>51.373584997138799</v>
       </c>
-      <c r="L8" s="20">
+      <c r="R8" s="20">
         <v>31.149051739795802</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C9" s="19">
         <v>34.658720430312897</v>
@@ -1608,24 +1760,42 @@
         <v>1.3002650435807901</v>
       </c>
       <c r="I9" s="19">
-        <v>2.9589332320000001</v>
+        <v>68.057405123495798</v>
       </c>
       <c r="J9" s="19">
-        <v>1.055843506</v>
+        <v>62.3020058662213</v>
       </c>
       <c r="K9" s="19">
+        <v>70.362440622297001</v>
+      </c>
+      <c r="L9" s="19">
+        <v>4.7827819959183104</v>
+      </c>
+      <c r="M9" s="19">
+        <v>9.6282259375949408</v>
+      </c>
+      <c r="N9" s="20">
+        <v>2.0090083859838699</v>
+      </c>
+      <c r="O9" s="19">
+        <v>2958.9332319999999</v>
+      </c>
+      <c r="P9" s="19">
+        <v>1055.8435059999999</v>
+      </c>
+      <c r="Q9" s="19">
         <v>73.701065466320799</v>
       </c>
-      <c r="L9" s="20">
+      <c r="R9" s="20">
         <v>33.453141205440602</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C10" s="19">
         <v>17.574897626448799</v>
@@ -1646,24 +1816,42 @@
         <v>10.014348430139799</v>
       </c>
       <c r="I10" s="19">
-        <v>7.93334830800001</v>
+        <v>8.6593545842835802</v>
       </c>
       <c r="J10" s="19">
-        <v>31.220782187000001</v>
+        <v>6.7436008488885397</v>
       </c>
       <c r="K10" s="19">
+        <v>12.980780867323899</v>
+      </c>
+      <c r="L10" s="19">
+        <v>20.732300313675101</v>
+      </c>
+      <c r="M10" s="19">
+        <v>26.587824554328499</v>
+      </c>
+      <c r="N10" s="20">
+        <v>5.8970533692184999</v>
+      </c>
+      <c r="O10" s="19">
+        <v>7933.3483079999996</v>
+      </c>
+      <c r="P10" s="19">
+        <v>31220.782187000001</v>
+      </c>
+      <c r="Q10" s="19">
         <v>20.2618426401094</v>
       </c>
-      <c r="L10" s="20">
+      <c r="R10" s="20">
         <v>27.778032357828899</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C11" s="15">
         <v>29.693960964316101</v>
@@ -1684,24 +1872,42 @@
         <v>0.39648227281095</v>
       </c>
       <c r="I11" s="15">
-        <v>1.8022490739999999</v>
+        <v>49.857074688120299</v>
       </c>
       <c r="J11" s="15">
-        <v>1.63793492</v>
+        <v>37.878969726967</v>
       </c>
       <c r="K11" s="15">
+        <v>50.1705390958425</v>
+      </c>
+      <c r="L11" s="15">
+        <v>15.8099606365897</v>
+      </c>
+      <c r="M11" s="15">
+        <v>7.0168341833876298</v>
+      </c>
+      <c r="N11" s="16">
+        <v>1.8871565475627801</v>
+      </c>
+      <c r="O11" s="15">
+        <v>1802.2490740000001</v>
+      </c>
+      <c r="P11" s="15">
+        <v>1637.9349199999999</v>
+      </c>
+      <c r="Q11" s="15">
         <v>52.388159387500501</v>
       </c>
-      <c r="L11" s="16">
+      <c r="R11" s="16">
         <v>47.256634068233801</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C12" s="22">
         <v>36.354441896880601</v>
@@ -1722,24 +1928,42 @@
         <v>0.86189451705888998</v>
       </c>
       <c r="I12" s="22">
-        <v>1.8869027199999999</v>
+        <v>56.689418630392197</v>
       </c>
       <c r="J12" s="22">
-        <v>0.81871480600000002</v>
+        <v>52.538130156968101</v>
       </c>
       <c r="K12" s="22">
+        <v>56.747793122787797</v>
+      </c>
+      <c r="L12" s="22">
+        <v>10.8540120297705</v>
+      </c>
+      <c r="M12" s="22">
+        <v>4.9096457398734596</v>
+      </c>
+      <c r="N12" s="23">
+        <v>1.15696649004421</v>
+      </c>
+      <c r="O12" s="22">
+        <v>1886.90272</v>
+      </c>
+      <c r="P12" s="22">
+        <v>818.71480599999904</v>
+      </c>
+      <c r="Q12" s="22">
         <v>69.740186921009794</v>
       </c>
-      <c r="L12" s="23">
+      <c r="R12" s="23">
         <v>22.739579708657999</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="24" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C13" s="26">
         <v>18.260800071717799</v>
@@ -1760,24 +1984,42 @@
         <v>7.2530643531703198</v>
       </c>
       <c r="I13" s="26">
-        <v>21.718077842</v>
+        <v>23.980502071135</v>
       </c>
       <c r="J13" s="26">
-        <v>43.745348436999997</v>
+        <v>20.962563753239401</v>
       </c>
       <c r="K13" s="26">
+        <v>26.843819636822001</v>
+      </c>
+      <c r="L13" s="26">
+        <v>17.438094015512501</v>
+      </c>
+      <c r="M13" s="26">
+        <v>20.3560827157762</v>
+      </c>
+      <c r="N13" s="27">
+        <v>4.4013832417468697</v>
+      </c>
+      <c r="O13" s="26">
+        <v>21718.077841999999</v>
+      </c>
+      <c r="P13" s="26">
+        <v>43745.348437000001</v>
+      </c>
+      <c r="Q13" s="26">
         <v>33.1758954220319</v>
       </c>
-      <c r="L13" s="27">
+      <c r="R13" s="27">
         <v>30.0875666786316</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C14" s="19">
         <v>38.783204551661498</v>
@@ -1798,24 +2040,42 @@
         <v>2.0365523528791201</v>
       </c>
       <c r="I14" s="19">
-        <v>0.184632147</v>
+        <v>29.475977846995999</v>
       </c>
       <c r="J14" s="19">
-        <v>0.255531552</v>
+        <v>1.10596617841036</v>
       </c>
       <c r="K14" s="19">
+        <v>31.423331337896599</v>
+      </c>
+      <c r="L14" s="19">
+        <v>16.0991763071751</v>
+      </c>
+      <c r="M14" s="19">
+        <v>13.202734037474499</v>
+      </c>
+      <c r="N14" s="20">
+        <v>1.3064348665504799</v>
+      </c>
+      <c r="O14" s="19">
+        <v>184.632147</v>
+      </c>
+      <c r="P14" s="19">
+        <v>255.531552</v>
+      </c>
+      <c r="Q14" s="19">
         <v>41.946245776165199</v>
       </c>
-      <c r="L14" s="20">
+      <c r="R14" s="20">
         <v>8.7989881967972003</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C15" s="19">
         <v>0.58708172122774005</v>
@@ -1836,24 +2096,42 @@
         <v>10.9012526128807</v>
       </c>
       <c r="I15" s="19">
-        <v>1.0502828660000001</v>
+        <v>0.36435658796392001</v>
       </c>
       <c r="J15" s="19">
-        <v>2.5340657050000002</v>
+        <v>0.36435658796392001</v>
       </c>
       <c r="K15" s="19">
+        <v>21.382498154997101</v>
+      </c>
+      <c r="L15" s="19">
+        <v>30.034441168612201</v>
+      </c>
+      <c r="M15" s="19">
+        <v>22.520875583406699</v>
+      </c>
+      <c r="N15" s="20">
+        <v>2.8190681463912601</v>
+      </c>
+      <c r="O15" s="19">
+        <v>1050.282866</v>
+      </c>
+      <c r="P15" s="19">
+        <v>2534.065705</v>
+      </c>
+      <c r="Q15" s="19">
         <v>29.3019176342825</v>
       </c>
-      <c r="L15" s="20">
+      <c r="R15" s="20">
         <v>14.958799764790299</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C16" s="19">
         <v>4.3607568731212298</v>
@@ -1874,24 +2152,42 @@
         <v>0.69588585147254001</v>
       </c>
       <c r="I16" s="19">
-        <v>1.2595149999999999E-2</v>
+        <v>18.690315082880801</v>
       </c>
       <c r="J16" s="19">
-        <v>7.6850010999999996E-2</v>
+        <v>15.22398932638</v>
       </c>
       <c r="K16" s="19">
+        <v>21.526725640584001</v>
+      </c>
+      <c r="L16" s="19">
+        <v>9.5877082824685207</v>
+      </c>
+      <c r="M16" s="19">
+        <v>39.06700156598</v>
+      </c>
+      <c r="N16" s="20">
+        <v>7.13677025447305</v>
+      </c>
+      <c r="O16" s="19">
+        <v>12.59515</v>
+      </c>
+      <c r="P16" s="19">
+        <v>76.850011000000094</v>
+      </c>
+      <c r="Q16" s="19">
         <v>14.0814213526878</v>
       </c>
-      <c r="L16" s="20">
+      <c r="R16" s="20">
         <v>13.958642229302701</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C17" s="12">
         <v>0.32313826532313</v>
@@ -1912,24 +2208,42 @@
         <v>0.22476482236681999</v>
       </c>
       <c r="I17" s="12">
-        <v>4.0335226000000002E-2</v>
+        <v>6.8738057578311897</v>
       </c>
       <c r="J17" s="12">
-        <v>0.32888945200000003</v>
+        <v>2.3766003966989999E-2</v>
       </c>
       <c r="K17" s="12">
+        <v>7.3449304934474204</v>
+      </c>
+      <c r="L17" s="12">
+        <v>29.436457605352899</v>
+      </c>
+      <c r="M17" s="12">
+        <v>22.512600577539299</v>
+      </c>
+      <c r="N17" s="13">
+        <v>4.3395059220186898</v>
+      </c>
+      <c r="O17" s="12">
+        <v>40.335225999999999</v>
+      </c>
+      <c r="P17" s="12">
+        <v>328.88945200000001</v>
+      </c>
+      <c r="Q17" s="12">
         <v>10.9243039274856</v>
       </c>
-      <c r="L17" s="13">
+      <c r="R17" s="13">
         <v>27.322427893802899</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C18" s="12">
         <v>4.4627158334260697</v>
@@ -1950,24 +2264,42 @@
         <v>1.6872932864714301</v>
       </c>
       <c r="I18" s="12">
-        <v>0.13834977300000001</v>
+        <v>3.2534235058307899</v>
       </c>
       <c r="J18" s="12">
-        <v>1.006354513</v>
+        <v>2.1998024919604902</v>
       </c>
       <c r="K18" s="12">
+        <v>14.311916412694501</v>
+      </c>
+      <c r="L18" s="12">
+        <v>21.621792823779</v>
+      </c>
+      <c r="M18" s="12">
+        <v>27.5282289035468</v>
+      </c>
+      <c r="N18" s="13">
+        <v>5.2838035942187602</v>
+      </c>
+      <c r="O18" s="12">
+        <v>138.349773</v>
+      </c>
+      <c r="P18" s="12">
+        <v>1006.354513</v>
+      </c>
+      <c r="Q18" s="12">
         <v>12.0860710221889</v>
       </c>
-      <c r="L18" s="13">
+      <c r="R18" s="13">
         <v>54.927443023845498</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C19" s="15">
         <v>23.037147836206302</v>
@@ -1988,24 +2320,42 @@
         <v>0.16051086788669</v>
       </c>
       <c r="I19" s="15">
-        <v>1.6029716389999999</v>
+        <v>28.039462276378501</v>
       </c>
       <c r="J19" s="15">
-        <v>3.6356570609999999</v>
+        <v>0.41165539745899998</v>
       </c>
       <c r="K19" s="15">
+        <v>29.064582584175401</v>
+      </c>
+      <c r="L19" s="15">
+        <v>24.235524277276301</v>
+      </c>
+      <c r="M19" s="15">
+        <v>12.6943881882795</v>
+      </c>
+      <c r="N19" s="16">
+        <v>15.658190122718199</v>
+      </c>
+      <c r="O19" s="15">
+        <v>1602.9716390000001</v>
+      </c>
+      <c r="P19" s="15">
+        <v>3635.6570609999999</v>
+      </c>
+      <c r="Q19" s="15">
         <v>30.599069542760301</v>
       </c>
-      <c r="L19" s="16">
+      <c r="R19" s="16">
         <v>28.604587447723802</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C20" s="12">
         <v>5.2875616512760001E-2</v>
@@ -2026,24 +2376,42 @@
         <v>4.3143375588180799</v>
       </c>
       <c r="I20" s="12">
-        <v>0.26995356700000001</v>
+        <v>0.94668762666603001</v>
       </c>
       <c r="J20" s="12">
-        <v>0.36993280699999997</v>
+        <v>0.94668762666603001</v>
       </c>
       <c r="K20" s="12">
+        <v>33.905363097132302</v>
+      </c>
+      <c r="L20" s="12">
+        <v>10.1481677080947</v>
+      </c>
+      <c r="M20" s="12">
+        <v>28.96881229772</v>
+      </c>
+      <c r="N20" s="13">
+        <v>7.8898466695302103</v>
+      </c>
+      <c r="O20" s="12">
+        <v>269.95356700000002</v>
+      </c>
+      <c r="P20" s="12">
+        <v>369.93280700000003</v>
+      </c>
+      <c r="Q20" s="12">
         <v>42.187734880568001</v>
       </c>
-      <c r="L20" s="13">
+      <c r="R20" s="13">
         <v>36.0270954016895</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C21" s="12">
         <v>0.41214972367329</v>
@@ -2064,30 +2432,48 @@
         <v>1.65319017979803</v>
       </c>
       <c r="I21" s="12">
-        <v>6.0810204E-2</v>
+        <v>10.2829493212716</v>
       </c>
       <c r="J21" s="12">
-        <v>0.72900693999999999</v>
+        <v>10.2829493212716</v>
       </c>
       <c r="K21" s="12">
+        <v>15.297486428452</v>
+      </c>
+      <c r="L21" s="12">
+        <v>18.804213882693599</v>
+      </c>
+      <c r="M21" s="12">
+        <v>34.065937026713101</v>
+      </c>
+      <c r="N21" s="13">
+        <v>4.0533306259149899</v>
+      </c>
+      <c r="O21" s="12">
+        <v>60.810203999999999</v>
+      </c>
+      <c r="P21" s="12">
+        <v>729.00693999999999</v>
+      </c>
+      <c r="Q21" s="12">
         <v>7.6992762770416698</v>
       </c>
-      <c r="L21" s="13">
+      <c r="R21" s="13">
         <v>34.603495429430403</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="17" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E22" s="19">
         <v>2.4906152025544301</v>
@@ -2102,24 +2488,42 @@
         <v>2.69082840670767</v>
       </c>
       <c r="I22" s="19">
-        <v>2.21179E-4</v>
+        <v>1.2077358531884701</v>
       </c>
       <c r="J22" s="19">
-        <v>3.8620278000000001E-2</v>
+        <v>1.2077358531884701</v>
       </c>
       <c r="K22" s="19">
+        <v>2.07333465896484</v>
+      </c>
+      <c r="L22" s="19">
+        <v>18.521825082373901</v>
+      </c>
+      <c r="M22" s="19">
+        <v>63.459363197478801</v>
+      </c>
+      <c r="N22" s="20">
+        <v>0.65044051290752003</v>
+      </c>
+      <c r="O22" s="19">
+        <v>0.22117899999999999</v>
+      </c>
+      <c r="P22" s="19">
+        <v>38.620277999999999</v>
+      </c>
+      <c r="Q22" s="19">
         <v>0.56944053360305003</v>
       </c>
-      <c r="L22" s="20">
+      <c r="R22" s="20">
         <v>10.335632446845301</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C23" s="26">
         <v>12.339223860354</v>
@@ -2140,24 +2544,42 @@
         <v>1.93329385753429</v>
       </c>
       <c r="I23" s="26">
-        <v>3.3601517510000001</v>
+        <v>13.3605730640642</v>
       </c>
       <c r="J23" s="26">
-        <v>8.9749083190000007</v>
+        <v>1.7325765492245799</v>
       </c>
       <c r="K23" s="26">
+        <v>23.145818540236</v>
+      </c>
+      <c r="L23" s="26">
+        <v>24.061849780817699</v>
+      </c>
+      <c r="M23" s="26">
+        <v>20.9240323022848</v>
+      </c>
+      <c r="N23" s="27">
+        <v>8.2127910354620006</v>
+      </c>
+      <c r="O23" s="26">
+        <v>3360.1517509999999</v>
+      </c>
+      <c r="P23" s="26">
+        <v>8974.9083190000001</v>
+      </c>
+      <c r="Q23" s="26">
         <v>27.2406598097743</v>
       </c>
-      <c r="L23" s="27">
+      <c r="R23" s="27">
         <v>26.166827740494899</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C24" s="19">
         <v>5.46884015532481</v>
@@ -2178,24 +2600,42 @@
         <v>5.41048217132695</v>
       </c>
       <c r="I24" s="19">
-        <v>1.3226241999999999E-2</v>
+        <v>10.002588949850001</v>
       </c>
       <c r="J24" s="19">
-        <v>0.10583248200000001</v>
+        <v>6.07575785583421</v>
       </c>
       <c r="K24" s="19">
+        <v>10.049584055522899</v>
+      </c>
+      <c r="L24" s="19">
+        <v>15.215730638467299</v>
+      </c>
+      <c r="M24" s="19">
+        <v>22.639556197487199</v>
+      </c>
+      <c r="N24" s="20">
+        <v>0.68883636652839997</v>
+      </c>
+      <c r="O24" s="19">
+        <v>13.226241999999999</v>
+      </c>
+      <c r="P24" s="19">
+        <v>105.832482</v>
+      </c>
+      <c r="Q24" s="19">
         <v>11.109007014051301</v>
       </c>
-      <c r="L24" s="20">
+      <c r="R24" s="20">
         <v>7.4003682272070499</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C25" s="19">
         <v>34.710224997646499</v>
@@ -2216,24 +2656,42 @@
         <v>1.32222675495026</v>
       </c>
       <c r="I25" s="19">
-        <v>0.33542328799999999</v>
+        <v>7.8081405935725403</v>
       </c>
       <c r="J25" s="19">
-        <v>2.1411927710000001</v>
+        <v>2.1637816923517099</v>
       </c>
       <c r="K25" s="19">
+        <v>8.6028571426268403</v>
+      </c>
+      <c r="L25" s="19">
+        <v>42.967399835126798</v>
+      </c>
+      <c r="M25" s="19">
+        <v>4.0646415072609097</v>
+      </c>
+      <c r="N25" s="20">
+        <v>3.1174675984614701</v>
+      </c>
+      <c r="O25" s="19">
+        <v>335.42328800000001</v>
+      </c>
+      <c r="P25" s="19">
+        <v>2141.192771</v>
+      </c>
+      <c r="Q25" s="19">
         <v>13.543612736462499</v>
       </c>
-      <c r="L25" s="20">
+      <c r="R25" s="20">
         <v>108.347128599491</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C26" s="19">
         <v>0.10457585451414</v>
@@ -2254,24 +2712,42 @@
         <v>4.5710291164840003E-2</v>
       </c>
       <c r="I26" s="19">
-        <v>6.2706827000000007E-2</v>
+        <v>22.066134414458801</v>
       </c>
       <c r="J26" s="19">
-        <v>0.116962344</v>
+        <v>0.21942405707998999</v>
       </c>
       <c r="K26" s="19">
+        <v>24.865785158783599</v>
+      </c>
+      <c r="L26" s="19">
+        <v>19.5083343565076</v>
+      </c>
+      <c r="M26" s="19">
+        <v>15.788138248281401</v>
+      </c>
+      <c r="N26" s="20">
+        <v>4.9806089469882204</v>
+      </c>
+      <c r="O26" s="19">
+        <v>62.706826999999997</v>
+      </c>
+      <c r="P26" s="19">
+        <v>116.962344</v>
+      </c>
+      <c r="Q26" s="19">
         <v>34.901272517142097</v>
       </c>
-      <c r="L26" s="20">
+      <c r="R26" s="20">
         <v>28.3725767707963</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C27" s="19">
         <v>14.4926797450583</v>
@@ -2292,24 +2768,42 @@
         <v>11.357697381862801</v>
       </c>
       <c r="I27" s="19">
-        <v>0.52555041499999999</v>
+        <v>3.1006679352742599</v>
       </c>
       <c r="J27" s="19">
-        <v>4.8874141089999998</v>
+        <v>1.74426671074005</v>
       </c>
       <c r="K27" s="19">
+        <v>6.80824039769956</v>
+      </c>
+      <c r="L27" s="19">
+        <v>24.794376969296799</v>
+      </c>
+      <c r="M27" s="19">
+        <v>16.847514539999899</v>
+      </c>
+      <c r="N27" s="20">
+        <v>5.0090275564606301</v>
+      </c>
+      <c r="O27" s="19">
+        <v>525.55041500000004</v>
+      </c>
+      <c r="P27" s="19">
+        <v>4887.4141090000003</v>
+      </c>
+      <c r="Q27" s="19">
         <v>9.7091051062650706</v>
       </c>
-      <c r="L27" s="20">
+      <c r="R27" s="20">
         <v>7.9432879251149497</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C28" s="19">
         <v>36.597625858033901</v>
@@ -2330,24 +2824,42 @@
         <v>7.5788499048301299</v>
       </c>
       <c r="I28" s="19">
-        <v>1.3788717610000001</v>
+        <v>8.0658907975071497</v>
       </c>
       <c r="J28" s="19">
-        <v>7.8449728380000101</v>
+        <v>4.0742023951841002</v>
       </c>
       <c r="K28" s="19">
+        <v>11.1507577397013</v>
+      </c>
+      <c r="L28" s="19">
+        <v>26.6368402670896</v>
+      </c>
+      <c r="M28" s="19">
+        <v>11.914402663351201</v>
+      </c>
+      <c r="N28" s="20">
+        <v>2.22947610620492</v>
+      </c>
+      <c r="O28" s="19">
+        <v>1378.8717610000001</v>
+      </c>
+      <c r="P28" s="19">
+        <v>7844.9728380000097</v>
+      </c>
+      <c r="Q28" s="19">
         <v>14.948991672620901</v>
       </c>
-      <c r="L28" s="20">
+      <c r="R28" s="20">
         <v>9.6526740474695494</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C29" s="19">
         <v>5.5976674914550202</v>
@@ -2368,24 +2880,42 @@
         <v>20.355067423499602</v>
       </c>
       <c r="I29" s="19">
-        <v>0.24421860500000001</v>
+        <v>11.5723438257907</v>
       </c>
       <c r="J29" s="19">
-        <v>1.5556679950000001</v>
+        <v>3.6708263626867601</v>
       </c>
       <c r="K29" s="19">
+        <v>11.953302569599</v>
+      </c>
+      <c r="L29" s="19">
+        <v>28.676793182269801</v>
+      </c>
+      <c r="M29" s="19">
+        <v>19.407416428498301</v>
+      </c>
+      <c r="N29" s="20">
+        <v>1.80817744730625</v>
+      </c>
+      <c r="O29" s="19">
+        <v>244.218605</v>
+      </c>
+      <c r="P29" s="19">
+        <v>1555.667995</v>
+      </c>
+      <c r="Q29" s="19">
         <v>13.5685550967489</v>
       </c>
-      <c r="L29" s="20">
+      <c r="R29" s="20">
         <v>19.687925704304501</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C30" s="19">
         <v>33.166457177935399</v>
@@ -2406,24 +2936,42 @@
         <v>9.0442698975650107</v>
       </c>
       <c r="I30" s="19">
-        <v>0.200094939</v>
+        <v>10.616670214739001</v>
       </c>
       <c r="J30" s="19">
-        <v>1.4658018269999999</v>
+        <v>2.17643003076667</v>
       </c>
       <c r="K30" s="19">
+        <v>11.059258101882</v>
+      </c>
+      <c r="L30" s="19">
+        <v>17.769020478080801</v>
+      </c>
+      <c r="M30" s="19">
+        <v>21.619488324688302</v>
+      </c>
+      <c r="N30" s="20">
+        <v>1.6776900197629101</v>
+      </c>
+      <c r="O30" s="19">
+        <v>200.09493900000001</v>
+      </c>
+      <c r="P30" s="19">
+        <v>1465.801827</v>
+      </c>
+      <c r="Q30" s="19">
         <v>12.0112448192363</v>
       </c>
-      <c r="L30" s="20">
+      <c r="R30" s="20">
         <v>28.281043379663199</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C31" s="19">
         <v>3.7232806517086101</v>
@@ -2444,24 +2992,42 @@
         <v>3.5027158561978502</v>
       </c>
       <c r="I31" s="19">
-        <v>0.265454093</v>
+        <v>22.5094386286152</v>
       </c>
       <c r="J31" s="19">
-        <v>0.360957531</v>
+        <v>17.755034424542199</v>
       </c>
       <c r="K31" s="19">
+        <v>28.806865836411198</v>
+      </c>
+      <c r="L31" s="19">
+        <v>20.810705368461701</v>
+      </c>
+      <c r="M31" s="19">
+        <v>17.898961894575901</v>
+      </c>
+      <c r="N31" s="20">
+        <v>1.8191256168290999</v>
+      </c>
+      <c r="O31" s="19">
+        <v>265.454093</v>
+      </c>
+      <c r="P31" s="19">
+        <v>360.95753100000002</v>
+      </c>
+      <c r="Q31" s="19">
         <v>42.3769423857307</v>
       </c>
-      <c r="L31" s="20">
+      <c r="R31" s="20">
         <v>18.673437233136202</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C32" s="19">
         <v>12.445877612778601</v>
@@ -2482,24 +3048,42 @@
         <v>0.87091567128318004</v>
       </c>
       <c r="I32" s="19">
-        <v>4.3839666999999999E-2</v>
+        <v>6.2657185264788797</v>
       </c>
       <c r="J32" s="19">
-        <v>0.23230936799999999</v>
+        <v>2.2680547378178302</v>
       </c>
       <c r="K32" s="19">
+        <v>6.4689934603232899</v>
+      </c>
+      <c r="L32" s="19">
+        <v>3.5704007118199699</v>
+      </c>
+      <c r="M32" s="19">
+        <v>26.9449589233636</v>
+      </c>
+      <c r="N32" s="20">
+        <v>1.2608926341151701</v>
+      </c>
+      <c r="O32" s="19">
+        <v>43.839666999999999</v>
+      </c>
+      <c r="P32" s="19">
+        <v>232.30936800000001</v>
+      </c>
+      <c r="Q32" s="19">
         <v>15.8753649093867</v>
       </c>
-      <c r="L32" s="20">
+      <c r="R32" s="20">
         <v>85.216242015990701</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C33" s="19">
         <v>3.8234521979235399</v>
@@ -2520,24 +3104,42 @@
         <v>0.17674091793916999</v>
       </c>
       <c r="I33" s="19">
-        <v>6.9867376999999994E-2</v>
+        <v>12.718236430364399</v>
       </c>
       <c r="J33" s="19">
-        <v>1.1656125959999999</v>
+        <v>9.5847496681355793</v>
       </c>
       <c r="K33" s="19">
+        <v>12.999849001962801</v>
+      </c>
+      <c r="L33" s="19">
+        <v>21.273913222764001</v>
+      </c>
+      <c r="M33" s="19">
+        <v>3.6126485252066902</v>
+      </c>
+      <c r="N33" s="20">
+        <v>1.34389306556201</v>
+      </c>
+      <c r="O33" s="19">
+        <v>69.867377000000005</v>
+      </c>
+      <c r="P33" s="19">
+        <v>1165.6125959999999</v>
+      </c>
+      <c r="Q33" s="19">
         <v>5.6550796878032399</v>
       </c>
-      <c r="L33" s="20">
+      <c r="R33" s="20">
         <v>13.930491176745999</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C34" s="15">
         <v>10.2459916961656</v>
@@ -2558,24 +3160,42 @@
         <v>1.3167618312350001E-2</v>
       </c>
       <c r="I34" s="15">
-        <v>0.28432502399999998</v>
+        <v>52.900248369095301</v>
       </c>
       <c r="J34" s="15">
-        <v>0.176201845</v>
+        <v>52.900248369095301</v>
       </c>
       <c r="K34" s="15">
+        <v>53.220104849775801</v>
+      </c>
+      <c r="L34" s="15">
+        <v>14.216962498423699</v>
+      </c>
+      <c r="M34" s="15">
+        <v>4.3331606531296201</v>
+      </c>
+      <c r="N34" s="16">
+        <v>3.5505627188709199</v>
+      </c>
+      <c r="O34" s="15">
+        <v>284.32502399999998</v>
+      </c>
+      <c r="P34" s="15">
+        <v>176.20184499999999</v>
+      </c>
+      <c r="Q34" s="15">
         <v>61.739073904067901</v>
       </c>
-      <c r="L34" s="16">
+      <c r="R34" s="16">
         <v>49.347550908849001</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C35" s="19">
         <v>4.8437754023195501</v>
@@ -2596,24 +3216,42 @@
         <v>2.12558647635653</v>
       </c>
       <c r="I35" s="19">
-        <v>0.42820265299999999</v>
+        <v>7.2285606286772301</v>
       </c>
       <c r="J35" s="19">
-        <v>3.3543016529999998</v>
+        <v>1.50580666610029</v>
       </c>
       <c r="K35" s="19">
+        <v>7.3965813548310901</v>
+      </c>
+      <c r="L35" s="19">
+        <v>29.276903064659201</v>
+      </c>
+      <c r="M35" s="19">
+        <v>10.241124319859599</v>
+      </c>
+      <c r="N35" s="20">
+        <v>0.77978113201407995</v>
+      </c>
+      <c r="O35" s="19">
+        <v>428.202653</v>
+      </c>
+      <c r="P35" s="19">
+        <v>3354.301653</v>
+      </c>
+      <c r="Q35" s="19">
         <v>11.3206124397734</v>
       </c>
-      <c r="L35" s="20">
+      <c r="R35" s="20">
         <v>14.791953038597899</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C36" s="19">
         <v>21.998400077872802</v>
@@ -2634,24 +3272,42 @@
         <v>1.99707528692155</v>
       </c>
       <c r="I36" s="19">
-        <v>2.2085504280000001</v>
+        <v>20.8862551876373</v>
       </c>
       <c r="J36" s="19">
-        <v>4.6873524199999999</v>
+        <v>3.2748051060912</v>
       </c>
       <c r="K36" s="19">
+        <v>21.486078031104299</v>
+      </c>
+      <c r="L36" s="19">
+        <v>34.3889864879865</v>
+      </c>
+      <c r="M36" s="19">
+        <v>7.4009659035323203</v>
+      </c>
+      <c r="N36" s="20">
+        <v>1.6452317149270901</v>
+      </c>
+      <c r="O36" s="19">
+        <v>2208.550428</v>
+      </c>
+      <c r="P36" s="19">
+        <v>4687.3524200000002</v>
+      </c>
+      <c r="Q36" s="19">
         <v>32.026994531115498</v>
       </c>
-      <c r="L36" s="20">
+      <c r="R36" s="20">
         <v>14.127373281930501</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="17" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C37" s="19">
         <v>22.2718501189871</v>
@@ -2672,24 +3328,42 @@
         <v>1.24537311289592</v>
       </c>
       <c r="I37" s="19">
-        <v>2.619666085</v>
+        <v>30.5795822523529</v>
       </c>
       <c r="J37" s="19">
-        <v>2.0897735339999999</v>
+        <v>22.317277533732099</v>
       </c>
       <c r="K37" s="19">
+        <v>39.469833131488997</v>
+      </c>
+      <c r="L37" s="19">
+        <v>15.143162845815599</v>
+      </c>
+      <c r="M37" s="19">
+        <v>10.203717944869499</v>
+      </c>
+      <c r="N37" s="20">
+        <v>1.5085203813655701</v>
+      </c>
+      <c r="O37" s="19">
+        <v>2619.6660849999998</v>
+      </c>
+      <c r="P37" s="19">
+        <v>2089.7735339999999</v>
+      </c>
+      <c r="Q37" s="19">
         <v>55.625855662977202</v>
       </c>
-      <c r="L37" s="20">
+      <c r="R37" s="20">
         <v>15.164586371861899</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="24" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C38" s="26">
         <v>19.944893801777798</v>
@@ -2710,24 +3384,42 @@
         <v>5.53073429658052</v>
       </c>
       <c r="I38" s="26">
-        <v>8.6799974039999999</v>
+        <v>12.8792061152641</v>
       </c>
       <c r="J38" s="26">
-        <v>30.184353312999999</v>
+        <v>6.0608616501997803</v>
       </c>
       <c r="K38" s="26">
+        <v>15.3206034028036</v>
+      </c>
+      <c r="L38" s="26">
+        <v>26.309717639662999</v>
+      </c>
+      <c r="M38" s="26">
+        <v>11.817953034304001</v>
+      </c>
+      <c r="N38" s="27">
+        <v>2.2587516710730302</v>
+      </c>
+      <c r="O38" s="26">
+        <v>8679.9974039999997</v>
+      </c>
+      <c r="P38" s="26">
+        <v>30184.353313</v>
+      </c>
+      <c r="Q38" s="26">
         <v>22.334085720884602</v>
       </c>
-      <c r="L38" s="27">
+      <c r="R38" s="27">
         <v>13.520067373822799</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C39" s="12">
         <v>2.2959991132811499</v>
@@ -2748,24 +3440,42 @@
         <v>2.3624748269730098</v>
       </c>
       <c r="I39" s="12">
-        <v>0.45766396799999998</v>
+        <v>0.42819984509718001</v>
       </c>
       <c r="J39" s="12">
-        <v>18.489167042999998</v>
+        <v>1.98989258042313</v>
       </c>
       <c r="K39" s="12">
+        <v>2.1810734157924498</v>
+      </c>
+      <c r="L39" s="12">
+        <v>17.8618988174915</v>
+      </c>
+      <c r="M39" s="12">
+        <v>45.710574201261998</v>
+      </c>
+      <c r="N39" s="13">
+        <v>2.2530999773261602</v>
+      </c>
+      <c r="O39" s="12">
+        <v>457.66396800000001</v>
+      </c>
+      <c r="P39" s="12">
+        <v>18489.167043000001</v>
+      </c>
+      <c r="Q39" s="12">
         <v>2.41551723206004</v>
       </c>
-      <c r="L39" s="13">
+      <c r="R39" s="13">
         <v>16.8805128329839</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C40" s="19">
         <v>10.824632923207901</v>
@@ -2786,24 +3496,42 @@
         <v>7.10110934459024</v>
       </c>
       <c r="I40" s="19">
-        <v>0.77943134400000003</v>
+        <v>1.21035244846238</v>
       </c>
       <c r="J40" s="19">
-        <v>47.041975551999997</v>
+        <v>0.46313159444855001</v>
       </c>
       <c r="K40" s="19">
+        <v>1.54900611905278</v>
+      </c>
+      <c r="L40" s="19">
+        <v>17.511293930279798</v>
+      </c>
+      <c r="M40" s="19">
+        <v>25.5267337189062</v>
+      </c>
+      <c r="N40" s="20">
+        <v>6.2754569097439399</v>
+      </c>
+      <c r="O40" s="19">
+        <v>779.43134399999997</v>
+      </c>
+      <c r="P40" s="19">
+        <v>47041.975552000004</v>
+      </c>
+      <c r="Q40" s="19">
         <v>1.62987957609669</v>
       </c>
-      <c r="L40" s="20">
+      <c r="R40" s="20">
         <v>13.093940149445</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C41" s="12">
         <v>0.55134840505323002</v>
@@ -2824,24 +3552,42 @@
         <v>2.3543842647540898</v>
       </c>
       <c r="I41" s="12">
-        <v>0.34221015500000002</v>
+        <v>5.4580705474554803</v>
       </c>
       <c r="J41" s="12">
-        <v>3.4450904100000002</v>
+        <v>5.4188828816782397</v>
       </c>
       <c r="K41" s="12">
+        <v>5.4876807538781502</v>
+      </c>
+      <c r="L41" s="12">
+        <v>15.932265292274201</v>
+      </c>
+      <c r="M41" s="12">
+        <v>36.003730076267999</v>
+      </c>
+      <c r="N41" s="13">
+        <v>2.4737809465992902</v>
+      </c>
+      <c r="O41" s="12">
+        <v>342.21015499999999</v>
+      </c>
+      <c r="P41" s="12">
+        <v>3445.0904099999998</v>
+      </c>
+      <c r="Q41" s="12">
         <v>9.0357274033781394</v>
       </c>
-      <c r="L41" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="R41" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C42" s="12">
         <v>6.5818864938179198</v>
@@ -2862,24 +3608,42 @@
         <v>0.15374086518859001</v>
       </c>
       <c r="I42" s="12">
-        <v>0.15327452499999999</v>
+        <v>10.6836164755714</v>
       </c>
       <c r="J42" s="12">
-        <v>1.3937731019999999</v>
+        <v>7.6985464501612304</v>
       </c>
       <c r="K42" s="12">
+        <v>11.5389357533822</v>
+      </c>
+      <c r="L42" s="12">
+        <v>22.181393032034499</v>
+      </c>
+      <c r="M42" s="12">
+        <v>26.949437795267102</v>
+      </c>
+      <c r="N42" s="13">
+        <v>3.9506190882448902</v>
+      </c>
+      <c r="O42" s="12">
+        <v>153.27452500000001</v>
+      </c>
+      <c r="P42" s="12">
+        <v>1393.7731020000001</v>
+      </c>
+      <c r="Q42" s="12">
         <v>9.9075505062004208</v>
       </c>
-      <c r="L42" s="13">
+      <c r="R42" s="13">
         <v>35.2921373334867</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C43" s="19">
         <v>6.2563348701074597</v>
@@ -2900,24 +3664,42 @@
         <v>3.4764586363945802</v>
       </c>
       <c r="I43" s="19">
-        <v>0.96053635900000001</v>
+        <v>2.9704380393085899</v>
       </c>
       <c r="J43" s="19">
-        <v>26.170446698999999</v>
+        <v>2.7922601355147298</v>
       </c>
       <c r="K43" s="19">
+        <v>3.4206175029354</v>
+      </c>
+      <c r="L43" s="19">
+        <v>11.262181535217501</v>
+      </c>
+      <c r="M43" s="19">
+        <v>54.152727389363903</v>
+      </c>
+      <c r="N43" s="20">
+        <v>5.0964215254201797</v>
+      </c>
+      <c r="O43" s="19">
+        <v>960.53635899999995</v>
+      </c>
+      <c r="P43" s="19">
+        <v>26170.446699</v>
+      </c>
+      <c r="Q43" s="19">
         <v>3.54036695591379</v>
       </c>
-      <c r="L43" s="20">
+      <c r="R43" s="20">
         <v>32.594277668810498</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="17" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C44" s="19">
         <v>3.5402659016029099</v>
@@ -2938,24 +3720,42 @@
         <v>4.1272346454870803</v>
       </c>
       <c r="I44" s="19">
-        <v>0.15865757</v>
+        <v>2.18440524075679</v>
       </c>
       <c r="J44" s="19">
-        <v>10.710747422000001</v>
+        <v>2.1177015512939601</v>
       </c>
       <c r="K44" s="19">
+        <v>2.23201718424201</v>
+      </c>
+      <c r="L44" s="19">
+        <v>8.6667423248235291</v>
+      </c>
+      <c r="M44" s="19">
+        <v>59.341443170948402</v>
+      </c>
+      <c r="N44" s="20">
+        <v>2.5043154567666401</v>
+      </c>
+      <c r="O44" s="19">
+        <v>158.65756999999999</v>
+      </c>
+      <c r="P44" s="19">
+        <v>10710.747422</v>
+      </c>
+      <c r="Q44" s="19">
         <v>1.4596711606272299</v>
       </c>
-      <c r="L44" s="20">
+      <c r="R44" s="20">
         <v>37.788945084379698</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="24" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C45" s="26">
         <v>6.2103965149452698</v>
@@ -2976,24 +3776,42 @@
         <v>4.2733369361290903</v>
       </c>
       <c r="I45" s="26">
-        <v>2.8517739209999999</v>
+        <v>2.0344215001388202</v>
       </c>
       <c r="J45" s="26">
-        <v>107.251200228</v>
+        <v>1.88501423247489</v>
       </c>
       <c r="K45" s="26">
+        <v>2.6062895310008098</v>
+      </c>
+      <c r="L45" s="26">
+        <v>15.2753770356342</v>
+      </c>
+      <c r="M45" s="26">
+        <v>39.552476795434899</v>
+      </c>
+      <c r="N45" s="27">
+        <v>4.67234018100896</v>
+      </c>
+      <c r="O45" s="26">
+        <v>2851.773921</v>
+      </c>
+      <c r="P45" s="26">
+        <v>107251.200228</v>
+      </c>
+      <c r="Q45" s="26">
         <v>2.5900970823374401</v>
       </c>
-      <c r="L45" s="27">
+      <c r="R45" s="27">
         <v>18.050556097956299</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C46" s="19">
         <v>10.9592408116707</v>
@@ -3014,24 +3832,42 @@
         <v>1.09623579382586</v>
       </c>
       <c r="I46" s="19">
-        <v>0.35566524799999999</v>
+        <v>13.681258571576601</v>
       </c>
       <c r="J46" s="19">
-        <v>1.3843357329999999</v>
+        <v>11.279151705439199</v>
       </c>
       <c r="K46" s="19">
+        <v>14.722967891650599</v>
+      </c>
+      <c r="L46" s="19">
+        <v>23.3352944502779</v>
+      </c>
+      <c r="M46" s="19">
+        <v>17.0029534166665</v>
+      </c>
+      <c r="N46" s="20">
+        <v>5.0285241498261604</v>
+      </c>
+      <c r="O46" s="19">
+        <v>355.66524800000002</v>
+      </c>
+      <c r="P46" s="19">
+        <v>1384.3357329999999</v>
+      </c>
+      <c r="Q46" s="19">
         <v>20.440519970028699</v>
       </c>
-      <c r="L46" s="20">
+      <c r="R46" s="20">
         <v>22.351361356623102</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C47" s="19">
         <v>4.1053703983999501</v>
@@ -3052,24 +3888,42 @@
         <v>0.11960590682047</v>
       </c>
       <c r="I47" s="19">
-        <v>0.62007531000000005</v>
+        <v>28.389950186032099</v>
       </c>
       <c r="J47" s="19">
-        <v>1.1112936010000001</v>
+        <v>25.159032395531899</v>
       </c>
       <c r="K47" s="19">
+        <v>30.538814994122699</v>
+      </c>
+      <c r="L47" s="19">
+        <v>11.798504997699199</v>
+      </c>
+      <c r="M47" s="19">
+        <v>27.484855177954501</v>
+      </c>
+      <c r="N47" s="20">
+        <v>5.5921378270359003</v>
+      </c>
+      <c r="O47" s="19">
+        <v>620.07530999999994</v>
+      </c>
+      <c r="P47" s="19">
+        <v>1111.2936010000001</v>
+      </c>
+      <c r="Q47" s="19">
         <v>35.814164506503602</v>
       </c>
-      <c r="L47" s="20">
+      <c r="R47" s="20">
         <v>29.450252108031599</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C48" s="19">
         <v>0.67455036474454999</v>
@@ -3090,24 +3944,42 @@
         <v>5.2407162916964003</v>
       </c>
       <c r="I48" s="19">
-        <v>3.262821E-3</v>
+        <v>0.35347446945571998</v>
       </c>
       <c r="J48" s="19">
-        <v>0.268060505</v>
+        <v>0.35347446945571998</v>
       </c>
       <c r="K48" s="19">
+        <v>5.25312163733948</v>
+      </c>
+      <c r="L48" s="19">
+        <v>7.2821538858618098</v>
+      </c>
+      <c r="M48" s="19">
+        <v>76.280258664877195</v>
+      </c>
+      <c r="N48" s="20">
+        <v>3.13042817730439</v>
+      </c>
+      <c r="O48" s="19">
+        <v>3.2628210000000002</v>
+      </c>
+      <c r="P48" s="19">
+        <v>268.06050499999998</v>
+      </c>
+      <c r="Q48" s="19">
         <v>1.20255823489352</v>
       </c>
-      <c r="L48" s="20">
+      <c r="R48" s="20">
         <v>24.844803680796801</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C49" s="19">
         <v>7.5367094043293799</v>
@@ -3128,24 +4000,42 @@
         <v>8.2472319819289908</v>
       </c>
       <c r="I49" s="19">
-        <v>1.2500823750000001</v>
+        <v>16.576621905385299</v>
       </c>
       <c r="J49" s="19">
-        <v>3.8100785020000001</v>
+        <v>12.8710026190811</v>
       </c>
       <c r="K49" s="19">
+        <v>17.9112186627124</v>
+      </c>
+      <c r="L49" s="19">
+        <v>23.2230436363838</v>
+      </c>
+      <c r="M49" s="19">
+        <v>29.882173588739001</v>
+      </c>
+      <c r="N49" s="20">
+        <v>2.0300472052330698</v>
+      </c>
+      <c r="O49" s="19">
+        <v>1250.082375</v>
+      </c>
+      <c r="P49" s="19">
+        <v>3810.0785019999998</v>
+      </c>
+      <c r="Q49" s="19">
         <v>24.704399828116401</v>
       </c>
-      <c r="L49" s="20">
+      <c r="R49" s="20">
         <v>21.536964229836901</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C50" s="19">
         <v>11.385933334107699</v>
@@ -3166,24 +4056,42 @@
         <v>0.29390706850796999</v>
       </c>
       <c r="I50" s="19">
-        <v>9.2320880999999994E-2</v>
+        <v>11.740132389711199</v>
       </c>
       <c r="J50" s="19">
-        <v>0.74302622799999996</v>
+        <v>10.4058543569677</v>
       </c>
       <c r="K50" s="19">
+        <v>12.2462508069226</v>
+      </c>
+      <c r="L50" s="19">
+        <v>32.490495370294099</v>
+      </c>
+      <c r="M50" s="19">
+        <v>11.383839273540399</v>
+      </c>
+      <c r="N50" s="20">
+        <v>2.5061536622001901</v>
+      </c>
+      <c r="O50" s="19">
+        <v>92.320881</v>
+      </c>
+      <c r="P50" s="19">
+        <v>743.02622799999995</v>
+      </c>
+      <c r="Q50" s="19">
         <v>11.0517987080267</v>
       </c>
-      <c r="L50" s="20">
+      <c r="R50" s="20">
         <v>8.3246703396823705</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C51" s="15">
         <v>4.9302672332746296</v>
@@ -3204,24 +4112,42 @@
         <v>5.1407255110969201</v>
       </c>
       <c r="I51" s="15">
-        <v>0.51213167599999998</v>
+        <v>4.8022415304213801</v>
       </c>
       <c r="J51" s="15">
-        <v>6.9044483489999999</v>
+        <v>3.4406433435319301</v>
       </c>
       <c r="K51" s="15">
+        <v>7.1963914217317404</v>
+      </c>
+      <c r="L51" s="15">
+        <v>42.021550929713499</v>
+      </c>
+      <c r="M51" s="15">
+        <v>17.047804584836101</v>
+      </c>
+      <c r="N51" s="16">
+        <v>4.8982141323035</v>
+      </c>
+      <c r="O51" s="15">
+        <v>512.13167599999997</v>
+      </c>
+      <c r="P51" s="15">
+        <v>6904.4483490000002</v>
+      </c>
+      <c r="Q51" s="15">
         <v>6.9052268602737898</v>
       </c>
-      <c r="L51" s="16">
+      <c r="R51" s="16">
         <v>32.245966290252397</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C52" s="19">
         <v>0.44518324865334002</v>
@@ -3242,24 +4168,42 @@
         <v>6.3486710579050004E-2</v>
       </c>
       <c r="I52" s="19">
-        <v>0.17787831800000001</v>
+        <v>5.6417423631312102</v>
       </c>
       <c r="J52" s="19">
-        <v>1.7085122150000001</v>
+        <v>3.4324820051608902</v>
       </c>
       <c r="K52" s="19">
+        <v>7.23529927103207</v>
+      </c>
+      <c r="L52" s="19">
+        <v>40.838079281666197</v>
+      </c>
+      <c r="M52" s="19">
+        <v>20.368062548495601</v>
+      </c>
+      <c r="N52" s="20">
+        <v>2.5718694257322299</v>
+      </c>
+      <c r="O52" s="19">
+        <v>177.87831800000001</v>
+      </c>
+      <c r="P52" s="19">
+        <v>1708.512215</v>
+      </c>
+      <c r="Q52" s="19">
         <v>9.4295595152883394</v>
       </c>
-      <c r="L52" s="20">
+      <c r="R52" s="20">
         <v>58.821909574594102</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C53" s="19">
         <v>0.85574742569871998</v>
@@ -3280,24 +4224,42 @@
         <v>0.65466850888005002</v>
       </c>
       <c r="I53" s="19">
-        <v>1.488037E-2</v>
+        <v>20.785749894313799</v>
       </c>
       <c r="J53" s="19">
-        <v>9.1249841999999998E-2</v>
+        <v>19.5388199545602</v>
       </c>
       <c r="K53" s="19">
+        <v>20.972427098196501</v>
+      </c>
+      <c r="L53" s="19">
+        <v>15.748552220145299</v>
+      </c>
+      <c r="M53" s="19">
+        <v>40.647689813444998</v>
+      </c>
+      <c r="N53" s="20">
+        <v>0.54726324601403997</v>
+      </c>
+      <c r="O53" s="19">
+        <v>14.880369999999999</v>
+      </c>
+      <c r="P53" s="19">
+        <v>91.2498420000001</v>
+      </c>
+      <c r="Q53" s="19">
         <v>14.020861467797699</v>
       </c>
-      <c r="L53" s="20">
+      <c r="R53" s="20">
         <v>15.781576802186301</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C54" s="19">
         <v>0.86542853972789002</v>
@@ -3318,24 +4280,42 @@
         <v>4.7950555862221096</v>
       </c>
       <c r="I54" s="19">
-        <v>6.9256819999999998E-3</v>
+        <v>0.17590225447829</v>
       </c>
       <c r="J54" s="19">
-        <v>1.029302283</v>
+        <v>0.17590225447829</v>
       </c>
       <c r="K54" s="19">
+        <v>0.4219902431916</v>
+      </c>
+      <c r="L54" s="19">
+        <v>35.627676678683898</v>
+      </c>
+      <c r="M54" s="19">
+        <v>10.2545622747121</v>
+      </c>
+      <c r="N54" s="20">
+        <v>0.92587019388825997</v>
+      </c>
+      <c r="O54" s="19">
+        <v>6.9256820000000001</v>
+      </c>
+      <c r="P54" s="19">
+        <v>1029.302283</v>
+      </c>
+      <c r="Q54" s="19">
         <v>0.66835505640884996</v>
       </c>
-      <c r="L54" s="20">
+      <c r="R54" s="20">
         <v>26.642329589375201</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A55" s="17" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C55" s="19">
         <v>1.32945002077573</v>
@@ -3356,24 +4336,42 @@
         <v>3.8618222991989998E-2</v>
       </c>
       <c r="I55" s="19">
-        <v>0.43614869899999997</v>
+        <v>31.405004015718699</v>
       </c>
       <c r="J55" s="19">
-        <v>1.138666344</v>
+        <v>28.965302500700101</v>
       </c>
       <c r="K55" s="19">
+        <v>33.467697899811299</v>
+      </c>
+      <c r="L55" s="19">
+        <v>12.1155130991056</v>
+      </c>
+      <c r="M55" s="19">
+        <v>30.7557573256422</v>
+      </c>
+      <c r="N55" s="20">
+        <v>2.43812572573693</v>
+      </c>
+      <c r="O55" s="19">
+        <v>436.14869900000002</v>
+      </c>
+      <c r="P55" s="19">
+        <v>1138.666344</v>
+      </c>
+      <c r="Q55" s="19">
         <v>27.695233223651702</v>
       </c>
-      <c r="L55" s="20">
+      <c r="R55" s="20">
         <v>29.617510448254599</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A56" s="17" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C56" s="19">
         <v>11.560092531741599</v>
@@ -3394,24 +4392,42 @@
         <v>0.85818794007304999</v>
       </c>
       <c r="I56" s="19">
-        <v>0.32840032400000002</v>
+        <v>18.9486313726639</v>
       </c>
       <c r="J56" s="19">
-        <v>0.842748308</v>
+        <v>16.971540232096601</v>
       </c>
       <c r="K56" s="19">
+        <v>20.435381799811701</v>
+      </c>
+      <c r="L56" s="19">
+        <v>17.458353225781099</v>
+      </c>
+      <c r="M56" s="19">
+        <v>26.036211789413102</v>
+      </c>
+      <c r="N56" s="20">
+        <v>9.68720636850502</v>
+      </c>
+      <c r="O56" s="19">
+        <v>328.40032400000001</v>
+      </c>
+      <c r="P56" s="19">
+        <v>842.74830799999995</v>
+      </c>
+      <c r="Q56" s="19">
         <v>28.040875003131099</v>
       </c>
-      <c r="L56" s="20">
+      <c r="R56" s="20">
         <v>16.558684797394498</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C57" s="12">
         <v>6.3569345383406803</v>
@@ -3432,24 +4448,42 @@
         <v>3.9741369059882699</v>
       </c>
       <c r="I57" s="12">
-        <v>0.92189384600000002</v>
+        <v>1.54227910069091</v>
       </c>
       <c r="J57" s="12">
-        <v>22.176416295999999</v>
+        <v>0.62597891175733</v>
       </c>
       <c r="K57" s="12">
+        <v>3.1351316250232601</v>
+      </c>
+      <c r="L57" s="12">
+        <v>33.3106345044107</v>
+      </c>
+      <c r="M57" s="12">
+        <v>25.090858715830301</v>
+      </c>
+      <c r="N57" s="13">
+        <v>8.6413274589333007</v>
+      </c>
+      <c r="O57" s="12">
+        <v>921.89384600000005</v>
+      </c>
+      <c r="P57" s="12">
+        <v>22176.416295999999</v>
+      </c>
+      <c r="Q57" s="12">
         <v>3.9911744206936901</v>
       </c>
-      <c r="L57" s="13">
+      <c r="R57" s="13">
         <v>9.3002005332566693</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A58" s="17" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C58" s="19">
         <v>40.0505328780906</v>
@@ -3470,24 +4504,42 @@
         <v>3.05200305464954</v>
       </c>
       <c r="I58" s="19">
-        <v>0.89213699599999996</v>
+        <v>10.099185669352</v>
       </c>
       <c r="J58" s="19">
-        <v>4.2301851660000098</v>
+        <v>6.8229651163047098</v>
       </c>
       <c r="K58" s="19">
+        <v>11.756341063536301</v>
+      </c>
+      <c r="L58" s="19">
+        <v>20.778338844626099</v>
+      </c>
+      <c r="M58" s="19">
+        <v>31.316046631744001</v>
+      </c>
+      <c r="N58" s="20">
+        <v>2.80247532328772</v>
+      </c>
+      <c r="O58" s="19">
+        <v>892.13699599999995</v>
+      </c>
+      <c r="P58" s="19">
+        <v>4230.1851660000102</v>
+      </c>
+      <c r="Q58" s="19">
         <v>17.4166514284932</v>
       </c>
-      <c r="L58" s="20">
+      <c r="R58" s="20">
         <v>20.662918406188599</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A59" s="17" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C59" s="19">
         <v>1.8007273897635701</v>
@@ -3508,24 +4560,42 @@
         <v>5.7147065447841303</v>
       </c>
       <c r="I59" s="19">
-        <v>2.3322424000000001E-2</v>
+        <v>2.4979452234110102</v>
       </c>
       <c r="J59" s="19">
-        <v>0.40025524800000001</v>
+        <v>1.1880905851613699</v>
       </c>
       <c r="K59" s="19">
+        <v>4.5749033746252898</v>
+      </c>
+      <c r="L59" s="19">
+        <v>32.006698302773003</v>
+      </c>
+      <c r="M59" s="19">
+        <v>16.2635991767999</v>
+      </c>
+      <c r="N59" s="20">
+        <v>5.9589887177428604</v>
+      </c>
+      <c r="O59" s="19">
+        <v>23.322424000000002</v>
+      </c>
+      <c r="P59" s="19">
+        <v>400.25524799999999</v>
+      </c>
+      <c r="Q59" s="19">
         <v>5.5060560415941797</v>
       </c>
-      <c r="L59" s="20">
+      <c r="R59" s="20">
         <v>17.270550805284898</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="10" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C60" s="15">
         <v>50.120339126921102</v>
@@ -3546,22 +4616,40 @@
         <v>1.2484946026681001</v>
       </c>
       <c r="I60" s="15">
-        <v>0.86410489800000001</v>
+        <v>10.086782724641299</v>
       </c>
       <c r="J60" s="15">
-        <v>2.204307434</v>
+        <v>8.8912112400090599</v>
       </c>
       <c r="K60" s="15">
+        <v>11.6342174330231</v>
+      </c>
+      <c r="L60" s="15">
+        <v>22.6375459674694</v>
+      </c>
+      <c r="M60" s="15">
+        <v>22.988124016250399</v>
+      </c>
+      <c r="N60" s="16">
+        <v>3.3056503266361901</v>
+      </c>
+      <c r="O60" s="15">
+        <v>864.10489800000005</v>
+      </c>
+      <c r="P60" s="15">
+        <v>2204.3074339999998</v>
+      </c>
+      <c r="Q60" s="15">
         <v>28.1613031269749</v>
       </c>
-      <c r="L60" s="16">
+      <c r="R60" s="16">
         <v>21.8295363249734</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="24"/>
       <c r="B61" s="25" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C61" s="26">
         <v>7.3582904713741701</v>
@@ -3582,22 +4670,40 @@
         <v>3.42632257107699</v>
       </c>
       <c r="I61" s="26">
-        <v>6.4992298679999996</v>
+        <v>7.0561824543262501</v>
       </c>
       <c r="J61" s="26">
-        <v>48.042886054</v>
+        <v>5.4950017315495101</v>
       </c>
       <c r="K61" s="26">
+        <v>8.6564477335044501</v>
+      </c>
+      <c r="L61" s="26">
+        <v>30.019078846427199</v>
+      </c>
+      <c r="M61" s="26">
+        <v>23.810570170456</v>
+      </c>
+      <c r="N61" s="27">
+        <v>5.4940071398932</v>
+      </c>
+      <c r="O61" s="26">
+        <v>6499.2298680000004</v>
+      </c>
+      <c r="P61" s="26">
+        <v>48042.886054000002</v>
+      </c>
+      <c r="Q61" s="26">
         <v>11.915984112707401</v>
       </c>
-      <c r="L61" s="27">
+      <c r="R61" s="27">
         <v>16.087452377332799</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="30"/>
       <c r="B62" s="31" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C62" s="32">
         <v>12.368246834103999</v>
@@ -3618,28 +4724,46 @@
         <v>5.0297121080319798</v>
       </c>
       <c r="I62" s="32">
-        <v>43.109230785999998</v>
+        <v>10.249788121132299</v>
       </c>
       <c r="J62" s="32">
-        <v>238.198696351</v>
+        <v>7.6091591442055897</v>
       </c>
       <c r="K62" s="32">
+        <v>12.2725963895865</v>
+      </c>
+      <c r="L62" s="32">
+        <v>21.4213248294617</v>
+      </c>
+      <c r="M62" s="32">
+        <v>26.4586425982016</v>
+      </c>
+      <c r="N62" s="33">
+        <v>4.6121630478984104</v>
+      </c>
+      <c r="O62" s="32">
+        <v>43109.230786</v>
+      </c>
+      <c r="P62" s="32">
+        <v>238198.69635099999</v>
+      </c>
+      <c r="Q62" s="32">
         <v>15.324570204879199</v>
       </c>
-      <c r="L62" s="33">
+      <c r="R62" s="33">
         <v>19.430288676576701</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="30"/>
       <c r="B63" s="31" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C63" s="32">
         <v>20.9620049933771</v>
       </c>
       <c r="D63" s="32" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E63" s="32">
         <v>57.994841788161601</v>
@@ -3654,28 +4778,46 @@
         <v>13.664317556159901</v>
       </c>
       <c r="I63" s="32">
-        <v>4997.7275583869996</v>
-      </c>
-      <c r="J63" s="32">
-        <v>3507.8633168649999</v>
+        <v>21.5677663588075</v>
+      </c>
+      <c r="J63" s="32" t="s">
+        <v>59</v>
       </c>
       <c r="K63" s="32">
+        <v>57.4757629049587</v>
+      </c>
+      <c r="L63" s="32">
+        <v>14.3682544987446</v>
+      </c>
+      <c r="M63" s="32">
+        <v>31.759373207612999</v>
+      </c>
+      <c r="N63" s="33">
+        <v>8.28282866806531</v>
+      </c>
+      <c r="O63" s="32">
+        <v>4997727.5583870001</v>
+      </c>
+      <c r="P63" s="32">
+        <v>3507863.3168649999</v>
+      </c>
+      <c r="Q63" s="32">
         <v>58.758146631863902</v>
       </c>
-      <c r="L63" s="33">
+      <c r="R63" s="33">
         <v>26.271120620362002</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A64" s="34"/>
       <c r="B64" s="35" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C64" s="36">
         <v>7.1980457229618597</v>
       </c>
       <c r="D64" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E64" s="36">
         <v>47.6532972516165</v>
@@ -3690,28 +4832,46 @@
         <v>42.103770789223603</v>
       </c>
       <c r="I64" s="36">
-        <v>215.02154107999999</v>
-      </c>
-      <c r="J64" s="36">
-        <v>303.55142772599999</v>
+        <v>7.7673353381481096</v>
+      </c>
+      <c r="J64" s="36" t="s">
+        <v>59</v>
       </c>
       <c r="K64" s="36">
+        <v>38.3432890320966</v>
+      </c>
+      <c r="L64" s="36">
+        <v>19.382134648019399</v>
+      </c>
+      <c r="M64" s="36">
+        <v>12.2781451686844</v>
+      </c>
+      <c r="N64" s="37">
+        <v>35.099892126932801</v>
+      </c>
+      <c r="O64" s="36">
+        <v>215021.54108</v>
+      </c>
+      <c r="P64" s="36">
+        <v>303551.42772600002</v>
+      </c>
+      <c r="Q64" s="36">
         <v>41.464085869165402</v>
       </c>
-      <c r="L64" s="37">
+      <c r="R64" s="37">
         <v>24.5636618115437</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A65" s="34"/>
       <c r="B65" s="38" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C65" s="39">
         <v>5.11405392218406</v>
       </c>
       <c r="D65" s="39" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E65" s="39">
         <v>48.4765299470698</v>
@@ -3726,22 +4886,40 @@
         <v>16.255726371375001</v>
       </c>
       <c r="I65" s="39">
-        <v>1361.8638940149999</v>
-      </c>
-      <c r="J65" s="39">
-        <v>899.70431381900005</v>
+        <v>6.5473227962042397</v>
+      </c>
+      <c r="J65" s="39" t="s">
+        <v>59</v>
       </c>
       <c r="K65" s="39">
+        <v>61.011082114330698</v>
+      </c>
+      <c r="L65" s="39">
+        <v>13.887247826299401</v>
+      </c>
+      <c r="M65" s="39">
+        <v>10.939515942782201</v>
+      </c>
+      <c r="N65" s="40">
+        <v>6.5298597464380297</v>
+      </c>
+      <c r="O65" s="39">
+        <v>1361863.894015</v>
+      </c>
+      <c r="P65" s="39">
+        <v>899704.31381900003</v>
+      </c>
+      <c r="Q65" s="39">
         <v>60.217679453467198</v>
       </c>
-      <c r="L65" s="40">
+      <c r="R65" s="40">
         <v>21.285396690227898</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="34"/>
       <c r="B66" s="41" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C66" s="42">
         <v>20.726551104357402</v>
@@ -3762,22 +4940,40 @@
         <v>13.427744523124501</v>
       </c>
       <c r="I66" s="42">
-        <v>5040.8367891730004</v>
+        <v>21.1853007038908</v>
       </c>
       <c r="J66" s="42">
-        <v>3746.0620132159902</v>
+        <v>0.25713444347918002</v>
       </c>
       <c r="K66" s="42">
+        <v>55.948223416672597</v>
+      </c>
+      <c r="L66" s="42">
+        <v>14.6065971697202</v>
+      </c>
+      <c r="M66" s="42">
+        <v>31.5802469218496</v>
+      </c>
+      <c r="N66" s="43">
+        <v>8.1587867675672001</v>
+      </c>
+      <c r="O66" s="42">
+        <v>5040836.7891729996</v>
+      </c>
+      <c r="P66" s="42">
+        <v>3746062.0132159898</v>
+      </c>
+      <c r="Q66" s="42">
         <v>57.367643608260202</v>
       </c>
-      <c r="L66" s="43">
+      <c r="R66" s="43">
         <v>25.923482575636399</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A67" s="34"/>
       <c r="B67" s="38" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C67" s="39">
         <v>17.165244798678199</v>
@@ -3798,22 +4994,40 @@
         <v>4.2383485442222204</v>
       </c>
       <c r="I67" s="39">
-        <v>14.200044027000001</v>
+        <v>10.107933139906701</v>
       </c>
       <c r="J67" s="39">
-        <v>93.865705788</v>
+        <v>6.2102811956347903</v>
       </c>
       <c r="K67" s="39">
+        <v>11.2762557960402</v>
+      </c>
+      <c r="L67" s="39">
+        <v>19.212849336907201</v>
+      </c>
+      <c r="M67" s="39">
+        <v>22.4895504536297</v>
+      </c>
+      <c r="N67" s="40">
+        <v>4.4169476431521604</v>
+      </c>
+      <c r="O67" s="39">
+        <v>14200.044027</v>
+      </c>
+      <c r="P67" s="39">
+        <v>93865.705788000007</v>
+      </c>
+      <c r="Q67" s="39">
         <v>13.1401892378569</v>
       </c>
-      <c r="L67" s="40">
+      <c r="R67" s="40">
         <v>15.876143816588399</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A68" s="34"/>
       <c r="B68" s="38" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C68" s="39">
         <v>7.1231400282691197</v>
@@ -3834,22 +5048,40 @@
         <v>3.9192930863094002</v>
       </c>
       <c r="I68" s="39">
-        <v>9.8455080810000002</v>
+        <v>5.0234756476500904</v>
       </c>
       <c r="J68" s="39">
-        <v>142.79719775999999</v>
+        <v>3.68178643347649</v>
       </c>
       <c r="K68" s="39">
+        <v>5.9197654254777303</v>
+      </c>
+      <c r="L68" s="39">
+        <v>22.083272005673301</v>
+      </c>
+      <c r="M68" s="39">
+        <v>30.4550381122632</v>
+      </c>
+      <c r="N68" s="40">
+        <v>5.2378803199064601</v>
+      </c>
+      <c r="O68" s="39">
+        <v>9845.5080809999999</v>
+      </c>
+      <c r="P68" s="39">
+        <v>142797.19776000001</v>
+      </c>
+      <c r="Q68" s="39">
         <v>6.4500350847131598</v>
       </c>
-      <c r="L68" s="40">
+      <c r="R68" s="40">
         <v>17.297569133143501</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A69" s="34"/>
       <c r="B69" s="38" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C69" s="39">
         <v>25.646251495028899</v>
@@ -3870,22 +5102,40 @@
         <v>3.5585476128031601</v>
       </c>
       <c r="I69" s="39">
-        <v>6.9414995380000004</v>
+        <v>18.187622588212498</v>
       </c>
       <c r="J69" s="39">
-        <v>15.41478972</v>
+        <v>8.97704164665865</v>
       </c>
       <c r="K69" s="39">
+        <v>21.663728925495001</v>
+      </c>
+      <c r="L69" s="39">
+        <v>25.953329291265302</v>
+      </c>
+      <c r="M69" s="39">
+        <v>10.3016034329513</v>
+      </c>
+      <c r="N69" s="40">
+        <v>1.9237679730035799</v>
+      </c>
+      <c r="O69" s="39">
+        <v>6941.499538</v>
+      </c>
+      <c r="P69" s="39">
+        <v>15414.789720000001</v>
+      </c>
+      <c r="Q69" s="39">
         <v>31.0494262169024</v>
       </c>
-      <c r="L69" s="40">
+      <c r="R69" s="40">
         <v>13.205910249862001</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A70" s="34"/>
       <c r="B70" s="38" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C70" s="39">
         <v>8.1565744473431803</v>
@@ -3906,22 +5156,40 @@
         <v>2.0001491227789101</v>
       </c>
       <c r="I70" s="39">
-        <v>3.801549826</v>
+        <v>12.1470530201203</v>
       </c>
       <c r="J70" s="39">
-        <v>12.502473626</v>
+        <v>3.1984113603434299</v>
       </c>
       <c r="K70" s="39">
+        <v>19.7112866195225</v>
+      </c>
+      <c r="L70" s="39">
+        <v>23.8660052055404</v>
+      </c>
+      <c r="M70" s="39">
+        <v>22.6464423512816</v>
+      </c>
+      <c r="N70" s="40">
+        <v>7.4897867978073398</v>
+      </c>
+      <c r="O70" s="39">
+        <v>3801.5498259999999</v>
+      </c>
+      <c r="P70" s="39">
+        <v>12502.473626000001</v>
+      </c>
+      <c r="Q70" s="39">
         <v>23.3166361493038</v>
       </c>
-      <c r="L70" s="40">
+      <c r="R70" s="40">
         <v>29.484772989378499</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A71" s="34"/>
       <c r="B71" s="38" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C71" s="39">
         <v>7.3582904713741701</v>
@@ -3942,22 +5210,40 @@
         <v>3.42632257107699</v>
       </c>
       <c r="I71" s="39">
-        <v>6.4992298679999996</v>
+        <v>7.0561824543262501</v>
       </c>
       <c r="J71" s="39">
-        <v>48.042886054</v>
+        <v>5.4950017315495101</v>
       </c>
       <c r="K71" s="39">
+        <v>8.6564477335044501</v>
+      </c>
+      <c r="L71" s="39">
+        <v>30.019078846427199</v>
+      </c>
+      <c r="M71" s="39">
+        <v>23.810570170456</v>
+      </c>
+      <c r="N71" s="40">
+        <v>5.4940071398932</v>
+      </c>
+      <c r="O71" s="39">
+        <v>6499.2298680000004</v>
+      </c>
+      <c r="P71" s="39">
+        <v>48042.886054000002</v>
+      </c>
+      <c r="Q71" s="39">
         <v>11.915984112707401</v>
       </c>
-      <c r="L71" s="40">
+      <c r="R71" s="40">
         <v>16.087452377332799</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A72" s="34"/>
       <c r="B72" s="38" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C72" s="39">
         <v>20.8675966887327</v>
@@ -3978,22 +5264,40 @@
         <v>4.8279729200719297</v>
       </c>
       <c r="I72" s="39">
-        <v>5.7046134300000002</v>
+        <v>11.398435268243199</v>
       </c>
       <c r="J72" s="39">
-        <v>21.776431689999999</v>
+        <v>6.9298338946497404</v>
       </c>
       <c r="K72" s="39">
+        <v>14.498671283682</v>
+      </c>
+      <c r="L72" s="39">
+        <v>25.9312753051125</v>
+      </c>
+      <c r="M72" s="39">
+        <v>10.9043243234402</v>
+      </c>
+      <c r="N72" s="40">
+        <v>2.5098437321506801</v>
+      </c>
+      <c r="O72" s="39">
+        <v>5704.6134300000003</v>
+      </c>
+      <c r="P72" s="39">
+        <v>21776.431690000001</v>
+      </c>
+      <c r="Q72" s="39">
         <v>20.758356915066301</v>
       </c>
-      <c r="L72" s="40">
+      <c r="R72" s="40">
         <v>12.2648168279625</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A73" s="34"/>
       <c r="B73" s="38" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C73" s="39">
         <v>18.814702151391799</v>
@@ -4014,22 +5318,40 @@
         <v>6.5261917390817397</v>
       </c>
       <c r="I73" s="39">
-        <v>26.030979362</v>
+        <v>23.064072370553301</v>
       </c>
       <c r="J73" s="39">
-        <v>55.427969589999996</v>
+        <v>17.129994184894102</v>
       </c>
       <c r="K73" s="39">
+        <v>25.471735408589598</v>
+      </c>
+      <c r="L73" s="39">
+        <v>19.3344851630916</v>
+      </c>
+      <c r="M73" s="39">
+        <v>18.9445497221257</v>
+      </c>
+      <c r="N73" s="40">
+        <v>4.6557241228146102</v>
+      </c>
+      <c r="O73" s="39">
+        <v>26030.979361999998</v>
+      </c>
+      <c r="P73" s="39">
+        <v>55427.969590000001</v>
+      </c>
+      <c r="Q73" s="39">
         <v>31.955947992084798</v>
       </c>
-      <c r="L73" s="40">
+      <c r="R73" s="40">
         <v>28.041047608218001</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A74" s="34"/>
       <c r="B74" s="38" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C74" s="39">
         <v>4.1937362736247596</v>
@@ -4050,22 +5372,40 @@
         <v>3.0374539680533501</v>
       </c>
       <c r="I74" s="39">
-        <v>2.0723425770000001</v>
+        <v>2.6231431637412199</v>
       </c>
       <c r="J74" s="39">
-        <v>60.209224675999998</v>
+        <v>2.9008188066222802</v>
       </c>
       <c r="K74" s="39">
+        <v>3.3616214390672399</v>
+      </c>
+      <c r="L74" s="39">
+        <v>13.678019737462799</v>
+      </c>
+      <c r="M74" s="39">
+        <v>49.572582247126803</v>
+      </c>
+      <c r="N74" s="40">
+        <v>3.5270604916799</v>
+      </c>
+      <c r="O74" s="39">
+        <v>2072.3425769999999</v>
+      </c>
+      <c r="P74" s="39">
+        <v>60209.224675999998</v>
+      </c>
+      <c r="Q74" s="39">
         <v>3.3273770529597302</v>
       </c>
-      <c r="L74" s="40">
+      <c r="R74" s="40">
         <v>24.952605976376798</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="34"/>
       <c r="B75" s="41" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C75" s="42">
         <v>4.0820555583802802</v>
@@ -4086,28 +5426,46 @@
         <v>2.3099507913248001</v>
       </c>
       <c r="I75" s="42">
-        <v>3.7786761950000001</v>
+        <v>23.0772289477631</v>
       </c>
       <c r="J75" s="42">
-        <v>7.0716492750000004</v>
+        <v>19.246333882401601</v>
       </c>
       <c r="K75" s="42">
+        <v>25.828341794282998</v>
+      </c>
+      <c r="L75" s="42">
+        <v>17.173750074505499</v>
+      </c>
+      <c r="M75" s="42">
+        <v>20.653968134130899</v>
+      </c>
+      <c r="N75" s="43">
+        <v>3.5805262092386201</v>
+      </c>
+      <c r="O75" s="42">
+        <v>3778.676195</v>
+      </c>
+      <c r="P75" s="42">
+        <v>7071.6492749999998</v>
+      </c>
+      <c r="Q75" s="42">
         <v>34.825464042047798</v>
       </c>
-      <c r="L75" s="43">
+      <c r="R75" s="43">
         <v>34.8208617812762</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A76" s="34"/>
       <c r="B76" s="38" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C76" s="39">
         <v>20.277807646693599</v>
       </c>
       <c r="D76" s="39" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E76" s="39">
         <v>62.4531816476321</v>
@@ -4122,28 +5480,46 @@
         <v>15.1060167000488</v>
       </c>
       <c r="I76" s="39">
-        <v>643.14336690000005</v>
-      </c>
-      <c r="J76" s="39">
-        <v>191.20163106999999</v>
+        <v>22.520287844291801</v>
+      </c>
+      <c r="J76" s="39" t="s">
+        <v>59</v>
       </c>
       <c r="K76" s="39">
+        <v>77.911804831583297</v>
+      </c>
+      <c r="L76" s="39">
+        <v>28.204113193331299</v>
+      </c>
+      <c r="M76" s="39">
+        <v>6.55926014309542</v>
+      </c>
+      <c r="N76" s="40">
+        <v>5.8949613017966396</v>
+      </c>
+      <c r="O76" s="39">
+        <v>643143.36690000002</v>
+      </c>
+      <c r="P76" s="39">
+        <v>191201.63107</v>
+      </c>
+      <c r="Q76" s="39">
         <v>77.0836246953955</v>
       </c>
-      <c r="L76" s="40">
+      <c r="R76" s="40">
         <v>47.746674537101903</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A77" s="34"/>
       <c r="B77" s="38" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C77" s="39">
         <v>14.798409422973499</v>
       </c>
       <c r="D77" s="39" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E77" s="39">
         <v>14.798412309350701</v>
@@ -4158,28 +5534,46 @@
         <v>12.344571552331001</v>
       </c>
       <c r="I77" s="39">
-        <v>41.586898677000001</v>
-      </c>
-      <c r="J77" s="39">
-        <v>172.38537576100001</v>
+        <v>17.9072977935169</v>
+      </c>
+      <c r="J77" s="39" t="s">
+        <v>59</v>
       </c>
       <c r="K77" s="39">
+        <v>17.9073035013277</v>
+      </c>
+      <c r="L77" s="39">
+        <v>23.611913504737899</v>
+      </c>
+      <c r="M77" s="39">
+        <v>15.8537059980025</v>
+      </c>
+      <c r="N77" s="40">
+        <v>18.4546380194469</v>
+      </c>
+      <c r="O77" s="39">
+        <v>41586.898676999997</v>
+      </c>
+      <c r="P77" s="39">
+        <v>172385.375761</v>
+      </c>
+      <c r="Q77" s="39">
         <v>19.435648280240201</v>
       </c>
-      <c r="L77" s="40">
+      <c r="R77" s="40">
         <v>18.478312145378599</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A78" s="34"/>
       <c r="B78" s="38" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C78" s="39">
         <v>58.164489291895102</v>
       </c>
       <c r="D78" s="39" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E78" s="39">
         <v>72.936311273426099</v>
@@ -4194,28 +5588,46 @@
         <v>7.7278314215694897</v>
       </c>
       <c r="I78" s="39">
-        <v>1875.645399857</v>
-      </c>
-      <c r="J78" s="39">
-        <v>649.59606862500004</v>
+        <v>60.447368856900702</v>
+      </c>
+      <c r="J78" s="39" t="s">
+        <v>59</v>
       </c>
       <c r="K78" s="39">
+        <v>73.1348761830847</v>
+      </c>
+      <c r="L78" s="39">
+        <v>8.7608546495464896</v>
+      </c>
+      <c r="M78" s="39">
+        <v>60.447368856900702</v>
+      </c>
+      <c r="N78" s="40">
+        <v>4.5746624302206698</v>
+      </c>
+      <c r="O78" s="39">
+        <v>1875645.399857</v>
+      </c>
+      <c r="P78" s="39">
+        <v>649596.06862499996</v>
+      </c>
+      <c r="Q78" s="39">
         <v>74.275883049889401</v>
       </c>
-      <c r="L78" s="40">
+      <c r="R78" s="40">
         <v>46.710722289173603</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="34"/>
       <c r="B79" s="41" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C79" s="42">
         <v>29.818832693601301</v>
       </c>
       <c r="D79" s="42" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E79" s="42">
         <v>61.777856247087698</v>
@@ -4230,22 +5642,40 @@
         <v>13.927026137554</v>
       </c>
       <c r="I79" s="42">
-        <v>3128.2252881149998</v>
-      </c>
-      <c r="J79" s="42">
-        <v>2196.8437538920002</v>
+        <v>27.5131097180046</v>
+      </c>
+      <c r="J79" s="42" t="s">
+        <v>59</v>
       </c>
       <c r="K79" s="42">
-        <v>58.745253130764802</v>
-      </c>
-      <c r="L79" s="43">
+        <v>56.697989734553403</v>
+      </c>
+      <c r="L79" s="42">
+        <v>13.919956694998801</v>
+      </c>
+      <c r="M79" s="42">
+        <v>39.274841267548403</v>
+      </c>
+      <c r="N79" s="43">
+        <v>8.7394703919694301</v>
+      </c>
+      <c r="O79" s="42">
+        <v>3128225.2881149999</v>
+      </c>
+      <c r="P79" s="42">
+        <v>2196843.7538919998</v>
+      </c>
+      <c r="Q79" s="42">
+        <v>58.745253130764702</v>
+      </c>
+      <c r="R79" s="43">
         <v>27.636831682715599</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A80" s="34"/>
       <c r="B80" s="38" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C80" s="39">
         <v>3.5214712682147402</v>
@@ -4266,28 +5696,46 @@
         <v>2.7906915713226801</v>
       </c>
       <c r="I80" s="39">
-        <v>2.5604352459999999</v>
+        <v>2.4796868911284098</v>
       </c>
       <c r="J80" s="39">
-        <v>51.105238339000003</v>
+        <v>2.24768313370451</v>
       </c>
       <c r="K80" s="39">
+        <v>4.4849240829494699</v>
+      </c>
+      <c r="L80" s="39">
+        <v>25.407602847860399</v>
+      </c>
+      <c r="M80" s="39">
+        <v>32.519677176325601</v>
+      </c>
+      <c r="N80" s="40">
+        <v>5.70584195954011</v>
+      </c>
+      <c r="O80" s="39">
+        <v>2560.435246</v>
+      </c>
+      <c r="P80" s="39">
+        <v>51105.238339000003</v>
+      </c>
+      <c r="Q80" s="39">
         <v>4.7710856399567501</v>
       </c>
-      <c r="L80" s="40">
+      <c r="R80" s="40">
         <v>16.102160988592999</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A81" s="34"/>
       <c r="B81" s="38" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C81" s="39">
         <v>0.49827065581196001</v>
       </c>
       <c r="D81" s="39" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E81" s="39">
         <v>66.501911307850605</v>
@@ -4302,22 +5750,40 @@
         <v>3.6426061182135498</v>
       </c>
       <c r="I81" s="39">
-        <v>196.450465522</v>
-      </c>
-      <c r="J81" s="39">
-        <v>197.44577514400001</v>
+        <v>0.82364496772314</v>
+      </c>
+      <c r="J81" s="39" t="s">
+        <v>59</v>
       </c>
       <c r="K81" s="39">
+        <v>54.247548580320498</v>
+      </c>
+      <c r="L81" s="39">
+        <v>21.112630729224499</v>
+      </c>
+      <c r="M81" s="39">
+        <v>21.9051193144516</v>
+      </c>
+      <c r="N81" s="40">
+        <v>5.4986135027427903</v>
+      </c>
+      <c r="O81" s="39">
+        <v>196450.46552200001</v>
+      </c>
+      <c r="P81" s="39">
+        <v>197445.77514400001</v>
+      </c>
+      <c r="Q81" s="39">
         <v>49.8736584004563</v>
       </c>
-      <c r="L81" s="40">
+      <c r="R81" s="40">
         <v>29.505691309920699</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A82" s="34"/>
       <c r="B82" s="38" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C82" s="39">
         <v>15.2938751629653</v>
@@ -4338,28 +5804,46 @@
         <v>5.7701561107436596</v>
       </c>
       <c r="I82" s="39">
-        <v>40.54879554</v>
+        <v>12.319956740810399</v>
       </c>
       <c r="J82" s="39">
-        <v>187.09345801200001</v>
+        <v>9.0376037762057297</v>
       </c>
       <c r="K82" s="39">
+        <v>14.3474464272261</v>
+      </c>
+      <c r="L82" s="39">
+        <v>20.359270755939999</v>
+      </c>
+      <c r="M82" s="39">
+        <v>24.843816328246898</v>
+      </c>
+      <c r="N82" s="40">
+        <v>4.3207769132954601</v>
+      </c>
+      <c r="O82" s="39">
+        <v>40548.795539999999</v>
+      </c>
+      <c r="P82" s="39">
+        <v>187093.45801199999</v>
+      </c>
+      <c r="Q82" s="39">
         <v>17.812508401801399</v>
       </c>
-      <c r="L82" s="40">
+      <c r="R82" s="40">
         <v>20.7741079048362</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="34"/>
       <c r="B83" s="41" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C83" s="42">
         <v>22.402355036322199</v>
       </c>
       <c r="D83" s="42" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E83" s="42">
         <v>57.396067500639198</v>
@@ -4374,22 +5858,40 @@
         <v>14.3697006627775</v>
       </c>
       <c r="I83" s="42">
-        <v>4801.2770928649998</v>
-      </c>
-      <c r="J83" s="42">
-        <v>3310.4175417209999</v>
+        <v>22.795011112072199</v>
+      </c>
+      <c r="J83" s="42" t="s">
+        <v>59</v>
       </c>
       <c r="K83" s="42">
+        <v>57.666747570813399</v>
+      </c>
+      <c r="L83" s="42">
+        <v>13.9692498753693</v>
+      </c>
+      <c r="M83" s="42">
+        <v>32.342361571387102</v>
+      </c>
+      <c r="N83" s="43">
+        <v>8.4475458613936603</v>
+      </c>
+      <c r="O83" s="42">
+        <v>4801277.0928649995</v>
+      </c>
+      <c r="P83" s="42">
+        <v>3310417.5417209999</v>
+      </c>
+      <c r="Q83" s="42">
         <v>59.189569000707898</v>
       </c>
-      <c r="L83" s="43">
+      <c r="R83" s="43">
         <v>25.978873230176099</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A84" s="34"/>
       <c r="B84" s="38" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C84" s="39">
         <v>12.7259646447999</v>
@@ -4410,28 +5912,46 @@
         <v>1.86501848276453</v>
       </c>
       <c r="I84" s="39">
-        <v>12.845347861</v>
+        <v>17.747908405531199</v>
       </c>
       <c r="J84" s="39">
-        <v>31.205472985</v>
+        <v>11.781639016897801</v>
       </c>
       <c r="K84" s="39">
+        <v>19.692909721947899</v>
+      </c>
+      <c r="L84" s="39">
+        <v>23.300404940979799</v>
+      </c>
+      <c r="M84" s="39">
+        <v>14.9277943147433</v>
+      </c>
+      <c r="N84" s="40">
+        <v>3.7995058840706601</v>
+      </c>
+      <c r="O84" s="39">
+        <v>12845.347861</v>
+      </c>
+      <c r="P84" s="39">
+        <v>31205.472985</v>
+      </c>
+      <c r="Q84" s="39">
         <v>29.160291713761399</v>
       </c>
-      <c r="L84" s="40">
+      <c r="R84" s="40">
         <v>18.6945543790595</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A85" s="34"/>
       <c r="B85" s="38" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C85" s="39" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D85" s="39" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E85" s="39">
         <v>82.777388842497601</v>
@@ -4445,23 +5965,41 @@
       <c r="H85" s="40">
         <v>0.70406628009420003</v>
       </c>
-      <c r="I85" s="39">
-        <v>6.4173836450000001</v>
-      </c>
-      <c r="J85" s="39">
-        <v>4.5126496019999998</v>
+      <c r="I85" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="J85" s="39" t="s">
+        <v>59</v>
       </c>
       <c r="K85" s="39">
+        <v>64.304001665828096</v>
+      </c>
+      <c r="L85" s="39">
+        <v>21.020268509672398</v>
+      </c>
+      <c r="M85" s="39">
+        <v>6.1601939728154296</v>
+      </c>
+      <c r="N85" s="40">
+        <v>4.0814907183634199</v>
+      </c>
+      <c r="O85" s="39">
+        <v>6417.3836449999999</v>
+      </c>
+      <c r="P85" s="39">
+        <v>4512.6496020000004</v>
+      </c>
+      <c r="Q85" s="39">
         <v>58.713303976100903</v>
       </c>
-      <c r="L85" s="40">
+      <c r="R85" s="40">
         <v>6.8771293523331103</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A86" s="34"/>
       <c r="B86" s="38" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C86" s="39">
         <v>9.9462584563047596</v>
@@ -4482,28 +6020,46 @@
         <v>4.1727171934985599</v>
       </c>
       <c r="I86" s="39">
-        <v>16.545522424000001</v>
+        <v>6.3614914527407</v>
       </c>
       <c r="J86" s="39">
-        <v>166.99402885399999</v>
+        <v>4.5499856403794903</v>
       </c>
       <c r="K86" s="39">
+        <v>7.9100082845664001</v>
+      </c>
+      <c r="L86" s="39">
+        <v>22.059266882512599</v>
+      </c>
+      <c r="M86" s="39">
+        <v>30.195650264016201</v>
+      </c>
+      <c r="N86" s="40">
+        <v>4.8290781019646598</v>
+      </c>
+      <c r="O86" s="39">
+        <v>16545.522423999999</v>
+      </c>
+      <c r="P86" s="39">
+        <v>166994.028854</v>
+      </c>
+      <c r="Q86" s="39">
         <v>9.0146904625146203</v>
       </c>
-      <c r="L86" s="40">
+      <c r="R86" s="40">
         <v>17.705529697404799</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A87" s="34"/>
       <c r="B87" s="38" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C87" s="39">
         <v>8.7209544155501106</v>
       </c>
       <c r="D87" s="39" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E87" s="39">
         <v>51.017503103724302</v>
@@ -4518,22 +6074,40 @@
         <v>17.2829360339734</v>
       </c>
       <c r="I87" s="39">
-        <v>592.28288664399997</v>
-      </c>
-      <c r="J87" s="39">
-        <v>246.48290108899999</v>
+        <v>10.0960334883213</v>
+      </c>
+      <c r="J87" s="39" t="s">
+        <v>59</v>
       </c>
       <c r="K87" s="39">
+        <v>72.184162300199603</v>
+      </c>
+      <c r="L87" s="39">
+        <v>27.0098742618387</v>
+      </c>
+      <c r="M87" s="39">
+        <v>8.9175669036779901</v>
+      </c>
+      <c r="N87" s="40">
+        <v>5.6838053761248597</v>
+      </c>
+      <c r="O87" s="39">
+        <v>592282.88664399995</v>
+      </c>
+      <c r="P87" s="39">
+        <v>246482.90108899999</v>
+      </c>
+      <c r="Q87" s="39">
         <v>70.6136200720359</v>
       </c>
-      <c r="L87" s="40">
+      <c r="R87" s="40">
         <v>21.430627390630899</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A88" s="34"/>
       <c r="B88" s="38" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C88" s="39">
         <v>16.551072858168801</v>
@@ -4554,28 +6128,46 @@
         <v>8.4800273334299003</v>
       </c>
       <c r="I88" s="39">
-        <v>13.674520834000001</v>
+        <v>15.496109518235601</v>
       </c>
       <c r="J88" s="39">
-        <v>39.766885144</v>
+        <v>13.441379928030299</v>
       </c>
       <c r="K88" s="39">
+        <v>19.1395228657044</v>
+      </c>
+      <c r="L88" s="39">
+        <v>17.829577638356302</v>
+      </c>
+      <c r="M88" s="39">
+        <v>25.652526407961599</v>
+      </c>
+      <c r="N88" s="40">
+        <v>4.7549924672736301</v>
+      </c>
+      <c r="O88" s="39">
+        <v>13674.520834000001</v>
+      </c>
+      <c r="P88" s="39">
+        <v>39766.885144</v>
+      </c>
+      <c r="Q88" s="39">
         <v>25.5878762613943</v>
       </c>
-      <c r="L88" s="40">
+      <c r="R88" s="40">
         <v>28.540311444921102</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A89" s="34"/>
       <c r="B89" s="38" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C89" s="39">
         <v>5.2650777588463598</v>
       </c>
       <c r="D89" s="39" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E89" s="39">
         <v>51.024781858089199</v>
@@ -4590,22 +6182,40 @@
         <v>19.077910595351099</v>
       </c>
       <c r="I89" s="39">
-        <v>1249.8930858020001</v>
-      </c>
-      <c r="J89" s="39">
-        <v>1070.216208561</v>
+        <v>6.3760527662139603</v>
+      </c>
+      <c r="J89" s="39" t="s">
+        <v>59</v>
       </c>
       <c r="K89" s="39">
+        <v>52.9225463997304</v>
+      </c>
+      <c r="L89" s="39">
+        <v>10.53992028179</v>
+      </c>
+      <c r="M89" s="39">
+        <v>18.979856525516901</v>
+      </c>
+      <c r="N89" s="40">
+        <v>12.936290830431499</v>
+      </c>
+      <c r="O89" s="39">
+        <v>1249893.085802</v>
+      </c>
+      <c r="P89" s="39">
+        <v>1070216.2085609999</v>
+      </c>
+      <c r="Q89" s="39">
         <v>53.8721640760103</v>
       </c>
-      <c r="L89" s="40">
+      <c r="R89" s="40">
         <v>23.751560552975299</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="34"/>
       <c r="B90" s="41" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C90" s="42">
         <v>30.040152643048099</v>
@@ -4626,22 +6236,40 @@
         <v>10.6140478932283</v>
       </c>
       <c r="I90" s="42">
-        <v>3148.6461731949998</v>
+        <v>28.005503059891399</v>
       </c>
       <c r="J90" s="42">
-        <v>2185.1273654769998</v>
+        <v>3.3447077128000001E-4</v>
       </c>
       <c r="K90" s="42">
+        <v>57.277996695448401</v>
+      </c>
+      <c r="L90" s="42">
+        <v>14.1494344055355</v>
+      </c>
+      <c r="M90" s="42">
+        <v>38.7403469849665</v>
+      </c>
+      <c r="N90" s="43">
+        <v>7.0379688328277004</v>
+      </c>
+      <c r="O90" s="42">
+        <v>3148646.1731949998</v>
+      </c>
+      <c r="P90" s="42">
+        <v>2185127.3654769999</v>
+      </c>
+      <c r="Q90" s="42">
         <v>59.032243314532401</v>
       </c>
-      <c r="L90" s="43">
+      <c r="R90" s="43">
         <v>29.8247149566456</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A91" s="34"/>
       <c r="B91" s="38" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C91" s="39">
         <v>13.4384713286875</v>
@@ -4662,28 +6290,46 @@
         <v>1.9799787972240199</v>
       </c>
       <c r="I91" s="39">
-        <v>19.263287217999999</v>
+        <v>18.0058306725143</v>
       </c>
       <c r="J91" s="39">
-        <v>50.219912323999999</v>
+        <v>11.5590394087069</v>
       </c>
       <c r="K91" s="39">
+        <v>19.5771226781142</v>
+      </c>
+      <c r="L91" s="39">
+        <v>24.248505740691002</v>
+      </c>
+      <c r="M91" s="39">
+        <v>15.790393366578799</v>
+      </c>
+      <c r="N91" s="40">
+        <v>3.5660624909000198</v>
+      </c>
+      <c r="O91" s="39">
+        <v>19263.287218000001</v>
+      </c>
+      <c r="P91" s="39">
+        <v>50219.912323999997</v>
+      </c>
+      <c r="Q91" s="39">
         <v>27.7236617556105</v>
       </c>
-      <c r="L91" s="40">
+      <c r="R91" s="40">
         <v>22.232226551438401</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A92" s="34"/>
       <c r="B92" s="38" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C92" s="39">
         <v>14.9405810063272</v>
       </c>
       <c r="D92" s="39" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E92" s="39">
         <v>40.053329316025199</v>
@@ -4698,22 +6344,40 @@
         <v>15.521700501201799</v>
       </c>
       <c r="I92" s="39">
-        <v>67.489435309000001</v>
-      </c>
-      <c r="J92" s="39">
-        <v>15.834234252</v>
+        <v>18.939485444091599</v>
+      </c>
+      <c r="J92" s="39" t="s">
+        <v>59</v>
       </c>
       <c r="K92" s="39">
+        <v>82.202825815110998</v>
+      </c>
+      <c r="L92" s="39">
+        <v>30.187547275534801</v>
+      </c>
+      <c r="M92" s="39">
+        <v>4.1240213358161801</v>
+      </c>
+      <c r="N92" s="40">
+        <v>3.3238563142768198</v>
+      </c>
+      <c r="O92" s="39">
+        <v>67489.435308999993</v>
+      </c>
+      <c r="P92" s="39">
+        <v>15834.234252</v>
+      </c>
+      <c r="Q92" s="39">
         <v>80.996715176582597</v>
       </c>
-      <c r="L92" s="40">
+      <c r="R92" s="40">
         <v>16.035765040178202</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A93" s="34"/>
       <c r="B93" s="38" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C93" s="39">
         <v>23.527801998148401</v>
@@ -4734,28 +6398,46 @@
         <v>5.8050459899138698</v>
       </c>
       <c r="I93" s="39">
-        <v>0.27552521800000002</v>
+        <v>8.5618352695217208</v>
       </c>
       <c r="J93" s="39">
-        <v>2.2018743019999998</v>
+        <v>2.8074920155799798</v>
       </c>
       <c r="K93" s="39">
+        <v>9.5690274311643009</v>
+      </c>
+      <c r="L93" s="39">
+        <v>13.2948879688544</v>
+      </c>
+      <c r="M93" s="39">
+        <v>31.8482428375087</v>
+      </c>
+      <c r="N93" s="40">
+        <v>1.69814760895449</v>
+      </c>
+      <c r="O93" s="39">
+        <v>275.525218</v>
+      </c>
+      <c r="P93" s="39">
+        <v>2201.8743020000002</v>
+      </c>
+      <c r="Q93" s="39">
         <v>11.121549664302799</v>
       </c>
-      <c r="L93" s="40">
+      <c r="R93" s="40">
         <v>28.7147456900667</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A94" s="34"/>
       <c r="B94" s="38" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C94" s="39">
         <v>19.965868225439401</v>
       </c>
       <c r="D94" s="39" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E94" s="39">
         <v>68.384431176004298</v>
@@ -4770,22 +6452,40 @@
         <v>11.7784589266734</v>
       </c>
       <c r="I94" s="39">
-        <v>147.29835934299999</v>
-      </c>
-      <c r="J94" s="39">
-        <v>69.956566806999902</v>
+        <v>19.831206571736999</v>
+      </c>
+      <c r="J94" s="39" t="s">
+        <v>59</v>
       </c>
       <c r="K94" s="39">
-        <v>67.799778791345105</v>
-      </c>
-      <c r="L94" s="40">
+        <v>64.293092816155607</v>
+      </c>
+      <c r="L94" s="39">
+        <v>17.5851901303324</v>
+      </c>
+      <c r="M94" s="39">
+        <v>10.1578386251471</v>
+      </c>
+      <c r="N94" s="40">
+        <v>11.7227335975511</v>
+      </c>
+      <c r="O94" s="39">
+        <v>147298.35934299999</v>
+      </c>
+      <c r="P94" s="39">
+        <v>69956.566807000097</v>
+      </c>
+      <c r="Q94" s="39">
+        <v>67.799778791345005</v>
+      </c>
+      <c r="R94" s="40">
         <v>112.586596239001</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A95" s="34"/>
       <c r="B95" s="38" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C95" s="39">
         <v>19.741172456276999</v>
@@ -4806,28 +6506,46 @@
         <v>2.21936094310204</v>
       </c>
       <c r="I95" s="39">
-        <v>12.652620517000001</v>
+        <v>35.090694303746098</v>
       </c>
       <c r="J95" s="39">
-        <v>16.433263188000002</v>
+        <v>30.651699844250999</v>
       </c>
       <c r="K95" s="39">
+        <v>37.704706646816597</v>
+      </c>
+      <c r="L95" s="39">
+        <v>15.050690844029999</v>
+      </c>
+      <c r="M95" s="39">
+        <v>14.17804009544</v>
+      </c>
+      <c r="N95" s="40">
+        <v>2.9278872696908902</v>
+      </c>
+      <c r="O95" s="39">
+        <v>12652.620516999999</v>
+      </c>
+      <c r="P95" s="39">
+        <v>16433.263188000001</v>
+      </c>
+      <c r="Q95" s="39">
         <v>43.5008977046311</v>
       </c>
-      <c r="L95" s="40">
+      <c r="R95" s="40">
         <v>19.320975557333998</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="34"/>
       <c r="B96" s="41" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C96" s="42">
         <v>9.7101215837299808</v>
       </c>
       <c r="D96" s="42" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E96" s="42">
         <v>63.116766420900099</v>
@@ -4842,22 +6560,40 @@
         <v>1.5285863827138599</v>
       </c>
       <c r="I96" s="42">
-        <v>44.691442842999997</v>
-      </c>
-      <c r="J96" s="42">
-        <v>24.645681942</v>
+        <v>7.2493411171606299</v>
+      </c>
+      <c r="J96" s="42" t="s">
+        <v>59</v>
       </c>
       <c r="K96" s="42">
+        <v>60.439815946338904</v>
+      </c>
+      <c r="L96" s="42">
+        <v>20.731352706633999</v>
+      </c>
+      <c r="M96" s="42">
+        <v>16.160164817289999</v>
+      </c>
+      <c r="N96" s="43">
+        <v>2.8532165885684702</v>
+      </c>
+      <c r="O96" s="42">
+        <v>44691.442842999997</v>
+      </c>
+      <c r="P96" s="42">
+        <v>24645.681941999999</v>
+      </c>
+      <c r="Q96" s="42">
         <v>64.4552870941489</v>
       </c>
-      <c r="L96" s="43">
+      <c r="R96" s="43">
         <v>27.003055957956001</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A97" s="34"/>
       <c r="B97" s="38" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C97" s="39">
         <v>11.6955537292359</v>
@@ -4878,28 +6614,46 @@
         <v>3.0199016588141498</v>
       </c>
       <c r="I97" s="39">
-        <v>24.991521315</v>
+        <v>13.7100534745899</v>
       </c>
       <c r="J97" s="39">
-        <v>85.620467046000002</v>
+        <v>9.1686511827968804</v>
       </c>
       <c r="K97" s="39">
+        <v>16.077838339750699</v>
+      </c>
+      <c r="L97" s="39">
+        <v>25.877691113425701</v>
+      </c>
+      <c r="M97" s="39">
+        <v>18.468836558</v>
+      </c>
+      <c r="N97" s="40">
+        <v>4.4426642775802296</v>
+      </c>
+      <c r="O97" s="39">
+        <v>24991.521315000002</v>
+      </c>
+      <c r="P97" s="39">
+        <v>85620.467046000005</v>
+      </c>
+      <c r="Q97" s="39">
         <v>22.593863183650701</v>
       </c>
-      <c r="L97" s="40">
+      <c r="R97" s="40">
         <v>17.235270642716401</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A98" s="34"/>
       <c r="B98" s="38" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C98" s="39">
         <v>6.4601522422795501</v>
       </c>
       <c r="D98" s="39" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E98" s="39">
         <v>49.771318929123197</v>
@@ -4914,22 +6668,40 @@
         <v>14.291936497456099</v>
       </c>
       <c r="I98" s="39">
-        <v>117.42490314</v>
-      </c>
-      <c r="J98" s="39">
-        <v>51.467600703999999</v>
+        <v>9.0522221364713307</v>
+      </c>
+      <c r="J98" s="39" t="s">
+        <v>59</v>
       </c>
       <c r="K98" s="39">
+        <v>71.075193704524395</v>
+      </c>
+      <c r="L98" s="39">
+        <v>27.5269766219992</v>
+      </c>
+      <c r="M98" s="39">
+        <v>6.89961318474331</v>
+      </c>
+      <c r="N98" s="40">
+        <v>6.8139165092121798</v>
+      </c>
+      <c r="O98" s="39">
+        <v>117424.90313999999</v>
+      </c>
+      <c r="P98" s="39">
+        <v>51467.600703999997</v>
+      </c>
+      <c r="Q98" s="39">
         <v>69.526415008010801</v>
       </c>
-      <c r="L98" s="40">
+      <c r="R98" s="40">
         <v>13.6878051607566</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="34"/>
       <c r="B99" s="41" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C99" s="42">
         <v>5.2598388681443096</v>
@@ -4950,19 +6722,37 @@
         <v>4.1222553404411597</v>
       </c>
       <c r="I99" s="42">
-        <v>18.440119512999999</v>
+        <v>4.6863685547201497</v>
       </c>
       <c r="J99" s="42">
-        <v>22.7021838</v>
+        <v>1.2654695655166199</v>
       </c>
       <c r="K99" s="42">
+        <v>50.8635767702756</v>
+      </c>
+      <c r="L99" s="42">
+        <v>22.642464104158101</v>
+      </c>
+      <c r="M99" s="42">
+        <v>8.8412367939944101</v>
+      </c>
+      <c r="N99" s="43">
+        <v>4.3862824685502897</v>
+      </c>
+      <c r="O99" s="42">
+        <v>18440.119513000001</v>
+      </c>
+      <c r="P99" s="42">
+        <v>22702.183799999999</v>
+      </c>
+      <c r="Q99" s="42">
         <v>44.820338260384602</v>
       </c>
-      <c r="L99" s="43">
+      <c r="R99" s="43">
         <v>23.506077656131499</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A100" s="44"/>
       <c r="B100" s="45"/>
       <c r="C100" s="46"/>
@@ -4975,10 +6765,16 @@
       <c r="J100" s="46"/>
       <c r="K100" s="46"/>
       <c r="L100" s="46"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M100" s="46"/>
+      <c r="N100" s="46"/>
+      <c r="O100" s="46"/>
+      <c r="P100" s="46"/>
+      <c r="Q100" s="46"/>
+      <c r="R100" s="46"/>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A101" s="47" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="49"/>
@@ -4991,10 +6787,16 @@
       <c r="J101" s="49"/>
       <c r="K101" s="49"/>
       <c r="L101" s="49"/>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M101" s="49"/>
+      <c r="N101" s="49"/>
+      <c r="O101" s="49"/>
+      <c r="P101" s="49"/>
+      <c r="Q101" s="49"/>
+      <c r="R101" s="49"/>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A102" s="47" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="49"/>
@@ -5007,10 +6809,16 @@
       <c r="J102" s="49"/>
       <c r="K102" s="49"/>
       <c r="L102" s="49"/>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M102" s="49"/>
+      <c r="N102" s="49"/>
+      <c r="O102" s="49"/>
+      <c r="P102" s="49"/>
+      <c r="Q102" s="49"/>
+      <c r="R102" s="49"/>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A103" s="47" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="49"/>
@@ -5023,10 +6831,16 @@
       <c r="J103" s="49"/>
       <c r="K103" s="49"/>
       <c r="L103" s="49"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M103" s="49"/>
+      <c r="N103" s="49"/>
+      <c r="O103" s="49"/>
+      <c r="P103" s="49"/>
+      <c r="Q103" s="49"/>
+      <c r="R103" s="49"/>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A104" s="47" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B104" s="48"/>
       <c r="C104" s="49"/>
@@ -5039,10 +6853,16 @@
       <c r="J104" s="49"/>
       <c r="K104" s="49"/>
       <c r="L104" s="49"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M104" s="49"/>
+      <c r="N104" s="49"/>
+      <c r="O104" s="49"/>
+      <c r="P104" s="49"/>
+      <c r="Q104" s="49"/>
+      <c r="R104" s="49"/>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A105" s="47" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="49"/>
@@ -5055,8 +6875,14 @@
       <c r="J105" s="49"/>
       <c r="K105" s="49"/>
       <c r="L105" s="49"/>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M105" s="49"/>
+      <c r="N105" s="49"/>
+      <c r="O105" s="49"/>
+      <c r="P105" s="49"/>
+      <c r="Q105" s="49"/>
+      <c r="R105" s="49"/>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B106" s="48"/>
       <c r="C106" s="49"/>
       <c r="D106" s="49"/>
@@ -5068,8 +6894,14 @@
       <c r="J106" s="49"/>
       <c r="K106" s="49"/>
       <c r="L106" s="49"/>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M106" s="49"/>
+      <c r="N106" s="49"/>
+      <c r="O106" s="49"/>
+      <c r="P106" s="49"/>
+      <c r="Q106" s="49"/>
+      <c r="R106" s="49"/>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B107" s="48"/>
       <c r="C107" s="49"/>
       <c r="D107" s="49"/>
@@ -5081,10 +6913,16 @@
       <c r="J107" s="49"/>
       <c r="K107" s="49"/>
       <c r="L107" s="49"/>
-    </row>
-    <row r="108" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="M107" s="49"/>
+      <c r="N107" s="49"/>
+      <c r="O107" s="49"/>
+      <c r="P107" s="49"/>
+      <c r="Q107" s="49"/>
+      <c r="R107" s="49"/>
+    </row>
+    <row r="108" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="50" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C108" s="49"/>
       <c r="D108" s="49"/>
@@ -5096,8 +6934,14 @@
       <c r="J108" s="49"/>
       <c r="K108" s="49"/>
       <c r="L108" s="49"/>
-    </row>
-    <row r="109" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="M108" s="49"/>
+      <c r="N108" s="49"/>
+      <c r="O108" s="49"/>
+      <c r="P108" s="49"/>
+      <c r="Q108" s="49"/>
+      <c r="R108" s="49"/>
+    </row>
+    <row r="109" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B109" s="50"/>
       <c r="C109" s="49"/>
       <c r="D109" s="49"/>
@@ -5109,10 +6953,16 @@
       <c r="J109" s="49"/>
       <c r="K109" s="49"/>
       <c r="L109" s="49"/>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M109" s="49"/>
+      <c r="N109" s="49"/>
+      <c r="O109" s="49"/>
+      <c r="P109" s="49"/>
+      <c r="Q109" s="49"/>
+      <c r="R109" s="49"/>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C110" s="49"/>
       <c r="D110" s="49"/>
@@ -5124,10 +6974,16 @@
       <c r="J110" s="49"/>
       <c r="K110" s="49"/>
       <c r="L110" s="49"/>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M110" s="49"/>
+      <c r="N110" s="49"/>
+      <c r="O110" s="49"/>
+      <c r="P110" s="49"/>
+      <c r="Q110" s="49"/>
+      <c r="R110" s="49"/>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C111" s="49"/>
       <c r="D111" s="49"/>
@@ -5139,8 +6995,14 @@
       <c r="J111" s="49"/>
       <c r="K111" s="49"/>
       <c r="L111" s="49"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M111" s="49"/>
+      <c r="N111" s="49"/>
+      <c r="O111" s="49"/>
+      <c r="P111" s="49"/>
+      <c r="Q111" s="49"/>
+      <c r="R111" s="49"/>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B112" s="2"/>
       <c r="C112" s="49"/>
       <c r="D112" s="49"/>
@@ -5152,10 +7014,16 @@
       <c r="J112" s="49"/>
       <c r="K112" s="49"/>
       <c r="L112" s="49"/>
-    </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M112" s="49"/>
+      <c r="N112" s="49"/>
+      <c r="O112" s="49"/>
+      <c r="P112" s="49"/>
+      <c r="Q112" s="49"/>
+      <c r="R112" s="49"/>
+    </row>
+    <row r="113" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C113" s="49"/>
       <c r="D113" s="49"/>
@@ -5167,10 +7035,16 @@
       <c r="J113" s="49"/>
       <c r="K113" s="49"/>
       <c r="L113" s="49"/>
-    </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M113" s="49"/>
+      <c r="N113" s="49"/>
+      <c r="O113" s="49"/>
+      <c r="P113" s="49"/>
+      <c r="Q113" s="49"/>
+      <c r="R113" s="49"/>
+    </row>
+    <row r="114" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C114" s="49"/>
       <c r="D114" s="49"/>
@@ -5182,8 +7056,14 @@
       <c r="J114" s="49"/>
       <c r="K114" s="49"/>
       <c r="L114" s="49"/>
-    </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M114" s="49"/>
+      <c r="N114" s="49"/>
+      <c r="O114" s="49"/>
+      <c r="P114" s="49"/>
+      <c r="Q114" s="49"/>
+      <c r="R114" s="49"/>
+    </row>
+    <row r="115" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B115" s="2"/>
       <c r="C115" s="49"/>
       <c r="D115" s="49"/>
@@ -5195,10 +7075,16 @@
       <c r="J115" s="49"/>
       <c r="K115" s="49"/>
       <c r="L115" s="49"/>
+      <c r="M115" s="49"/>
+      <c r="N115" s="49"/>
+      <c r="O115" s="49"/>
+      <c r="P115" s="49"/>
+      <c r="Q115" s="49"/>
+      <c r="R115" s="49"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B108" r:id="rId1"/>
+    <hyperlink ref="B108" r:id="rId1" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr."/>
     <hyperlink ref="B110" r:id="rId2"/>
     <hyperlink ref="B111" r:id="rId3"/>
     <hyperlink ref="B113" r:id="rId4"/>
